--- a/docs/SharkTraits-Template.xlsx
+++ b/docs/SharkTraits-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="33300" yWindow="-2460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1585">
   <si>
     <t>observation_id</t>
   </si>
@@ -4808,7 +4808,13 @@
     <t>Recently Described/Novel Species</t>
   </si>
   <si>
-    <t>Ratio CBD</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>cm PCL</t>
   </si>
 </sst>
 </file>
@@ -5891,10 +5897,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6430,8 +6436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A750" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6803,10 +6809,10 @@
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>1564</v>
+        <v>1583</v>
       </c>
       <c r="H27" t="s">
-        <v>1564</v>
+        <v>1583</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>1563</v>
@@ -6893,7 +6899,7 @@
     </row>
     <row r="33" spans="3:11">
       <c r="C33" t="s">
-        <v>85</v>
+        <v>1584</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>88</v>
@@ -6907,7 +6913,7 @@
     </row>
     <row r="34" spans="3:11">
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>89</v>
@@ -6920,6 +6926,9 @@
       </c>
     </row>
     <row r="35" spans="3:11">
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>90</v>
       </c>

--- a/docs/SharkTraits-Template.xlsx
+++ b/docs/SharkTraits-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33300" yWindow="-2460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1586">
   <si>
     <t>observation_id</t>
   </si>
@@ -4815,6 +4815,9 @@
   </si>
   <si>
     <t>cm PCL</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -5475,8 +5478,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Standards" displayName="Standards" ref="C26:H36" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="C26:H36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Standards" displayName="Standards" ref="C26:H37" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="C26:H37"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Length"/>
     <tableColumn id="2" name="Age"/>
@@ -5490,8 +5493,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Methods" displayName="Methods" ref="C39:H52" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="C39:H52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Methods" displayName="Methods" ref="C40:H53" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="C40:H53"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Length"/>
     <tableColumn id="2" name="Age"/>
@@ -5505,8 +5508,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Models" displayName="Models" ref="C56:H68" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="C56:H68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Models" displayName="Models" ref="C57:H69" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="C57:H69"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Length"/>
     <tableColumn id="2" name="Age"/>
@@ -5520,8 +5523,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Species" displayName="Species" ref="C72:F769" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="C72:F769"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Species" displayName="Species" ref="C73:F770" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="C73:F770"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Chimaeriformes" dataDxfId="12"/>
     <tableColumn id="2" name="Batoidea" dataDxfId="11"/>
@@ -5897,7 +5900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -6434,10 +6437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K769"/>
+  <dimension ref="A1:K770"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6959,7 +6962,9 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>1585</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="J37" s="11" t="s">
@@ -6970,14 +6975,12 @@
       </c>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="5" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="J38" s="11" t="s">
         <v>1473</v>
       </c>
@@ -6986,24 +6989,14 @@
       </c>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="C39" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="J39" s="11" t="s">
         <v>1475</v>
       </c>
@@ -7012,23 +7005,23 @@
       </c>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" t="s">
-        <v>133</v>
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>1477</v>
@@ -7039,18 +7032,21 @@
     </row>
     <row r="41" spans="3:11">
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" t="s">
         <v>133</v>
       </c>
       <c r="J41" s="11" t="s">
@@ -7062,16 +7058,19 @@
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>1481</v>
@@ -7082,16 +7081,16 @@
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="1" t="s">
-        <v>1434</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>1483</v>
@@ -7102,16 +7101,16 @@
     </row>
     <row r="44" spans="3:11">
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>1434</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>1432</v>
+        <v>125</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>1485</v>
@@ -7122,13 +7121,16 @@
     </row>
     <row r="45" spans="3:11">
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>1432</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>1487</v>
@@ -7139,13 +7141,13 @@
     </row>
     <row r="46" spans="3:11">
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>1489</v>
@@ -7156,10 +7158,13 @@
     </row>
     <row r="47" spans="3:11">
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>1491</v>
@@ -7170,10 +7175,10 @@
     </row>
     <row r="48" spans="3:11">
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1435</v>
+        <v>97</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>1567</v>
@@ -7184,10 +7189,10 @@
     </row>
     <row r="49" spans="3:11">
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>1493</v>
@@ -7198,10 +7203,10 @@
     </row>
     <row r="50" spans="3:11">
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>98</v>
+        <v>1436</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>1495</v>
@@ -7212,10 +7217,10 @@
     </row>
     <row r="51" spans="3:11">
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>1497</v>
@@ -7225,8 +7230,11 @@
       </c>
     </row>
     <row r="52" spans="3:11">
+      <c r="C52" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>1565</v>
+        <v>99</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>1499</v>
@@ -7236,6 +7244,9 @@
       </c>
     </row>
     <row r="53" spans="3:11">
+      <c r="D53" s="1" t="s">
+        <v>1565</v>
+      </c>
       <c r="J53" s="11" t="s">
         <v>1501</v>
       </c>
@@ -7252,14 +7263,6 @@
       </c>
     </row>
     <row r="55" spans="3:11">
-      <c r="C55" s="5" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
       <c r="J55" s="11" t="s">
         <v>1505</v>
       </c>
@@ -7268,24 +7271,14 @@
       </c>
     </row>
     <row r="56" spans="3:11">
-      <c r="C56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="C56" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
       <c r="J56" s="11" t="s">
         <v>1507</v>
       </c>
@@ -7294,17 +7287,23 @@
       </c>
     </row>
     <row r="57" spans="3:11">
-      <c r="C57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1571</v>
+      <c r="C57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>1509</v>
@@ -7315,16 +7314,16 @@
     </row>
     <row r="58" spans="3:11">
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H58" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>1511</v>
@@ -7335,13 +7334,16 @@
     </row>
     <row r="59" spans="3:11">
       <c r="C59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1572</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>1513</v>
@@ -7352,13 +7354,13 @@
     </row>
     <row r="60" spans="3:11">
       <c r="C60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>1515</v>
@@ -7368,8 +7370,14 @@
       </c>
     </row>
     <row r="61" spans="3:11">
+      <c r="C61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>1517</v>
@@ -7380,7 +7388,7 @@
     </row>
     <row r="62" spans="3:11">
       <c r="E62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>1519</v>
@@ -7391,7 +7399,7 @@
     </row>
     <row r="63" spans="3:11">
       <c r="E63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>1521</v>
@@ -7402,7 +7410,7 @@
     </row>
     <row r="64" spans="3:11">
       <c r="E64" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>1523</v>
@@ -7413,7 +7421,7 @@
     </row>
     <row r="65" spans="3:11">
       <c r="E65" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J65" s="11" t="s">
         <v>1525</v>
@@ -7424,7 +7432,7 @@
     </row>
     <row r="66" spans="3:11">
       <c r="E66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>1527</v>
@@ -7435,7 +7443,7 @@
     </row>
     <row r="67" spans="3:11">
       <c r="E67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>1529</v>
@@ -7446,7 +7454,7 @@
     </row>
     <row r="68" spans="3:11">
       <c r="E68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>1531</v>
@@ -7456,6 +7464,9 @@
       </c>
     </row>
     <row r="69" spans="3:11">
+      <c r="E69" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J69" s="11" t="s">
         <v>1533</v>
       </c>
@@ -7472,12 +7483,6 @@
       </c>
     </row>
     <row r="71" spans="3:11">
-      <c r="C71" s="3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
       <c r="J71" s="11" t="s">
         <v>1537</v>
       </c>
@@ -7487,17 +7492,11 @@
     </row>
     <row r="72" spans="3:11">
       <c r="C72" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>1445</v>
-      </c>
+        <v>1441</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
       <c r="J72" s="11" t="s">
         <v>1539</v>
       </c>
@@ -7506,17 +7505,17 @@
       </c>
     </row>
     <row r="73" spans="3:11">
-      <c r="C73" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>158</v>
+      <c r="C73" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1445</v>
       </c>
       <c r="J73" s="11" t="s">
         <v>1537</v>
@@ -7527,16 +7526,16 @@
     </row>
     <row r="74" spans="3:11">
       <c r="C74" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>140</v>
+        <v>1447</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>366</v>
+        <v>147</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>1542</v>
@@ -7547,16 +7546,16 @@
     </row>
     <row r="75" spans="3:11">
       <c r="C75" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J75" s="11" t="s">
         <v>1544</v>
@@ -7567,16 +7566,16 @@
     </row>
     <row r="76" spans="3:11">
       <c r="C76" s="10" t="s">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J76" s="11" t="s">
         <v>1546</v>
@@ -7587,16 +7586,16 @@
     </row>
     <row r="77" spans="3:11">
       <c r="C77" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J77" s="11" t="s">
         <v>1548</v>
@@ -7607,16 +7606,16 @@
     </row>
     <row r="78" spans="3:11">
       <c r="C78" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J78" s="11" t="s">
         <v>1550</v>
@@ -7627,16 +7626,16 @@
     </row>
     <row r="79" spans="3:11">
       <c r="C79" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J79" s="11" t="s">
         <v>1552</v>
@@ -7647,16 +7646,16 @@
     </row>
     <row r="80" spans="3:11">
       <c r="C80" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J80" s="11" t="s">
         <v>1554</v>
@@ -7667,16 +7666,16 @@
     </row>
     <row r="81" spans="3:11">
       <c r="C81" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J81" s="11" t="s">
         <v>1556</v>
@@ -7687,16 +7686,16 @@
     </row>
     <row r="82" spans="3:11">
       <c r="C82" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>1558</v>
@@ -7707,16 +7706,16 @@
     </row>
     <row r="83" spans="3:11">
       <c r="C83" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>1560</v>
@@ -7727,3952 +7726,3958 @@
     </row>
     <row r="84" spans="3:11">
       <c r="C84" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="3:11">
       <c r="C85" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="3:11">
       <c r="C86" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="3:11">
       <c r="C87" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="3:11">
       <c r="C88" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="3:11">
       <c r="C89" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="3:11">
       <c r="C90" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="3:11">
       <c r="C91" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="3:11">
       <c r="C92" s="10" t="s">
-        <v>682</v>
+        <v>434</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="3:11">
       <c r="C93" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="3:11">
       <c r="C94" s="10" t="s">
-        <v>755</v>
+        <v>683</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="3:11">
       <c r="C95" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="3:11">
       <c r="C96" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="3:6">
       <c r="C97" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="3:6">
       <c r="C98" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="3:6">
       <c r="C99" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="3:6">
       <c r="C100" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="3:6">
       <c r="C101" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="3:6">
       <c r="C102" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="3:6">
       <c r="C103" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="3:6">
       <c r="C104" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="3:6">
       <c r="C105" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="3:6">
       <c r="C106" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="3:6">
       <c r="C107" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="3:6">
       <c r="C108" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="3:6">
       <c r="C109" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="3:6">
       <c r="C110" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="3:6">
       <c r="C111" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="3:6">
       <c r="C112" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="3:6">
       <c r="C113" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="3:6">
       <c r="C114" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="3:6">
       <c r="C115" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="3:6">
       <c r="C116" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="3:6">
       <c r="C117" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="3:6">
       <c r="C118" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="3:6">
       <c r="C119" s="10" t="s">
-        <v>911</v>
+        <v>779</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="3:6">
       <c r="C120" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="3:6">
       <c r="C121" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="122" spans="3:6">
       <c r="C122" s="10" t="s">
-        <v>1161</v>
+        <v>913</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="3:6">
       <c r="C123" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="3:6">
       <c r="C124" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="3:6">
       <c r="C125" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6">
+      <c r="C126" s="10" t="s">
         <v>1581</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D126" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E126" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F125" s="10" t="s">
+      <c r="F126" s="10" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6">
-      <c r="C126" s="8"/>
-      <c r="D126" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="127" spans="3:6">
       <c r="C127" s="8"/>
       <c r="D127" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="3:6">
       <c r="C128" s="8"/>
       <c r="D128" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="3:6">
       <c r="C129" s="8"/>
       <c r="D129" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="3:6">
       <c r="C130" s="8"/>
       <c r="D130" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="3:6">
       <c r="C131" s="8"/>
       <c r="D131" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="3:6">
       <c r="C132" s="8"/>
       <c r="D132" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="3:6">
       <c r="C133" s="8"/>
       <c r="D133" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="3:6">
       <c r="C134" s="8"/>
       <c r="D134" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="3:6">
       <c r="C135" s="8"/>
       <c r="D135" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="3:6">
       <c r="C136" s="8"/>
       <c r="D136" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="3:6">
       <c r="C137" s="8"/>
       <c r="D137" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="3:6">
       <c r="C138" s="8"/>
       <c r="D138" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="3:6">
       <c r="C139" s="8"/>
       <c r="D139" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="3:6">
       <c r="C140" s="8"/>
       <c r="D140" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="3:6">
       <c r="C141" s="8"/>
       <c r="D141" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="3:6">
       <c r="C142" s="8"/>
       <c r="D142" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="3:6">
       <c r="C143" s="8"/>
       <c r="D143" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="3:6">
       <c r="C144" s="8"/>
       <c r="D144" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="145" spans="3:6">
       <c r="C145" s="8"/>
       <c r="D145" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="146" spans="3:6">
       <c r="C146" s="8"/>
       <c r="D146" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="147" spans="3:6">
       <c r="C147" s="8"/>
       <c r="D147" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="3:6">
       <c r="C148" s="8"/>
       <c r="D148" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="3:6">
       <c r="C149" s="8"/>
       <c r="D149" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="3:6">
       <c r="C150" s="8"/>
       <c r="D150" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="3:6">
       <c r="C151" s="8"/>
       <c r="D151" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>705</v>
+        <v>602</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="3:6">
       <c r="C152" s="8"/>
       <c r="D152" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="3:6">
       <c r="C153" s="8"/>
       <c r="D153" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="3:6">
       <c r="C154" s="8"/>
       <c r="D154" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="3:6">
       <c r="C155" s="8"/>
       <c r="D155" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="156" spans="3:6">
       <c r="C156" s="8"/>
       <c r="D156" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>788</v>
+        <v>722</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="3:6">
       <c r="C157" s="8"/>
       <c r="D157" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="3:6">
       <c r="C158" s="8"/>
       <c r="D158" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" spans="3:6">
       <c r="C159" s="8"/>
       <c r="D159" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>838</v>
+        <v>790</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="3:6">
       <c r="C160" s="8"/>
       <c r="D160" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>942</v>
+        <v>838</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="3:6">
       <c r="C161" s="8"/>
       <c r="D161" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="3:6">
       <c r="C162" s="8"/>
       <c r="D162" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="163" spans="3:6">
       <c r="C163" s="8"/>
       <c r="D163" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="164" spans="3:6">
       <c r="C164" s="8"/>
       <c r="D164" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="165" spans="3:6">
       <c r="C165" s="8"/>
       <c r="D165" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="3:6">
       <c r="C166" s="8"/>
       <c r="D166" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>1019</v>
+        <v>976</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167" spans="3:6">
       <c r="C167" s="8"/>
       <c r="D167" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>1052</v>
+        <v>1019</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="3:6">
       <c r="C168" s="8"/>
       <c r="D168" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="3:6">
       <c r="C169" s="8"/>
       <c r="D169" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="170" spans="3:6">
       <c r="C170" s="8"/>
       <c r="D170" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="3:6">
       <c r="C171" s="8"/>
       <c r="D171" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="3:6">
       <c r="C172" s="8"/>
       <c r="D172" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="3:6">
       <c r="C173" s="8"/>
       <c r="D173" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="3:6">
       <c r="C174" s="8"/>
       <c r="D174" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="3:6">
       <c r="C175" s="8"/>
       <c r="D175" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="3:6">
       <c r="C176" s="8"/>
       <c r="D176" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>1226</v>
+        <v>1067</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="177" spans="3:6">
       <c r="C177" s="8"/>
       <c r="D177" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="3:6">
       <c r="C178" s="8"/>
       <c r="D178" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="3:6">
       <c r="C179" s="8"/>
       <c r="D179" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="3:6">
       <c r="C180" s="8"/>
       <c r="D180" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="181" spans="3:6">
       <c r="C181" s="8"/>
       <c r="D181" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="3:6">
       <c r="C182" s="8"/>
       <c r="D182" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="183" spans="3:6">
       <c r="C183" s="8"/>
       <c r="D183" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="184" spans="3:6">
       <c r="C184" s="8"/>
       <c r="D184" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185" spans="3:6">
       <c r="C185" s="8"/>
       <c r="D185" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="186" spans="3:6">
       <c r="C186" s="8"/>
       <c r="D186" s="10" t="s">
-        <v>443</v>
+        <v>312</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187" spans="3:6">
       <c r="C187" s="8"/>
       <c r="D187" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="3:6">
       <c r="C188" s="8"/>
       <c r="D188" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="3:6">
       <c r="C189" s="8"/>
       <c r="D189" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="3:6">
       <c r="C190" s="8"/>
       <c r="D190" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="3:6">
       <c r="C191" s="8"/>
       <c r="D191" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="3:6">
       <c r="C192" s="8"/>
       <c r="D192" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="193" spans="3:6">
       <c r="C193" s="8"/>
       <c r="D193" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="194" spans="3:6">
       <c r="C194" s="8"/>
       <c r="D194" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="195" spans="3:6">
       <c r="C195" s="8"/>
       <c r="D195" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196" spans="3:6">
       <c r="C196" s="8"/>
       <c r="D196" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="3:6">
       <c r="C197" s="8"/>
       <c r="D197" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="3:6">
       <c r="C198" s="8"/>
       <c r="D198" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="3:6">
       <c r="C199" s="8"/>
       <c r="D199" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="200" spans="3:6">
       <c r="C200" s="8"/>
       <c r="D200" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="201" spans="3:6">
       <c r="C201" s="8"/>
       <c r="D201" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="3:6">
       <c r="C202" s="8"/>
       <c r="D202" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="3:6">
       <c r="C203" s="8"/>
       <c r="D203" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="3:6">
       <c r="C204" s="8"/>
       <c r="D204" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="3:6">
       <c r="C205" s="8"/>
       <c r="D205" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="3:6">
       <c r="C206" s="8"/>
       <c r="D206" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="207" spans="3:6">
       <c r="C207" s="8"/>
       <c r="D207" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="208" spans="3:6">
       <c r="C208" s="8"/>
       <c r="D208" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="209" spans="3:6">
       <c r="C209" s="8"/>
       <c r="D209" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="3:6">
       <c r="C210" s="8"/>
       <c r="D210" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="211" spans="3:6">
       <c r="C211" s="8"/>
       <c r="D211" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="3:6">
       <c r="C212" s="8"/>
       <c r="D212" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="3:6">
       <c r="C213" s="8"/>
       <c r="D213" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="214" spans="3:6">
       <c r="C214" s="8"/>
       <c r="D214" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="215" spans="3:6">
       <c r="C215" s="8"/>
       <c r="D215" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="216" spans="3:6">
       <c r="C216" s="8"/>
       <c r="D216" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="217" spans="3:6">
       <c r="C217" s="8"/>
       <c r="D217" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="3:6">
       <c r="C218" s="8"/>
       <c r="D218" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>556</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="3:6">
       <c r="C219" s="8"/>
       <c r="D219" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="220" spans="3:6">
       <c r="C220" s="8"/>
       <c r="D220" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="221" spans="3:6">
       <c r="C221" s="8"/>
       <c r="D221" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
     </row>
     <row r="222" spans="3:6">
       <c r="C222" s="8"/>
       <c r="D222" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="3:6">
       <c r="C223" s="8"/>
       <c r="D223" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="224" spans="3:6">
       <c r="C224" s="8"/>
       <c r="D224" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="3:6">
       <c r="C225" s="8"/>
       <c r="D225" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="3:6">
       <c r="C226" s="8"/>
       <c r="D226" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="227" spans="3:6">
       <c r="C227" s="8"/>
       <c r="D227" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="3:6">
       <c r="C228" s="8"/>
       <c r="D228" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="229" spans="3:6">
       <c r="C229" s="8"/>
       <c r="D229" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="3:6">
       <c r="C230" s="8"/>
       <c r="D230" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="231" spans="3:6">
       <c r="C231" s="8"/>
       <c r="D231" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="232" spans="3:6">
       <c r="C232" s="8"/>
       <c r="D232" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="233" spans="3:6">
       <c r="C233" s="8"/>
       <c r="D233" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="234" spans="3:6">
       <c r="C234" s="8"/>
       <c r="D234" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="235" spans="3:6">
       <c r="C235" s="8"/>
       <c r="D235" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="236" spans="3:6">
       <c r="C236" s="8"/>
       <c r="D236" s="10" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="237" spans="3:6">
       <c r="C237" s="8"/>
       <c r="D237" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="238" spans="3:6">
       <c r="C238" s="8"/>
       <c r="D238" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="239" spans="3:6">
       <c r="C239" s="8"/>
       <c r="D239" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="3:6">
       <c r="C240" s="8"/>
       <c r="D240" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="241" spans="3:6">
       <c r="C241" s="8"/>
       <c r="D241" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>1353</v>
+        <v>1307</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="3:6">
       <c r="C242" s="8"/>
       <c r="D242" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>1410</v>
+        <v>1353</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="3:6">
       <c r="C243" s="8"/>
       <c r="D243" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="244" spans="3:6">
       <c r="C244" s="8"/>
       <c r="D244" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>1581</v>
+        <v>1411</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="245" spans="3:6">
       <c r="C245" s="8"/>
       <c r="D245" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="E245" s="8"/>
+        <v>507</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>1581</v>
+      </c>
       <c r="F245" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="246" spans="3:6">
       <c r="C246" s="8"/>
       <c r="D246" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E246" s="8"/>
       <c r="F246" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="247" spans="3:6">
       <c r="C247" s="8"/>
       <c r="D247" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E247" s="8"/>
       <c r="F247" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="248" spans="3:6">
       <c r="C248" s="8"/>
       <c r="D248" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E248" s="8"/>
       <c r="F248" s="10" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="249" spans="3:6">
       <c r="C249" s="8"/>
       <c r="D249" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E249" s="8"/>
       <c r="F249" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="250" spans="3:6">
       <c r="C250" s="8"/>
       <c r="D250" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E250" s="8"/>
       <c r="F250" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="251" spans="3:6">
       <c r="C251" s="8"/>
       <c r="D251" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E251" s="8"/>
       <c r="F251" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="252" spans="3:6">
       <c r="C252" s="8"/>
       <c r="D252" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E252" s="8"/>
       <c r="F252" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="253" spans="3:6">
       <c r="C253" s="8"/>
       <c r="D253" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E253" s="8"/>
       <c r="F253" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="254" spans="3:6">
       <c r="C254" s="8"/>
       <c r="D254" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="255" spans="3:6">
       <c r="C255" s="8"/>
       <c r="D255" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E255" s="8"/>
       <c r="F255" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="256" spans="3:6">
       <c r="C256" s="8"/>
       <c r="D256" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E256" s="8"/>
       <c r="F256" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="257" spans="3:6">
       <c r="C257" s="8"/>
       <c r="D257" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E257" s="8"/>
       <c r="F257" s="10" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="258" spans="3:6">
       <c r="C258" s="8"/>
       <c r="D258" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E258" s="8"/>
       <c r="F258" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="259" spans="3:6">
       <c r="C259" s="8"/>
       <c r="D259" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E259" s="8"/>
       <c r="F259" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="260" spans="3:6">
       <c r="C260" s="8"/>
       <c r="D260" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E260" s="8"/>
       <c r="F260" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="261" spans="3:6">
       <c r="C261" s="8"/>
       <c r="D261" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E261" s="8"/>
       <c r="F261" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="262" spans="3:6">
       <c r="C262" s="8"/>
       <c r="D262" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E262" s="8"/>
       <c r="F262" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="263" spans="3:6">
       <c r="C263" s="8"/>
       <c r="D263" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E263" s="8"/>
       <c r="F263" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="264" spans="3:6">
       <c r="C264" s="8"/>
       <c r="D264" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E264" s="8"/>
       <c r="F264" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="265" spans="3:6">
       <c r="C265" s="8"/>
       <c r="D265" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E265" s="8"/>
       <c r="F265" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="3:6">
       <c r="C266" s="8"/>
       <c r="D266" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E266" s="8"/>
       <c r="F266" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="267" spans="3:6">
       <c r="C267" s="8"/>
       <c r="D267" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E267" s="8"/>
       <c r="F267" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268" spans="3:6">
       <c r="C268" s="8"/>
       <c r="D268" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E268" s="8"/>
       <c r="F268" s="10" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="269" spans="3:6">
       <c r="C269" s="8"/>
       <c r="D269" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E269" s="8"/>
       <c r="F269" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="270" spans="3:6">
       <c r="C270" s="8"/>
       <c r="D270" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E270" s="8"/>
       <c r="F270" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="271" spans="3:6">
       <c r="C271" s="8"/>
       <c r="D271" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E271" s="8"/>
       <c r="F271" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="272" spans="3:6">
       <c r="C272" s="8"/>
       <c r="D272" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E272" s="8"/>
       <c r="F272" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="273" spans="3:6">
       <c r="C273" s="8"/>
       <c r="D273" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E273" s="8"/>
       <c r="F273" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="274" spans="3:6">
       <c r="C274" s="8"/>
       <c r="D274" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E274" s="8"/>
       <c r="F274" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="275" spans="3:6">
       <c r="C275" s="8"/>
       <c r="D275" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E275" s="8"/>
       <c r="F275" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="276" spans="3:6">
       <c r="C276" s="8"/>
       <c r="D276" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E276" s="8"/>
       <c r="F276" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="277" spans="3:6">
       <c r="C277" s="8"/>
       <c r="D277" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E277" s="8"/>
       <c r="F277" s="10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="278" spans="3:6">
       <c r="C278" s="8"/>
       <c r="D278" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E278" s="8"/>
       <c r="F278" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="279" spans="3:6">
       <c r="C279" s="8"/>
       <c r="D279" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E279" s="8"/>
       <c r="F279" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="280" spans="3:6">
       <c r="C280" s="8"/>
       <c r="D280" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281" spans="3:6">
       <c r="C281" s="8"/>
       <c r="D281" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E281" s="8"/>
       <c r="F281" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="282" spans="3:6">
       <c r="C282" s="8"/>
       <c r="D282" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E282" s="8"/>
       <c r="F282" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="283" spans="3:6">
       <c r="C283" s="8"/>
       <c r="D283" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E283" s="8"/>
       <c r="F283" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="284" spans="3:6">
       <c r="C284" s="8"/>
       <c r="D284" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E284" s="8"/>
       <c r="F284" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="285" spans="3:6">
       <c r="C285" s="8"/>
       <c r="D285" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E285" s="8"/>
       <c r="F285" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="286" spans="3:6">
       <c r="C286" s="8"/>
       <c r="D286" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E286" s="8"/>
       <c r="F286" s="10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="287" spans="3:6">
       <c r="C287" s="8"/>
       <c r="D287" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E287" s="8"/>
       <c r="F287" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="288" spans="3:6">
       <c r="C288" s="8"/>
       <c r="D288" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E288" s="8"/>
       <c r="F288" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="289" spans="3:6">
       <c r="C289" s="8"/>
       <c r="D289" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E289" s="8"/>
       <c r="F289" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="290" spans="3:6">
       <c r="C290" s="8"/>
       <c r="D290" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E290" s="8"/>
       <c r="F290" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="291" spans="3:6">
       <c r="C291" s="8"/>
       <c r="D291" s="10" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="E291" s="8"/>
       <c r="F291" s="10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="292" spans="3:6">
       <c r="C292" s="8"/>
       <c r="D292" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E292" s="8"/>
       <c r="F292" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="293" spans="3:6">
       <c r="C293" s="8"/>
       <c r="D293" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E293" s="8"/>
       <c r="F293" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="294" spans="3:6">
       <c r="C294" s="8"/>
       <c r="D294" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E294" s="8"/>
       <c r="F294" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="295" spans="3:6">
       <c r="C295" s="8"/>
       <c r="D295" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E295" s="8"/>
       <c r="F295" s="10" t="s">
-        <v>749</v>
+        <v>714</v>
       </c>
     </row>
     <row r="296" spans="3:6">
       <c r="C296" s="8"/>
       <c r="D296" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E296" s="8"/>
       <c r="F296" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="297" spans="3:6">
       <c r="C297" s="8"/>
       <c r="D297" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="298" spans="3:6">
       <c r="C298" s="8"/>
       <c r="D298" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E298" s="8"/>
       <c r="F298" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="299" spans="3:6">
       <c r="C299" s="8"/>
       <c r="D299" s="10" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="300" spans="3:6">
       <c r="C300" s="8"/>
       <c r="D300" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E300" s="8"/>
       <c r="F300" s="10" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
     </row>
     <row r="301" spans="3:6">
       <c r="C301" s="8"/>
       <c r="D301" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="302" spans="3:6">
       <c r="C302" s="8"/>
       <c r="D302" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E302" s="8"/>
       <c r="F302" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="303" spans="3:6">
       <c r="C303" s="8"/>
       <c r="D303" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E303" s="8"/>
       <c r="F303" s="10" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="304" spans="3:6">
       <c r="C304" s="8"/>
       <c r="D304" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E304" s="8"/>
       <c r="F304" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="305" spans="3:6">
       <c r="C305" s="8"/>
       <c r="D305" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E305" s="8"/>
       <c r="F305" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="306" spans="3:6">
       <c r="C306" s="8"/>
       <c r="D306" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E306" s="8"/>
       <c r="F306" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="307" spans="3:6">
       <c r="C307" s="8"/>
       <c r="D307" s="10" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E307" s="8"/>
       <c r="F307" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="308" spans="3:6">
       <c r="C308" s="8"/>
       <c r="D308" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E308" s="8"/>
       <c r="F308" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="309" spans="3:6">
       <c r="C309" s="8"/>
       <c r="D309" s="10" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E309" s="8"/>
       <c r="F309" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="310" spans="3:6">
       <c r="C310" s="8"/>
       <c r="D310" s="10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E310" s="8"/>
       <c r="F310" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="311" spans="3:6">
       <c r="C311" s="8"/>
       <c r="D311" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E311" s="8"/>
       <c r="F311" s="10" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="312" spans="3:6">
       <c r="C312" s="8"/>
       <c r="D312" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E312" s="8"/>
       <c r="F312" s="10" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
     </row>
     <row r="313" spans="3:6">
       <c r="C313" s="8"/>
       <c r="D313" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E313" s="8"/>
       <c r="F313" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="314" spans="3:6">
       <c r="C314" s="8"/>
       <c r="D314" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E314" s="8"/>
       <c r="F314" s="10" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="315" spans="3:6">
       <c r="C315" s="8"/>
       <c r="D315" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="316" spans="3:6">
       <c r="C316" s="8"/>
       <c r="D316" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E316" s="8"/>
       <c r="F316" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="317" spans="3:6">
       <c r="C317" s="8"/>
       <c r="D317" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E317" s="8"/>
       <c r="F317" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="318" spans="3:6">
       <c r="C318" s="8"/>
       <c r="D318" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E318" s="8"/>
       <c r="F318" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="319" spans="3:6">
       <c r="C319" s="8"/>
       <c r="D319" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E319" s="8"/>
       <c r="F319" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="320" spans="3:6">
       <c r="C320" s="8"/>
       <c r="D320" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E320" s="8"/>
       <c r="F320" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="321" spans="3:6">
       <c r="C321" s="8"/>
       <c r="D321" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E321" s="8"/>
       <c r="F321" s="10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="322" spans="3:6">
       <c r="C322" s="8"/>
       <c r="D322" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E322" s="8"/>
       <c r="F322" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="323" spans="3:6">
       <c r="C323" s="8"/>
       <c r="D323" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E323" s="8"/>
       <c r="F323" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="324" spans="3:6">
       <c r="C324" s="8"/>
       <c r="D324" s="10" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="E324" s="8"/>
       <c r="F324" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="325" spans="3:6">
       <c r="C325" s="8"/>
       <c r="D325" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E325" s="8"/>
       <c r="F325" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="326" spans="3:6">
       <c r="C326" s="8"/>
       <c r="D326" s="10" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="E326" s="8"/>
       <c r="F326" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="327" spans="3:6">
       <c r="C327" s="8"/>
       <c r="D327" s="10" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="E327" s="8"/>
       <c r="F327" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="328" spans="3:6">
       <c r="C328" s="8"/>
       <c r="D328" s="10" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E328" s="8"/>
       <c r="F328" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="329" spans="3:6">
       <c r="C329" s="8"/>
       <c r="D329" s="10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E329" s="8"/>
       <c r="F329" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="330" spans="3:6">
       <c r="C330" s="8"/>
       <c r="D330" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E330" s="8"/>
       <c r="F330" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="331" spans="3:6">
       <c r="C331" s="8"/>
       <c r="D331" s="10" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E331" s="8"/>
       <c r="F331" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="332" spans="3:6">
       <c r="C332" s="8"/>
       <c r="D332" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E332" s="8"/>
       <c r="F332" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="333" spans="3:6">
       <c r="C333" s="8"/>
       <c r="D333" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E333" s="8"/>
       <c r="F333" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="334" spans="3:6">
       <c r="C334" s="8"/>
       <c r="D334" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E334" s="8"/>
       <c r="F334" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="335" spans="3:6">
       <c r="C335" s="8"/>
       <c r="D335" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E335" s="8"/>
       <c r="F335" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="336" spans="3:6">
       <c r="C336" s="8"/>
       <c r="D336" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E336" s="8"/>
       <c r="F336" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="337" spans="3:6">
       <c r="C337" s="8"/>
       <c r="D337" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E337" s="8"/>
       <c r="F337" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="338" spans="3:6">
       <c r="C338" s="8"/>
       <c r="D338" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E338" s="8"/>
       <c r="F338" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="339" spans="3:6">
       <c r="C339" s="8"/>
       <c r="D339" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E339" s="8"/>
       <c r="F339" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="340" spans="3:6">
       <c r="C340" s="8"/>
       <c r="D340" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E340" s="8"/>
       <c r="F340" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="341" spans="3:6">
       <c r="C341" s="8"/>
       <c r="D341" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E341" s="8"/>
       <c r="F341" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="342" spans="3:6">
       <c r="C342" s="8"/>
       <c r="D342" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E342" s="8"/>
       <c r="F342" s="10" t="s">
-        <v>907</v>
+        <v>866</v>
       </c>
     </row>
     <row r="343" spans="3:6">
       <c r="C343" s="8"/>
       <c r="D343" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E343" s="8"/>
       <c r="F343" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="344" spans="3:6">
       <c r="C344" s="8"/>
       <c r="D344" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E344" s="8"/>
       <c r="F344" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="345" spans="3:6">
       <c r="C345" s="8"/>
       <c r="D345" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E345" s="8"/>
       <c r="F345" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="346" spans="3:6">
       <c r="C346" s="8"/>
       <c r="D346" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E346" s="8"/>
       <c r="F346" s="10" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
     </row>
     <row r="347" spans="3:6">
       <c r="C347" s="8"/>
       <c r="D347" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E347" s="8"/>
       <c r="F347" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="348" spans="3:6">
       <c r="C348" s="8"/>
       <c r="D348" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E348" s="8"/>
       <c r="F348" s="10" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
     </row>
     <row r="349" spans="3:6">
       <c r="C349" s="8"/>
       <c r="D349" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E349" s="8"/>
       <c r="F349" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="350" spans="3:6">
       <c r="C350" s="8"/>
       <c r="D350" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E350" s="8"/>
       <c r="F350" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="351" spans="3:6">
       <c r="C351" s="8"/>
       <c r="D351" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E351" s="8"/>
       <c r="F351" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="352" spans="3:6">
       <c r="C352" s="8"/>
       <c r="D352" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E352" s="8"/>
       <c r="F352" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="353" spans="3:6">
       <c r="C353" s="8"/>
       <c r="D353" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E353" s="8"/>
       <c r="F353" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="354" spans="3:6">
       <c r="C354" s="8"/>
       <c r="D354" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E354" s="8"/>
       <c r="F354" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="355" spans="3:6">
       <c r="C355" s="8"/>
       <c r="D355" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E355" s="8"/>
       <c r="F355" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="356" spans="3:6">
       <c r="C356" s="8"/>
       <c r="D356" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E356" s="8"/>
       <c r="F356" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="357" spans="3:6">
       <c r="C357" s="8"/>
       <c r="D357" s="10" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E357" s="8"/>
       <c r="F357" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="358" spans="3:6">
       <c r="C358" s="8"/>
       <c r="D358" s="10" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="E358" s="8"/>
       <c r="F358" s="10" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="359" spans="3:6">
       <c r="C359" s="8"/>
       <c r="D359" s="10" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E359" s="8"/>
       <c r="F359" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="360" spans="3:6">
       <c r="C360" s="8"/>
       <c r="D360" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E360" s="8"/>
       <c r="F360" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="361" spans="3:6">
       <c r="C361" s="8"/>
       <c r="D361" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E361" s="8"/>
       <c r="F361" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="362" spans="3:6">
       <c r="C362" s="8"/>
       <c r="D362" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E362" s="8"/>
       <c r="F362" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="363" spans="3:6">
       <c r="C363" s="8"/>
       <c r="D363" s="10" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="E363" s="8"/>
       <c r="F363" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="364" spans="3:6">
       <c r="C364" s="8"/>
       <c r="D364" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E364" s="8"/>
       <c r="F364" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="365" spans="3:6">
       <c r="C365" s="8"/>
       <c r="D365" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E365" s="8"/>
       <c r="F365" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="366" spans="3:6">
       <c r="C366" s="8"/>
       <c r="D366" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E366" s="8"/>
       <c r="F366" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="367" spans="3:6">
       <c r="C367" s="8"/>
       <c r="D367" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E367" s="8"/>
       <c r="F367" s="10" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="368" spans="3:6">
       <c r="C368" s="8"/>
       <c r="D368" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E368" s="8"/>
       <c r="F368" s="10" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="369" spans="3:6">
       <c r="C369" s="8"/>
       <c r="D369" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E369" s="8"/>
       <c r="F369" s="10" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="370" spans="3:6">
       <c r="C370" s="8"/>
       <c r="D370" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E370" s="8"/>
       <c r="F370" s="10" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="371" spans="3:6">
       <c r="C371" s="8"/>
       <c r="D371" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E371" s="8"/>
       <c r="F371" s="10" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="372" spans="3:6">
       <c r="C372" s="8"/>
       <c r="D372" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E372" s="8"/>
       <c r="F372" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="373" spans="3:6">
       <c r="C373" s="8"/>
       <c r="D373" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E373" s="8"/>
       <c r="F373" s="10" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="374" spans="3:6">
       <c r="C374" s="8"/>
       <c r="D374" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E374" s="8"/>
       <c r="F374" s="10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="375" spans="3:6">
       <c r="C375" s="8"/>
       <c r="D375" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E375" s="8"/>
       <c r="F375" s="10" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="376" spans="3:6">
       <c r="C376" s="8"/>
       <c r="D376" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E376" s="8"/>
       <c r="F376" s="10" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="377" spans="3:6">
       <c r="C377" s="8"/>
       <c r="D377" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E377" s="8"/>
       <c r="F377" s="10" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
     </row>
     <row r="378" spans="3:6">
       <c r="C378" s="8"/>
       <c r="D378" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E378" s="8"/>
       <c r="F378" s="10" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="379" spans="3:6">
       <c r="C379" s="8"/>
       <c r="D379" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E379" s="8"/>
       <c r="F379" s="10" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="380" spans="3:6">
       <c r="C380" s="8"/>
       <c r="D380" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E380" s="8"/>
       <c r="F380" s="10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="381" spans="3:6">
       <c r="C381" s="8"/>
       <c r="D381" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E381" s="8"/>
       <c r="F381" s="10" t="s">
-        <v>1051</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="382" spans="3:6">
       <c r="C382" s="8"/>
       <c r="D382" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E382" s="8"/>
       <c r="F382" s="10" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="383" spans="3:6">
       <c r="C383" s="8"/>
       <c r="D383" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E383" s="8"/>
       <c r="F383" s="10" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="384" spans="3:6">
       <c r="C384" s="8"/>
       <c r="D384" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E384" s="8"/>
       <c r="F384" s="10" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="385" spans="3:6">
       <c r="C385" s="8"/>
       <c r="D385" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E385" s="8"/>
       <c r="F385" s="10" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="386" spans="3:6">
       <c r="C386" s="8"/>
       <c r="D386" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E386" s="8"/>
       <c r="F386" s="10" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="387" spans="3:6">
       <c r="C387" s="8"/>
       <c r="D387" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E387" s="8"/>
       <c r="F387" s="10" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="388" spans="3:6">
       <c r="C388" s="8"/>
       <c r="D388" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E388" s="8"/>
       <c r="F388" s="10" t="s">
-        <v>1135</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="389" spans="3:6">
       <c r="C389" s="8"/>
       <c r="D389" s="10" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E389" s="8"/>
       <c r="F389" s="10" t="s">
-        <v>1184</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="390" spans="3:6">
       <c r="C390" s="8"/>
       <c r="D390" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E390" s="8"/>
       <c r="F390" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="391" spans="3:6">
       <c r="C391" s="8"/>
       <c r="D391" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E391" s="8"/>
       <c r="F391" s="10" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="392" spans="3:6">
       <c r="C392" s="8"/>
       <c r="D392" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E392" s="8"/>
       <c r="F392" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="393" spans="3:6">
       <c r="C393" s="8"/>
       <c r="D393" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E393" s="8"/>
       <c r="F393" s="10" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="394" spans="3:6">
       <c r="C394" s="8"/>
       <c r="D394" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E394" s="8"/>
       <c r="F394" s="10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="395" spans="3:6">
       <c r="C395" s="8"/>
       <c r="D395" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E395" s="8"/>
       <c r="F395" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="396" spans="3:6">
       <c r="C396" s="8"/>
       <c r="D396" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E396" s="8"/>
       <c r="F396" s="10" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="397" spans="3:6">
       <c r="C397" s="8"/>
       <c r="D397" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E397" s="8"/>
       <c r="F397" s="10" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="398" spans="3:6">
       <c r="C398" s="8"/>
       <c r="D398" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E398" s="8"/>
       <c r="F398" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="399" spans="3:6">
       <c r="C399" s="8"/>
       <c r="D399" s="10" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="E399" s="8"/>
       <c r="F399" s="10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="400" spans="3:6">
       <c r="C400" s="8"/>
       <c r="D400" s="10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E400" s="8"/>
       <c r="F400" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="401" spans="3:6">
       <c r="C401" s="8"/>
       <c r="D401" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E401" s="8"/>
       <c r="F401" s="10" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="402" spans="3:6">
       <c r="C402" s="8"/>
       <c r="D402" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E402" s="8"/>
       <c r="F402" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="403" spans="3:6">
       <c r="C403" s="8"/>
       <c r="D403" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E403" s="8"/>
       <c r="F403" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="404" spans="3:6">
       <c r="C404" s="8"/>
       <c r="D404" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E404" s="8"/>
       <c r="F404" s="10" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="405" spans="3:6">
       <c r="C405" s="8"/>
       <c r="D405" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E405" s="8"/>
       <c r="F405" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="406" spans="3:6">
       <c r="C406" s="8"/>
       <c r="D406" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E406" s="8"/>
       <c r="F406" s="10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="407" spans="3:6">
       <c r="C407" s="8"/>
       <c r="D407" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E407" s="8"/>
       <c r="F407" s="10" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="408" spans="3:6">
       <c r="C408" s="8"/>
       <c r="D408" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E408" s="8"/>
       <c r="F408" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="409" spans="3:6">
       <c r="C409" s="8"/>
       <c r="D409" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E409" s="8"/>
       <c r="F409" s="10" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="410" spans="3:6">
       <c r="C410" s="8"/>
       <c r="D410" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E410" s="8"/>
       <c r="F410" s="10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="411" spans="3:6">
       <c r="C411" s="8"/>
       <c r="D411" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E411" s="8"/>
       <c r="F411" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="412" spans="3:6">
       <c r="C412" s="8"/>
       <c r="D412" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E412" s="8"/>
       <c r="F412" s="10" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="413" spans="3:6">
       <c r="C413" s="8"/>
       <c r="D413" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E413" s="8"/>
       <c r="F413" s="10" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="414" spans="3:6">
       <c r="C414" s="8"/>
       <c r="D414" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E414" s="8"/>
       <c r="F414" s="10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="415" spans="3:6">
       <c r="C415" s="8"/>
       <c r="D415" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E415" s="8"/>
       <c r="F415" s="10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="416" spans="3:6">
       <c r="C416" s="8"/>
       <c r="D416" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E416" s="8"/>
       <c r="F416" s="10" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="417" spans="3:6">
       <c r="C417" s="8"/>
       <c r="D417" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E417" s="8"/>
       <c r="F417" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="418" spans="3:6">
       <c r="C418" s="8"/>
       <c r="D418" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E418" s="8"/>
       <c r="F418" s="10" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="419" spans="3:6">
       <c r="C419" s="8"/>
       <c r="D419" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E419" s="8"/>
       <c r="F419" s="10" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="420" spans="3:6">
       <c r="C420" s="8"/>
       <c r="D420" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E420" s="8"/>
       <c r="F420" s="10" t="s">
-        <v>1244</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="421" spans="3:6">
       <c r="C421" s="8"/>
       <c r="D421" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E421" s="8"/>
       <c r="F421" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="422" spans="3:6">
       <c r="C422" s="8"/>
       <c r="D422" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E422" s="8"/>
       <c r="F422" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="423" spans="3:6">
       <c r="C423" s="8"/>
       <c r="D423" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E423" s="8"/>
       <c r="F423" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="424" spans="3:6">
       <c r="C424" s="8"/>
       <c r="D424" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E424" s="8"/>
       <c r="F424" s="10" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="425" spans="3:6">
       <c r="C425" s="8"/>
       <c r="D425" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E425" s="8"/>
       <c r="F425" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="426" spans="3:6">
       <c r="C426" s="8"/>
       <c r="D426" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E426" s="8"/>
       <c r="F426" s="10" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="427" spans="3:6">
       <c r="C427" s="8"/>
       <c r="D427" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="428" spans="3:6">
       <c r="C428" s="8"/>
       <c r="D428" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E428" s="8"/>
       <c r="F428" s="10" t="s">
-        <v>1308</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="429" spans="3:6">
       <c r="C429" s="8"/>
       <c r="D429" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E429" s="8"/>
       <c r="F429" s="10" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="430" spans="3:6">
       <c r="C430" s="8"/>
       <c r="D430" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E430" s="8"/>
       <c r="F430" s="10" t="s">
-        <v>1347</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="431" spans="3:6">
       <c r="C431" s="8"/>
       <c r="D431" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E431" s="8"/>
       <c r="F431" s="10" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="432" spans="3:6">
       <c r="C432" s="8"/>
       <c r="D432" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="10" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="433" spans="3:6">
       <c r="C433" s="8"/>
       <c r="D433" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E433" s="8"/>
       <c r="F433" s="10" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="434" spans="3:6">
       <c r="C434" s="8"/>
       <c r="D434" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="10" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="435" spans="3:6">
       <c r="C435" s="8"/>
       <c r="D435" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E435" s="8"/>
       <c r="F435" s="10" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="436" spans="3:6">
       <c r="C436" s="8"/>
       <c r="D436" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E436" s="8"/>
       <c r="F436" s="10" t="s">
-        <v>1581</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="437" spans="3:6">
       <c r="C437" s="8"/>
       <c r="D437" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E437" s="8"/>
-      <c r="F437" s="8"/>
+      <c r="F437" s="10" t="s">
+        <v>1581</v>
+      </c>
     </row>
     <row r="438" spans="3:6">
       <c r="C438" s="8"/>
       <c r="D438" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
@@ -11680,7 +11685,7 @@
     <row r="439" spans="3:6">
       <c r="C439" s="8"/>
       <c r="D439" s="10" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
@@ -11688,7 +11693,7 @@
     <row r="440" spans="3:6">
       <c r="C440" s="8"/>
       <c r="D440" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
@@ -11696,7 +11701,7 @@
     <row r="441" spans="3:6">
       <c r="C441" s="8"/>
       <c r="D441" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
@@ -11704,7 +11709,7 @@
     <row r="442" spans="3:6">
       <c r="C442" s="8"/>
       <c r="D442" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
@@ -11712,7 +11717,7 @@
     <row r="443" spans="3:6">
       <c r="C443" s="8"/>
       <c r="D443" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
@@ -11720,7 +11725,7 @@
     <row r="444" spans="3:6">
       <c r="C444" s="8"/>
       <c r="D444" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
@@ -11728,7 +11733,7 @@
     <row r="445" spans="3:6">
       <c r="C445" s="8"/>
       <c r="D445" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
@@ -11736,7 +11741,7 @@
     <row r="446" spans="3:6">
       <c r="C446" s="8"/>
       <c r="D446" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
@@ -11744,7 +11749,7 @@
     <row r="447" spans="3:6">
       <c r="C447" s="8"/>
       <c r="D447" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
@@ -11752,7 +11757,7 @@
     <row r="448" spans="3:6">
       <c r="C448" s="8"/>
       <c r="D448" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
@@ -11760,7 +11765,7 @@
     <row r="449" spans="3:6">
       <c r="C449" s="8"/>
       <c r="D449" s="10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
@@ -11768,7 +11773,7 @@
     <row r="450" spans="3:6">
       <c r="C450" s="8"/>
       <c r="D450" s="10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
@@ -11776,7 +11781,7 @@
     <row r="451" spans="3:6">
       <c r="C451" s="8"/>
       <c r="D451" s="10" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
@@ -11784,7 +11789,7 @@
     <row r="452" spans="3:6">
       <c r="C452" s="8"/>
       <c r="D452" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
@@ -11792,7 +11797,7 @@
     <row r="453" spans="3:6">
       <c r="C453" s="8"/>
       <c r="D453" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
@@ -11800,7 +11805,7 @@
     <row r="454" spans="3:6">
       <c r="C454" s="8"/>
       <c r="D454" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
@@ -11808,7 +11813,7 @@
     <row r="455" spans="3:6">
       <c r="C455" s="8"/>
       <c r="D455" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
@@ -11816,7 +11821,7 @@
     <row r="456" spans="3:6">
       <c r="C456" s="8"/>
       <c r="D456" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
@@ -11824,7 +11829,7 @@
     <row r="457" spans="3:6">
       <c r="C457" s="8"/>
       <c r="D457" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
@@ -11832,7 +11837,7 @@
     <row r="458" spans="3:6">
       <c r="C458" s="8"/>
       <c r="D458" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
@@ -11840,7 +11845,7 @@
     <row r="459" spans="3:6">
       <c r="C459" s="8"/>
       <c r="D459" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
@@ -11848,7 +11853,7 @@
     <row r="460" spans="3:6">
       <c r="C460" s="8"/>
       <c r="D460" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
@@ -11856,7 +11861,7 @@
     <row r="461" spans="3:6">
       <c r="C461" s="8"/>
       <c r="D461" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
@@ -11864,7 +11869,7 @@
     <row r="462" spans="3:6">
       <c r="C462" s="8"/>
       <c r="D462" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
@@ -11872,7 +11877,7 @@
     <row r="463" spans="3:6">
       <c r="C463" s="8"/>
       <c r="D463" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
@@ -11880,7 +11885,7 @@
     <row r="464" spans="3:6">
       <c r="C464" s="8"/>
       <c r="D464" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
@@ -11888,7 +11893,7 @@
     <row r="465" spans="3:6">
       <c r="C465" s="8"/>
       <c r="D465" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
@@ -11896,7 +11901,7 @@
     <row r="466" spans="3:6">
       <c r="C466" s="8"/>
       <c r="D466" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
@@ -11904,7 +11909,7 @@
     <row r="467" spans="3:6">
       <c r="C467" s="8"/>
       <c r="D467" s="10" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
@@ -11912,7 +11917,7 @@
     <row r="468" spans="3:6">
       <c r="C468" s="8"/>
       <c r="D468" s="10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
@@ -11920,7 +11925,7 @@
     <row r="469" spans="3:6">
       <c r="C469" s="8"/>
       <c r="D469" s="10" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
@@ -11928,7 +11933,7 @@
     <row r="470" spans="3:6">
       <c r="C470" s="8"/>
       <c r="D470" s="10" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
@@ -11936,7 +11941,7 @@
     <row r="471" spans="3:6">
       <c r="C471" s="8"/>
       <c r="D471" s="10" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
@@ -11944,7 +11949,7 @@
     <row r="472" spans="3:6">
       <c r="C472" s="8"/>
       <c r="D472" s="10" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
@@ -11952,7 +11957,7 @@
     <row r="473" spans="3:6">
       <c r="C473" s="8"/>
       <c r="D473" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
@@ -11960,7 +11965,7 @@
     <row r="474" spans="3:6">
       <c r="C474" s="8"/>
       <c r="D474" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
@@ -11968,7 +11973,7 @@
     <row r="475" spans="3:6">
       <c r="C475" s="8"/>
       <c r="D475" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
@@ -11976,7 +11981,7 @@
     <row r="476" spans="3:6">
       <c r="C476" s="8"/>
       <c r="D476" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
@@ -11984,7 +11989,7 @@
     <row r="477" spans="3:6">
       <c r="C477" s="8"/>
       <c r="D477" s="10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
@@ -11992,7 +11997,7 @@
     <row r="478" spans="3:6">
       <c r="C478" s="8"/>
       <c r="D478" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
@@ -12000,7 +12005,7 @@
     <row r="479" spans="3:6">
       <c r="C479" s="8"/>
       <c r="D479" s="10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
@@ -12008,7 +12013,7 @@
     <row r="480" spans="3:6">
       <c r="C480" s="8"/>
       <c r="D480" s="10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
@@ -12016,7 +12021,7 @@
     <row r="481" spans="3:6">
       <c r="C481" s="8"/>
       <c r="D481" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
@@ -12024,7 +12029,7 @@
     <row r="482" spans="3:6">
       <c r="C482" s="8"/>
       <c r="D482" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
@@ -12032,7 +12037,7 @@
     <row r="483" spans="3:6">
       <c r="C483" s="8"/>
       <c r="D483" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
@@ -12040,7 +12045,7 @@
     <row r="484" spans="3:6">
       <c r="C484" s="8"/>
       <c r="D484" s="10" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
@@ -12048,7 +12053,7 @@
     <row r="485" spans="3:6">
       <c r="C485" s="8"/>
       <c r="D485" s="10" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
@@ -12056,7 +12061,7 @@
     <row r="486" spans="3:6">
       <c r="C486" s="8"/>
       <c r="D486" s="10" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
@@ -12064,7 +12069,7 @@
     <row r="487" spans="3:6">
       <c r="C487" s="8"/>
       <c r="D487" s="10" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
@@ -12072,7 +12077,7 @@
     <row r="488" spans="3:6">
       <c r="C488" s="8"/>
       <c r="D488" s="10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
@@ -12080,7 +12085,7 @@
     <row r="489" spans="3:6">
       <c r="C489" s="8"/>
       <c r="D489" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
@@ -12088,7 +12093,7 @@
     <row r="490" spans="3:6">
       <c r="C490" s="8"/>
       <c r="D490" s="10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
@@ -12096,7 +12101,7 @@
     <row r="491" spans="3:6">
       <c r="C491" s="8"/>
       <c r="D491" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
@@ -12104,7 +12109,7 @@
     <row r="492" spans="3:6">
       <c r="C492" s="8"/>
       <c r="D492" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
@@ -12112,7 +12117,7 @@
     <row r="493" spans="3:6">
       <c r="C493" s="8"/>
       <c r="D493" s="10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
@@ -12120,7 +12125,7 @@
     <row r="494" spans="3:6">
       <c r="C494" s="8"/>
       <c r="D494" s="10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
@@ -12128,7 +12133,7 @@
     <row r="495" spans="3:6">
       <c r="C495" s="8"/>
       <c r="D495" s="10" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
@@ -12136,7 +12141,7 @@
     <row r="496" spans="3:6">
       <c r="C496" s="8"/>
       <c r="D496" s="10" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
@@ -12144,7 +12149,7 @@
     <row r="497" spans="3:6">
       <c r="C497" s="8"/>
       <c r="D497" s="10" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
@@ -12152,7 +12157,7 @@
     <row r="498" spans="3:6">
       <c r="C498" s="8"/>
       <c r="D498" s="10" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
@@ -12160,7 +12165,7 @@
     <row r="499" spans="3:6">
       <c r="C499" s="8"/>
       <c r="D499" s="10" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
@@ -12168,7 +12173,7 @@
     <row r="500" spans="3:6">
       <c r="C500" s="8"/>
       <c r="D500" s="10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
@@ -12176,7 +12181,7 @@
     <row r="501" spans="3:6">
       <c r="C501" s="8"/>
       <c r="D501" s="10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
@@ -12184,7 +12189,7 @@
     <row r="502" spans="3:6">
       <c r="C502" s="8"/>
       <c r="D502" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
@@ -12192,7 +12197,7 @@
     <row r="503" spans="3:6">
       <c r="C503" s="8"/>
       <c r="D503" s="10" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
@@ -12200,7 +12205,7 @@
     <row r="504" spans="3:6">
       <c r="C504" s="8"/>
       <c r="D504" s="10" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
@@ -12208,7 +12213,7 @@
     <row r="505" spans="3:6">
       <c r="C505" s="8"/>
       <c r="D505" s="10" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
@@ -12216,7 +12221,7 @@
     <row r="506" spans="3:6">
       <c r="C506" s="8"/>
       <c r="D506" s="10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E506" s="8"/>
       <c r="F506" s="8"/>
@@ -12224,7 +12229,7 @@
     <row r="507" spans="3:6">
       <c r="C507" s="8"/>
       <c r="D507" s="10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E507" s="8"/>
       <c r="F507" s="8"/>
@@ -12232,7 +12237,7 @@
     <row r="508" spans="3:6">
       <c r="C508" s="8"/>
       <c r="D508" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E508" s="8"/>
       <c r="F508" s="8"/>
@@ -12240,7 +12245,7 @@
     <row r="509" spans="3:6">
       <c r="C509" s="8"/>
       <c r="D509" s="10" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E509" s="8"/>
       <c r="F509" s="8"/>
@@ -12248,7 +12253,7 @@
     <row r="510" spans="3:6">
       <c r="C510" s="8"/>
       <c r="D510" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E510" s="8"/>
       <c r="F510" s="8"/>
@@ -12256,7 +12261,7 @@
     <row r="511" spans="3:6">
       <c r="C511" s="8"/>
       <c r="D511" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E511" s="8"/>
       <c r="F511" s="8"/>
@@ -12264,7 +12269,7 @@
     <row r="512" spans="3:6">
       <c r="C512" s="8"/>
       <c r="D512" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E512" s="8"/>
       <c r="F512" s="8"/>
@@ -12272,7 +12277,7 @@
     <row r="513" spans="3:6">
       <c r="C513" s="8"/>
       <c r="D513" s="10" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E513" s="8"/>
       <c r="F513" s="8"/>
@@ -12280,7 +12285,7 @@
     <row r="514" spans="3:6">
       <c r="C514" s="8"/>
       <c r="D514" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E514" s="8"/>
       <c r="F514" s="8"/>
@@ -12288,7 +12293,7 @@
     <row r="515" spans="3:6">
       <c r="C515" s="8"/>
       <c r="D515" s="10" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E515" s="8"/>
       <c r="F515" s="8"/>
@@ -12296,7 +12301,7 @@
     <row r="516" spans="3:6">
       <c r="C516" s="8"/>
       <c r="D516" s="10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E516" s="8"/>
       <c r="F516" s="8"/>
@@ -12304,7 +12309,7 @@
     <row r="517" spans="3:6">
       <c r="C517" s="8"/>
       <c r="D517" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E517" s="8"/>
       <c r="F517" s="8"/>
@@ -12312,7 +12317,7 @@
     <row r="518" spans="3:6">
       <c r="C518" s="8"/>
       <c r="D518" s="10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E518" s="8"/>
       <c r="F518" s="8"/>
@@ -12320,7 +12325,7 @@
     <row r="519" spans="3:6">
       <c r="C519" s="8"/>
       <c r="D519" s="10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E519" s="8"/>
       <c r="F519" s="8"/>
@@ -12328,7 +12333,7 @@
     <row r="520" spans="3:6">
       <c r="C520" s="8"/>
       <c r="D520" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E520" s="8"/>
       <c r="F520" s="8"/>
@@ -12336,7 +12341,7 @@
     <row r="521" spans="3:6">
       <c r="C521" s="8"/>
       <c r="D521" s="10" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E521" s="8"/>
       <c r="F521" s="8"/>
@@ -12344,7 +12349,7 @@
     <row r="522" spans="3:6">
       <c r="C522" s="8"/>
       <c r="D522" s="10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E522" s="8"/>
       <c r="F522" s="8"/>
@@ -12352,7 +12357,7 @@
     <row r="523" spans="3:6">
       <c r="C523" s="8"/>
       <c r="D523" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E523" s="8"/>
       <c r="F523" s="8"/>
@@ -12360,7 +12365,7 @@
     <row r="524" spans="3:6">
       <c r="C524" s="8"/>
       <c r="D524" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E524" s="8"/>
       <c r="F524" s="8"/>
@@ -12368,7 +12373,7 @@
     <row r="525" spans="3:6">
       <c r="C525" s="8"/>
       <c r="D525" s="10" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E525" s="8"/>
       <c r="F525" s="8"/>
@@ -12376,7 +12381,7 @@
     <row r="526" spans="3:6">
       <c r="C526" s="8"/>
       <c r="D526" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E526" s="8"/>
       <c r="F526" s="8"/>
@@ -12384,7 +12389,7 @@
     <row r="527" spans="3:6">
       <c r="C527" s="8"/>
       <c r="D527" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E527" s="8"/>
       <c r="F527" s="8"/>
@@ -12392,7 +12397,7 @@
     <row r="528" spans="3:6">
       <c r="C528" s="8"/>
       <c r="D528" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E528" s="8"/>
       <c r="F528" s="8"/>
@@ -12400,7 +12405,7 @@
     <row r="529" spans="3:6">
       <c r="C529" s="8"/>
       <c r="D529" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E529" s="8"/>
       <c r="F529" s="8"/>
@@ -12408,7 +12413,7 @@
     <row r="530" spans="3:6">
       <c r="C530" s="8"/>
       <c r="D530" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
@@ -12416,7 +12421,7 @@
     <row r="531" spans="3:6">
       <c r="C531" s="8"/>
       <c r="D531" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E531" s="8"/>
       <c r="F531" s="8"/>
@@ -12424,7 +12429,7 @@
     <row r="532" spans="3:6">
       <c r="C532" s="8"/>
       <c r="D532" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E532" s="8"/>
       <c r="F532" s="8"/>
@@ -12432,7 +12437,7 @@
     <row r="533" spans="3:6">
       <c r="C533" s="8"/>
       <c r="D533" s="10" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E533" s="8"/>
       <c r="F533" s="8"/>
@@ -12440,7 +12445,7 @@
     <row r="534" spans="3:6">
       <c r="C534" s="8"/>
       <c r="D534" s="10" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="E534" s="8"/>
       <c r="F534" s="8"/>
@@ -12448,7 +12453,7 @@
     <row r="535" spans="3:6">
       <c r="C535" s="8"/>
       <c r="D535" s="10" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
@@ -12456,7 +12461,7 @@
     <row r="536" spans="3:6">
       <c r="C536" s="8"/>
       <c r="D536" s="10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
@@ -12464,7 +12469,7 @@
     <row r="537" spans="3:6">
       <c r="C537" s="8"/>
       <c r="D537" s="10" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
@@ -12472,7 +12477,7 @@
     <row r="538" spans="3:6">
       <c r="C538" s="8"/>
       <c r="D538" s="10" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
@@ -12480,7 +12485,7 @@
     <row r="539" spans="3:6">
       <c r="C539" s="8"/>
       <c r="D539" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E539" s="8"/>
       <c r="F539" s="8"/>
@@ -12488,7 +12493,7 @@
     <row r="540" spans="3:6">
       <c r="C540" s="8"/>
       <c r="D540" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E540" s="8"/>
       <c r="F540" s="8"/>
@@ -12496,7 +12501,7 @@
     <row r="541" spans="3:6">
       <c r="C541" s="8"/>
       <c r="D541" s="10" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E541" s="8"/>
       <c r="F541" s="8"/>
@@ -12504,7 +12509,7 @@
     <row r="542" spans="3:6">
       <c r="C542" s="8"/>
       <c r="D542" s="10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E542" s="8"/>
       <c r="F542" s="8"/>
@@ -12512,7 +12517,7 @@
     <row r="543" spans="3:6">
       <c r="C543" s="8"/>
       <c r="D543" s="10" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E543" s="8"/>
       <c r="F543" s="8"/>
@@ -12520,7 +12525,7 @@
     <row r="544" spans="3:6">
       <c r="C544" s="8"/>
       <c r="D544" s="10" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E544" s="8"/>
       <c r="F544" s="8"/>
@@ -12528,7 +12533,7 @@
     <row r="545" spans="3:6">
       <c r="C545" s="8"/>
       <c r="D545" s="10" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E545" s="8"/>
       <c r="F545" s="8"/>
@@ -12536,7 +12541,7 @@
     <row r="546" spans="3:6">
       <c r="C546" s="8"/>
       <c r="D546" s="10" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E546" s="8"/>
       <c r="F546" s="8"/>
@@ -12544,7 +12549,7 @@
     <row r="547" spans="3:6">
       <c r="C547" s="8"/>
       <c r="D547" s="10" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E547" s="8"/>
       <c r="F547" s="8"/>
@@ -12552,7 +12557,7 @@
     <row r="548" spans="3:6">
       <c r="C548" s="8"/>
       <c r="D548" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E548" s="8"/>
       <c r="F548" s="8"/>
@@ -12560,7 +12565,7 @@
     <row r="549" spans="3:6">
       <c r="C549" s="8"/>
       <c r="D549" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E549" s="8"/>
       <c r="F549" s="8"/>
@@ -12568,7 +12573,7 @@
     <row r="550" spans="3:6">
       <c r="C550" s="8"/>
       <c r="D550" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E550" s="8"/>
       <c r="F550" s="8"/>
@@ -12576,7 +12581,7 @@
     <row r="551" spans="3:6">
       <c r="C551" s="8"/>
       <c r="D551" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E551" s="8"/>
       <c r="F551" s="8"/>
@@ -12584,7 +12589,7 @@
     <row r="552" spans="3:6">
       <c r="C552" s="8"/>
       <c r="D552" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E552" s="8"/>
       <c r="F552" s="8"/>
@@ -12592,7 +12597,7 @@
     <row r="553" spans="3:6">
       <c r="C553" s="8"/>
       <c r="D553" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E553" s="8"/>
       <c r="F553" s="8"/>
@@ -12600,7 +12605,7 @@
     <row r="554" spans="3:6">
       <c r="C554" s="8"/>
       <c r="D554" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E554" s="8"/>
       <c r="F554" s="8"/>
@@ -12608,7 +12613,7 @@
     <row r="555" spans="3:6">
       <c r="C555" s="8"/>
       <c r="D555" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E555" s="8"/>
       <c r="F555" s="8"/>
@@ -12616,7 +12621,7 @@
     <row r="556" spans="3:6">
       <c r="C556" s="8"/>
       <c r="D556" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E556" s="8"/>
       <c r="F556" s="8"/>
@@ -12624,7 +12629,7 @@
     <row r="557" spans="3:6">
       <c r="C557" s="8"/>
       <c r="D557" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E557" s="8"/>
       <c r="F557" s="8"/>
@@ -12632,7 +12637,7 @@
     <row r="558" spans="3:6">
       <c r="C558" s="8"/>
       <c r="D558" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E558" s="8"/>
       <c r="F558" s="8"/>
@@ -12640,7 +12645,7 @@
     <row r="559" spans="3:6">
       <c r="C559" s="8"/>
       <c r="D559" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E559" s="8"/>
       <c r="F559" s="8"/>
@@ -12648,7 +12653,7 @@
     <row r="560" spans="3:6">
       <c r="C560" s="8"/>
       <c r="D560" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E560" s="8"/>
       <c r="F560" s="8"/>
@@ -12656,7 +12661,7 @@
     <row r="561" spans="3:6">
       <c r="C561" s="8"/>
       <c r="D561" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E561" s="8"/>
       <c r="F561" s="8"/>
@@ -12664,7 +12669,7 @@
     <row r="562" spans="3:6">
       <c r="C562" s="8"/>
       <c r="D562" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E562" s="8"/>
       <c r="F562" s="8"/>
@@ -12672,7 +12677,7 @@
     <row r="563" spans="3:6">
       <c r="C563" s="8"/>
       <c r="D563" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E563" s="8"/>
       <c r="F563" s="8"/>
@@ -12680,7 +12685,7 @@
     <row r="564" spans="3:6">
       <c r="C564" s="8"/>
       <c r="D564" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E564" s="8"/>
       <c r="F564" s="8"/>
@@ -12688,7 +12693,7 @@
     <row r="565" spans="3:6">
       <c r="C565" s="8"/>
       <c r="D565" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E565" s="8"/>
       <c r="F565" s="8"/>
@@ -12696,7 +12701,7 @@
     <row r="566" spans="3:6">
       <c r="C566" s="8"/>
       <c r="D566" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E566" s="8"/>
       <c r="F566" s="8"/>
@@ -12704,7 +12709,7 @@
     <row r="567" spans="3:6">
       <c r="C567" s="8"/>
       <c r="D567" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E567" s="8"/>
       <c r="F567" s="8"/>
@@ -12712,7 +12717,7 @@
     <row r="568" spans="3:6">
       <c r="C568" s="8"/>
       <c r="D568" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E568" s="8"/>
       <c r="F568" s="8"/>
@@ -12720,7 +12725,7 @@
     <row r="569" spans="3:6">
       <c r="C569" s="8"/>
       <c r="D569" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E569" s="8"/>
       <c r="F569" s="8"/>
@@ -12728,7 +12733,7 @@
     <row r="570" spans="3:6">
       <c r="C570" s="8"/>
       <c r="D570" s="10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E570" s="8"/>
       <c r="F570" s="8"/>
@@ -12736,7 +12741,7 @@
     <row r="571" spans="3:6">
       <c r="C571" s="8"/>
       <c r="D571" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E571" s="8"/>
       <c r="F571" s="8"/>
@@ -12744,7 +12749,7 @@
     <row r="572" spans="3:6">
       <c r="C572" s="8"/>
       <c r="D572" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E572" s="8"/>
       <c r="F572" s="8"/>
@@ -12752,7 +12757,7 @@
     <row r="573" spans="3:6">
       <c r="C573" s="8"/>
       <c r="D573" s="10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E573" s="8"/>
       <c r="F573" s="8"/>
@@ -12760,7 +12765,7 @@
     <row r="574" spans="3:6">
       <c r="C574" s="8"/>
       <c r="D574" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E574" s="8"/>
       <c r="F574" s="8"/>
@@ -12768,7 +12773,7 @@
     <row r="575" spans="3:6">
       <c r="C575" s="8"/>
       <c r="D575" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E575" s="8"/>
       <c r="F575" s="8"/>
@@ -12776,7 +12781,7 @@
     <row r="576" spans="3:6">
       <c r="C576" s="8"/>
       <c r="D576" s="10" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E576" s="8"/>
       <c r="F576" s="8"/>
@@ -12784,7 +12789,7 @@
     <row r="577" spans="3:6">
       <c r="C577" s="8"/>
       <c r="D577" s="10" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E577" s="8"/>
       <c r="F577" s="8"/>
@@ -12792,7 +12797,7 @@
     <row r="578" spans="3:6">
       <c r="C578" s="8"/>
       <c r="D578" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E578" s="8"/>
       <c r="F578" s="8"/>
@@ -12800,7 +12805,7 @@
     <row r="579" spans="3:6">
       <c r="C579" s="8"/>
       <c r="D579" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E579" s="8"/>
       <c r="F579" s="8"/>
@@ -12808,7 +12813,7 @@
     <row r="580" spans="3:6">
       <c r="C580" s="8"/>
       <c r="D580" s="10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E580" s="8"/>
       <c r="F580" s="8"/>
@@ -12816,7 +12821,7 @@
     <row r="581" spans="3:6">
       <c r="C581" s="8"/>
       <c r="D581" s="10" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E581" s="8"/>
       <c r="F581" s="8"/>
@@ -12824,7 +12829,7 @@
     <row r="582" spans="3:6">
       <c r="C582" s="8"/>
       <c r="D582" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E582" s="8"/>
       <c r="F582" s="8"/>
@@ -12832,7 +12837,7 @@
     <row r="583" spans="3:6">
       <c r="C583" s="8"/>
       <c r="D583" s="10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E583" s="8"/>
       <c r="F583" s="8"/>
@@ -12840,7 +12845,7 @@
     <row r="584" spans="3:6">
       <c r="C584" s="8"/>
       <c r="D584" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E584" s="8"/>
       <c r="F584" s="8"/>
@@ -12848,7 +12853,7 @@
     <row r="585" spans="3:6">
       <c r="C585" s="8"/>
       <c r="D585" s="10" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E585" s="8"/>
       <c r="F585" s="8"/>
@@ -12856,7 +12861,7 @@
     <row r="586" spans="3:6">
       <c r="C586" s="8"/>
       <c r="D586" s="10" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E586" s="8"/>
       <c r="F586" s="8"/>
@@ -12864,7 +12869,7 @@
     <row r="587" spans="3:6">
       <c r="C587" s="8"/>
       <c r="D587" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E587" s="8"/>
       <c r="F587" s="8"/>
@@ -12872,7 +12877,7 @@
     <row r="588" spans="3:6">
       <c r="C588" s="8"/>
       <c r="D588" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
@@ -12880,7 +12885,7 @@
     <row r="589" spans="3:6">
       <c r="C589" s="8"/>
       <c r="D589" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E589" s="8"/>
       <c r="F589" s="8"/>
@@ -12888,7 +12893,7 @@
     <row r="590" spans="3:6">
       <c r="C590" s="8"/>
       <c r="D590" s="10" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E590" s="8"/>
       <c r="F590" s="8"/>
@@ -12896,7 +12901,7 @@
     <row r="591" spans="3:6">
       <c r="C591" s="8"/>
       <c r="D591" s="10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E591" s="8"/>
       <c r="F591" s="8"/>
@@ -12904,7 +12909,7 @@
     <row r="592" spans="3:6">
       <c r="C592" s="8"/>
       <c r="D592" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E592" s="8"/>
       <c r="F592" s="8"/>
@@ -12912,7 +12917,7 @@
     <row r="593" spans="3:6">
       <c r="C593" s="8"/>
       <c r="D593" s="10" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E593" s="8"/>
       <c r="F593" s="8"/>
@@ -12920,7 +12925,7 @@
     <row r="594" spans="3:6">
       <c r="C594" s="8"/>
       <c r="D594" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E594" s="8"/>
       <c r="F594" s="8"/>
@@ -12928,7 +12933,7 @@
     <row r="595" spans="3:6">
       <c r="C595" s="8"/>
       <c r="D595" s="10" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E595" s="8"/>
       <c r="F595" s="8"/>
@@ -12936,7 +12941,7 @@
     <row r="596" spans="3:6">
       <c r="C596" s="8"/>
       <c r="D596" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E596" s="8"/>
       <c r="F596" s="8"/>
@@ -12944,7 +12949,7 @@
     <row r="597" spans="3:6">
       <c r="C597" s="8"/>
       <c r="D597" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E597" s="8"/>
       <c r="F597" s="8"/>
@@ -12952,7 +12957,7 @@
     <row r="598" spans="3:6">
       <c r="C598" s="8"/>
       <c r="D598" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E598" s="8"/>
       <c r="F598" s="8"/>
@@ -12960,7 +12965,7 @@
     <row r="599" spans="3:6">
       <c r="C599" s="8"/>
       <c r="D599" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E599" s="8"/>
       <c r="F599" s="8"/>
@@ -12968,7 +12973,7 @@
     <row r="600" spans="3:6">
       <c r="C600" s="8"/>
       <c r="D600" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
@@ -12976,7 +12981,7 @@
     <row r="601" spans="3:6">
       <c r="C601" s="8"/>
       <c r="D601" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E601" s="8"/>
       <c r="F601" s="8"/>
@@ -12984,7 +12989,7 @@
     <row r="602" spans="3:6">
       <c r="C602" s="8"/>
       <c r="D602" s="10" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E602" s="8"/>
       <c r="F602" s="8"/>
@@ -12992,7 +12997,7 @@
     <row r="603" spans="3:6">
       <c r="C603" s="8"/>
       <c r="D603" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E603" s="8"/>
       <c r="F603" s="8"/>
@@ -13000,7 +13005,7 @@
     <row r="604" spans="3:6">
       <c r="C604" s="8"/>
       <c r="D604" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E604" s="8"/>
       <c r="F604" s="8"/>
@@ -13008,7 +13013,7 @@
     <row r="605" spans="3:6">
       <c r="C605" s="8"/>
       <c r="D605" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
@@ -13016,7 +13021,7 @@
     <row r="606" spans="3:6">
       <c r="C606" s="8"/>
       <c r="D606" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E606" s="8"/>
       <c r="F606" s="8"/>
@@ -13024,7 +13029,7 @@
     <row r="607" spans="3:6">
       <c r="C607" s="8"/>
       <c r="D607" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E607" s="8"/>
       <c r="F607" s="8"/>
@@ -13032,7 +13037,7 @@
     <row r="608" spans="3:6">
       <c r="C608" s="8"/>
       <c r="D608" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E608" s="8"/>
       <c r="F608" s="8"/>
@@ -13040,7 +13045,7 @@
     <row r="609" spans="3:6">
       <c r="C609" s="8"/>
       <c r="D609" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E609" s="8"/>
       <c r="F609" s="8"/>
@@ -13048,7 +13053,7 @@
     <row r="610" spans="3:6">
       <c r="C610" s="8"/>
       <c r="D610" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E610" s="8"/>
       <c r="F610" s="8"/>
@@ -13056,7 +13061,7 @@
     <row r="611" spans="3:6">
       <c r="C611" s="8"/>
       <c r="D611" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
@@ -13064,7 +13069,7 @@
     <row r="612" spans="3:6">
       <c r="C612" s="8"/>
       <c r="D612" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
@@ -13072,7 +13077,7 @@
     <row r="613" spans="3:6">
       <c r="C613" s="8"/>
       <c r="D613" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
@@ -13080,7 +13085,7 @@
     <row r="614" spans="3:6">
       <c r="C614" s="8"/>
       <c r="D614" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E614" s="8"/>
       <c r="F614" s="8"/>
@@ -13088,7 +13093,7 @@
     <row r="615" spans="3:6">
       <c r="C615" s="8"/>
       <c r="D615" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E615" s="8"/>
       <c r="F615" s="8"/>
@@ -13096,7 +13101,7 @@
     <row r="616" spans="3:6">
       <c r="C616" s="8"/>
       <c r="D616" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E616" s="8"/>
       <c r="F616" s="8"/>
@@ -13104,7 +13109,7 @@
     <row r="617" spans="3:6">
       <c r="C617" s="8"/>
       <c r="D617" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
@@ -13112,7 +13117,7 @@
     <row r="618" spans="3:6">
       <c r="C618" s="8"/>
       <c r="D618" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E618" s="8"/>
       <c r="F618" s="8"/>
@@ -13120,7 +13125,7 @@
     <row r="619" spans="3:6">
       <c r="C619" s="8"/>
       <c r="D619" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E619" s="8"/>
       <c r="F619" s="8"/>
@@ -13128,7 +13133,7 @@
     <row r="620" spans="3:6">
       <c r="C620" s="8"/>
       <c r="D620" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E620" s="8"/>
       <c r="F620" s="8"/>
@@ -13136,7 +13141,7 @@
     <row r="621" spans="3:6">
       <c r="C621" s="8"/>
       <c r="D621" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E621" s="8"/>
       <c r="F621" s="8"/>
@@ -13144,7 +13149,7 @@
     <row r="622" spans="3:6">
       <c r="C622" s="8"/>
       <c r="D622" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E622" s="8"/>
       <c r="F622" s="8"/>
@@ -13152,7 +13157,7 @@
     <row r="623" spans="3:6">
       <c r="C623" s="8"/>
       <c r="D623" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E623" s="8"/>
       <c r="F623" s="8"/>
@@ -13160,7 +13165,7 @@
     <row r="624" spans="3:6">
       <c r="C624" s="8"/>
       <c r="D624" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E624" s="8"/>
       <c r="F624" s="8"/>
@@ -13168,7 +13173,7 @@
     <row r="625" spans="3:6">
       <c r="C625" s="8"/>
       <c r="D625" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E625" s="8"/>
       <c r="F625" s="8"/>
@@ -13176,7 +13181,7 @@
     <row r="626" spans="3:6">
       <c r="C626" s="8"/>
       <c r="D626" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E626" s="8"/>
       <c r="F626" s="8"/>
@@ -13184,7 +13189,7 @@
     <row r="627" spans="3:6">
       <c r="C627" s="8"/>
       <c r="D627" s="10" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E627" s="8"/>
       <c r="F627" s="8"/>
@@ -13192,7 +13197,7 @@
     <row r="628" spans="3:6">
       <c r="C628" s="8"/>
       <c r="D628" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E628" s="8"/>
       <c r="F628" s="8"/>
@@ -13200,7 +13205,7 @@
     <row r="629" spans="3:6">
       <c r="C629" s="8"/>
       <c r="D629" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E629" s="8"/>
       <c r="F629" s="8"/>
@@ -13208,7 +13213,7 @@
     <row r="630" spans="3:6">
       <c r="C630" s="8"/>
       <c r="D630" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E630" s="8"/>
       <c r="F630" s="8"/>
@@ -13216,7 +13221,7 @@
     <row r="631" spans="3:6">
       <c r="C631" s="8"/>
       <c r="D631" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E631" s="8"/>
       <c r="F631" s="8"/>
@@ -13224,7 +13229,7 @@
     <row r="632" spans="3:6">
       <c r="C632" s="8"/>
       <c r="D632" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E632" s="8"/>
       <c r="F632" s="8"/>
@@ -13232,7 +13237,7 @@
     <row r="633" spans="3:6">
       <c r="C633" s="8"/>
       <c r="D633" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E633" s="8"/>
       <c r="F633" s="8"/>
@@ -13240,7 +13245,7 @@
     <row r="634" spans="3:6">
       <c r="C634" s="8"/>
       <c r="D634" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E634" s="8"/>
       <c r="F634" s="8"/>
@@ -13248,7 +13253,7 @@
     <row r="635" spans="3:6">
       <c r="C635" s="8"/>
       <c r="D635" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E635" s="8"/>
       <c r="F635" s="8"/>
@@ -13256,7 +13261,7 @@
     <row r="636" spans="3:6">
       <c r="C636" s="8"/>
       <c r="D636" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E636" s="8"/>
       <c r="F636" s="8"/>
@@ -13264,7 +13269,7 @@
     <row r="637" spans="3:6">
       <c r="C637" s="8"/>
       <c r="D637" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E637" s="8"/>
       <c r="F637" s="8"/>
@@ -13272,7 +13277,7 @@
     <row r="638" spans="3:6">
       <c r="C638" s="8"/>
       <c r="D638" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E638" s="8"/>
       <c r="F638" s="8"/>
@@ -13280,7 +13285,7 @@
     <row r="639" spans="3:6">
       <c r="C639" s="8"/>
       <c r="D639" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E639" s="8"/>
       <c r="F639" s="8"/>
@@ -13288,7 +13293,7 @@
     <row r="640" spans="3:6">
       <c r="C640" s="8"/>
       <c r="D640" s="10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E640" s="8"/>
       <c r="F640" s="8"/>
@@ -13296,7 +13301,7 @@
     <row r="641" spans="3:6">
       <c r="C641" s="8"/>
       <c r="D641" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E641" s="8"/>
       <c r="F641" s="8"/>
@@ -13304,7 +13309,7 @@
     <row r="642" spans="3:6">
       <c r="C642" s="8"/>
       <c r="D642" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E642" s="8"/>
       <c r="F642" s="8"/>
@@ -13312,7 +13317,7 @@
     <row r="643" spans="3:6">
       <c r="C643" s="8"/>
       <c r="D643" s="10" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E643" s="8"/>
       <c r="F643" s="8"/>
@@ -13320,7 +13325,7 @@
     <row r="644" spans="3:6">
       <c r="C644" s="8"/>
       <c r="D644" s="10" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E644" s="8"/>
       <c r="F644" s="8"/>
@@ -13328,7 +13333,7 @@
     <row r="645" spans="3:6">
       <c r="C645" s="8"/>
       <c r="D645" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E645" s="8"/>
       <c r="F645" s="8"/>
@@ -13336,7 +13341,7 @@
     <row r="646" spans="3:6">
       <c r="C646" s="8"/>
       <c r="D646" s="10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E646" s="8"/>
       <c r="F646" s="8"/>
@@ -13344,7 +13349,7 @@
     <row r="647" spans="3:6">
       <c r="C647" s="8"/>
       <c r="D647" s="10" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="E647" s="8"/>
       <c r="F647" s="8"/>
@@ -13352,7 +13357,7 @@
     <row r="648" spans="3:6">
       <c r="C648" s="8"/>
       <c r="D648" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E648" s="8"/>
       <c r="F648" s="8"/>
@@ -13360,7 +13365,7 @@
     <row r="649" spans="3:6">
       <c r="C649" s="8"/>
       <c r="D649" s="10" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E649" s="8"/>
       <c r="F649" s="8"/>
@@ -13368,7 +13373,7 @@
     <row r="650" spans="3:6">
       <c r="C650" s="8"/>
       <c r="D650" s="10" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E650" s="8"/>
       <c r="F650" s="8"/>
@@ -13376,7 +13381,7 @@
     <row r="651" spans="3:6">
       <c r="C651" s="8"/>
       <c r="D651" s="10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E651" s="8"/>
       <c r="F651" s="8"/>
@@ -13384,7 +13389,7 @@
     <row r="652" spans="3:6">
       <c r="C652" s="8"/>
       <c r="D652" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E652" s="8"/>
       <c r="F652" s="8"/>
@@ -13392,7 +13397,7 @@
     <row r="653" spans="3:6">
       <c r="C653" s="8"/>
       <c r="D653" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E653" s="8"/>
       <c r="F653" s="8"/>
@@ -13400,7 +13405,7 @@
     <row r="654" spans="3:6">
       <c r="C654" s="8"/>
       <c r="D654" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E654" s="8"/>
       <c r="F654" s="8"/>
@@ -13408,7 +13413,7 @@
     <row r="655" spans="3:6">
       <c r="C655" s="8"/>
       <c r="D655" s="10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E655" s="8"/>
       <c r="F655" s="8"/>
@@ -13416,7 +13421,7 @@
     <row r="656" spans="3:6">
       <c r="C656" s="8"/>
       <c r="D656" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E656" s="8"/>
       <c r="F656" s="8"/>
@@ -13424,7 +13429,7 @@
     <row r="657" spans="3:6">
       <c r="C657" s="8"/>
       <c r="D657" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E657" s="8"/>
       <c r="F657" s="8"/>
@@ -13432,7 +13437,7 @@
     <row r="658" spans="3:6">
       <c r="C658" s="8"/>
       <c r="D658" s="10" t="s">
-        <v>1231</v>
+        <v>1201</v>
       </c>
       <c r="E658" s="8"/>
       <c r="F658" s="8"/>
@@ -13440,7 +13445,7 @@
     <row r="659" spans="3:6">
       <c r="C659" s="8"/>
       <c r="D659" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E659" s="8"/>
       <c r="F659" s="8"/>
@@ -13448,7 +13453,7 @@
     <row r="660" spans="3:6">
       <c r="C660" s="8"/>
       <c r="D660" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E660" s="8"/>
       <c r="F660" s="8"/>
@@ -13456,7 +13461,7 @@
     <row r="661" spans="3:6">
       <c r="C661" s="8"/>
       <c r="D661" s="10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E661" s="8"/>
       <c r="F661" s="8"/>
@@ -13464,7 +13469,7 @@
     <row r="662" spans="3:6">
       <c r="C662" s="8"/>
       <c r="D662" s="10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E662" s="8"/>
       <c r="F662" s="8"/>
@@ -13472,7 +13477,7 @@
     <row r="663" spans="3:6">
       <c r="C663" s="8"/>
       <c r="D663" s="10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E663" s="8"/>
       <c r="F663" s="8"/>
@@ -13480,7 +13485,7 @@
     <row r="664" spans="3:6">
       <c r="C664" s="8"/>
       <c r="D664" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E664" s="8"/>
       <c r="F664" s="8"/>
@@ -13488,7 +13493,7 @@
     <row r="665" spans="3:6">
       <c r="C665" s="8"/>
       <c r="D665" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E665" s="8"/>
       <c r="F665" s="8"/>
@@ -13496,7 +13501,7 @@
     <row r="666" spans="3:6">
       <c r="C666" s="8"/>
       <c r="D666" s="10" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="E666" s="8"/>
       <c r="F666" s="8"/>
@@ -13504,7 +13509,7 @@
     <row r="667" spans="3:6">
       <c r="C667" s="8"/>
       <c r="D667" s="10" t="s">
-        <v>1310</v>
+        <v>1252</v>
       </c>
       <c r="E667" s="8"/>
       <c r="F667" s="8"/>
@@ -13512,7 +13517,7 @@
     <row r="668" spans="3:6">
       <c r="C668" s="8"/>
       <c r="D668" s="10" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E668" s="8"/>
       <c r="F668" s="8"/>
@@ -13520,7 +13525,7 @@
     <row r="669" spans="3:6">
       <c r="C669" s="8"/>
       <c r="D669" s="10" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E669" s="8"/>
       <c r="F669" s="8"/>
@@ -13528,7 +13533,7 @@
     <row r="670" spans="3:6">
       <c r="C670" s="8"/>
       <c r="D670" s="10" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E670" s="8"/>
       <c r="F670" s="8"/>
@@ -13536,7 +13541,7 @@
     <row r="671" spans="3:6">
       <c r="C671" s="8"/>
       <c r="D671" s="10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E671" s="8"/>
       <c r="F671" s="8"/>
@@ -13544,7 +13549,7 @@
     <row r="672" spans="3:6">
       <c r="C672" s="8"/>
       <c r="D672" s="10" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E672" s="8"/>
       <c r="F672" s="8"/>
@@ -13552,7 +13557,7 @@
     <row r="673" spans="3:6">
       <c r="C673" s="8"/>
       <c r="D673" s="10" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E673" s="8"/>
       <c r="F673" s="8"/>
@@ -13560,7 +13565,7 @@
     <row r="674" spans="3:6">
       <c r="C674" s="8"/>
       <c r="D674" s="10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E674" s="8"/>
       <c r="F674" s="8"/>
@@ -13568,7 +13573,7 @@
     <row r="675" spans="3:6">
       <c r="C675" s="8"/>
       <c r="D675" s="10" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E675" s="8"/>
       <c r="F675" s="8"/>
@@ -13576,7 +13581,7 @@
     <row r="676" spans="3:6">
       <c r="C676" s="8"/>
       <c r="D676" s="10" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E676" s="8"/>
       <c r="F676" s="8"/>
@@ -13584,7 +13589,7 @@
     <row r="677" spans="3:6">
       <c r="C677" s="8"/>
       <c r="D677" s="10" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E677" s="8"/>
       <c r="F677" s="8"/>
@@ -13592,7 +13597,7 @@
     <row r="678" spans="3:6">
       <c r="C678" s="8"/>
       <c r="D678" s="10" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E678" s="8"/>
       <c r="F678" s="8"/>
@@ -13600,7 +13605,7 @@
     <row r="679" spans="3:6">
       <c r="C679" s="8"/>
       <c r="D679" s="10" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E679" s="8"/>
       <c r="F679" s="8"/>
@@ -13608,7 +13613,7 @@
     <row r="680" spans="3:6">
       <c r="C680" s="8"/>
       <c r="D680" s="10" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E680" s="8"/>
       <c r="F680" s="8"/>
@@ -13616,7 +13621,7 @@
     <row r="681" spans="3:6">
       <c r="C681" s="8"/>
       <c r="D681" s="10" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E681" s="8"/>
       <c r="F681" s="8"/>
@@ -13624,7 +13629,7 @@
     <row r="682" spans="3:6">
       <c r="C682" s="8"/>
       <c r="D682" s="10" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E682" s="8"/>
       <c r="F682" s="8"/>
@@ -13632,7 +13637,7 @@
     <row r="683" spans="3:6">
       <c r="C683" s="8"/>
       <c r="D683" s="10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E683" s="8"/>
       <c r="F683" s="8"/>
@@ -13640,7 +13645,7 @@
     <row r="684" spans="3:6">
       <c r="C684" s="8"/>
       <c r="D684" s="10" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E684" s="8"/>
       <c r="F684" s="8"/>
@@ -13648,7 +13653,7 @@
     <row r="685" spans="3:6">
       <c r="C685" s="8"/>
       <c r="D685" s="10" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E685" s="8"/>
       <c r="F685" s="8"/>
@@ -13656,7 +13661,7 @@
     <row r="686" spans="3:6">
       <c r="C686" s="8"/>
       <c r="D686" s="10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E686" s="8"/>
       <c r="F686" s="8"/>
@@ -13664,7 +13669,7 @@
     <row r="687" spans="3:6">
       <c r="C687" s="8"/>
       <c r="D687" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E687" s="8"/>
       <c r="F687" s="8"/>
@@ -13672,7 +13677,7 @@
     <row r="688" spans="3:6">
       <c r="C688" s="8"/>
       <c r="D688" s="10" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E688" s="8"/>
       <c r="F688" s="8"/>
@@ -13680,7 +13685,7 @@
     <row r="689" spans="3:6">
       <c r="C689" s="8"/>
       <c r="D689" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E689" s="8"/>
       <c r="F689" s="8"/>
@@ -13688,7 +13693,7 @@
     <row r="690" spans="3:6">
       <c r="C690" s="8"/>
       <c r="D690" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E690" s="8"/>
       <c r="F690" s="8"/>
@@ -13696,7 +13701,7 @@
     <row r="691" spans="3:6">
       <c r="C691" s="8"/>
       <c r="D691" s="10" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E691" s="8"/>
       <c r="F691" s="8"/>
@@ -13704,7 +13709,7 @@
     <row r="692" spans="3:6">
       <c r="C692" s="8"/>
       <c r="D692" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E692" s="8"/>
       <c r="F692" s="8"/>
@@ -13712,7 +13717,7 @@
     <row r="693" spans="3:6">
       <c r="C693" s="8"/>
       <c r="D693" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E693" s="8"/>
       <c r="F693" s="8"/>
@@ -13720,7 +13725,7 @@
     <row r="694" spans="3:6">
       <c r="C694" s="8"/>
       <c r="D694" s="10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E694" s="8"/>
       <c r="F694" s="8"/>
@@ -13728,7 +13733,7 @@
     <row r="695" spans="3:6">
       <c r="C695" s="8"/>
       <c r="D695" s="10" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E695" s="8"/>
       <c r="F695" s="8"/>
@@ -13736,7 +13741,7 @@
     <row r="696" spans="3:6">
       <c r="C696" s="8"/>
       <c r="D696" s="10" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E696" s="8"/>
       <c r="F696" s="8"/>
@@ -13744,7 +13749,7 @@
     <row r="697" spans="3:6">
       <c r="C697" s="8"/>
       <c r="D697" s="10" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E697" s="8"/>
       <c r="F697" s="8"/>
@@ -13752,7 +13757,7 @@
     <row r="698" spans="3:6">
       <c r="C698" s="8"/>
       <c r="D698" s="10" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E698" s="8"/>
       <c r="F698" s="8"/>
@@ -13760,7 +13765,7 @@
     <row r="699" spans="3:6">
       <c r="C699" s="8"/>
       <c r="D699" s="10" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E699" s="8"/>
       <c r="F699" s="8"/>
@@ -13768,7 +13773,7 @@
     <row r="700" spans="3:6">
       <c r="C700" s="8"/>
       <c r="D700" s="10" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E700" s="8"/>
       <c r="F700" s="8"/>
@@ -13776,7 +13781,7 @@
     <row r="701" spans="3:6">
       <c r="C701" s="8"/>
       <c r="D701" s="10" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E701" s="8"/>
       <c r="F701" s="8"/>
@@ -13784,7 +13789,7 @@
     <row r="702" spans="3:6">
       <c r="C702" s="8"/>
       <c r="D702" s="10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E702" s="8"/>
       <c r="F702" s="8"/>
@@ -13792,7 +13797,7 @@
     <row r="703" spans="3:6">
       <c r="C703" s="8"/>
       <c r="D703" s="10" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E703" s="8"/>
       <c r="F703" s="8"/>
@@ -13800,7 +13805,7 @@
     <row r="704" spans="3:6">
       <c r="C704" s="8"/>
       <c r="D704" s="10" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="E704" s="8"/>
       <c r="F704" s="8"/>
@@ -13808,7 +13813,7 @@
     <row r="705" spans="3:6">
       <c r="C705" s="8"/>
       <c r="D705" s="10" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E705" s="8"/>
       <c r="F705" s="8"/>
@@ -13816,7 +13821,7 @@
     <row r="706" spans="3:6">
       <c r="C706" s="8"/>
       <c r="D706" s="10" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E706" s="8"/>
       <c r="F706" s="8"/>
@@ -13824,7 +13829,7 @@
     <row r="707" spans="3:6">
       <c r="C707" s="8"/>
       <c r="D707" s="10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E707" s="8"/>
       <c r="F707" s="8"/>
@@ -13832,7 +13837,7 @@
     <row r="708" spans="3:6">
       <c r="C708" s="8"/>
       <c r="D708" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E708" s="8"/>
       <c r="F708" s="8"/>
@@ -13840,7 +13845,7 @@
     <row r="709" spans="3:6">
       <c r="C709" s="8"/>
       <c r="D709" s="10" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E709" s="8"/>
       <c r="F709" s="8"/>
@@ -13848,7 +13853,7 @@
     <row r="710" spans="3:6">
       <c r="C710" s="8"/>
       <c r="D710" s="10" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E710" s="8"/>
       <c r="F710" s="8"/>
@@ -13856,7 +13861,7 @@
     <row r="711" spans="3:6">
       <c r="C711" s="8"/>
       <c r="D711" s="10" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E711" s="8"/>
       <c r="F711" s="8"/>
@@ -13864,7 +13869,7 @@
     <row r="712" spans="3:6">
       <c r="C712" s="8"/>
       <c r="D712" s="10" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E712" s="8"/>
       <c r="F712" s="8"/>
@@ -13872,7 +13877,7 @@
     <row r="713" spans="3:6">
       <c r="C713" s="8"/>
       <c r="D713" s="10" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E713" s="8"/>
       <c r="F713" s="8"/>
@@ -13880,7 +13885,7 @@
     <row r="714" spans="3:6">
       <c r="C714" s="8"/>
       <c r="D714" s="10" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E714" s="8"/>
       <c r="F714" s="8"/>
@@ -13888,7 +13893,7 @@
     <row r="715" spans="3:6">
       <c r="C715" s="8"/>
       <c r="D715" s="10" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E715" s="8"/>
       <c r="F715" s="8"/>
@@ -13896,7 +13901,7 @@
     <row r="716" spans="3:6">
       <c r="C716" s="8"/>
       <c r="D716" s="10" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E716" s="8"/>
       <c r="F716" s="8"/>
@@ -13904,7 +13909,7 @@
     <row r="717" spans="3:6">
       <c r="C717" s="8"/>
       <c r="D717" s="10" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E717" s="8"/>
       <c r="F717" s="8"/>
@@ -13912,7 +13917,7 @@
     <row r="718" spans="3:6">
       <c r="C718" s="8"/>
       <c r="D718" s="10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E718" s="8"/>
       <c r="F718" s="8"/>
@@ -13920,7 +13925,7 @@
     <row r="719" spans="3:6">
       <c r="C719" s="8"/>
       <c r="D719" s="10" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E719" s="8"/>
       <c r="F719" s="8"/>
@@ -13928,7 +13933,7 @@
     <row r="720" spans="3:6">
       <c r="C720" s="8"/>
       <c r="D720" s="10" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E720" s="8"/>
       <c r="F720" s="8"/>
@@ -13936,7 +13941,7 @@
     <row r="721" spans="3:6">
       <c r="C721" s="8"/>
       <c r="D721" s="10" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E721" s="8"/>
       <c r="F721" s="8"/>
@@ -13944,7 +13949,7 @@
     <row r="722" spans="3:6">
       <c r="C722" s="8"/>
       <c r="D722" s="10" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E722" s="8"/>
       <c r="F722" s="8"/>
@@ -13952,7 +13957,7 @@
     <row r="723" spans="3:6">
       <c r="C723" s="8"/>
       <c r="D723" s="10" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E723" s="8"/>
       <c r="F723" s="8"/>
@@ -13960,7 +13965,7 @@
     <row r="724" spans="3:6">
       <c r="C724" s="8"/>
       <c r="D724" s="10" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E724" s="8"/>
       <c r="F724" s="8"/>
@@ -13968,7 +13973,7 @@
     <row r="725" spans="3:6">
       <c r="C725" s="8"/>
       <c r="D725" s="10" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E725" s="8"/>
       <c r="F725" s="8"/>
@@ -13976,7 +13981,7 @@
     <row r="726" spans="3:6">
       <c r="C726" s="8"/>
       <c r="D726" s="10" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E726" s="8"/>
       <c r="F726" s="8"/>
@@ -13984,7 +13989,7 @@
     <row r="727" spans="3:6">
       <c r="C727" s="8"/>
       <c r="D727" s="10" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E727" s="8"/>
       <c r="F727" s="8"/>
@@ -13992,7 +13997,7 @@
     <row r="728" spans="3:6">
       <c r="C728" s="8"/>
       <c r="D728" s="10" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E728" s="8"/>
       <c r="F728" s="8"/>
@@ -14000,7 +14005,7 @@
     <row r="729" spans="3:6">
       <c r="C729" s="8"/>
       <c r="D729" s="10" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E729" s="8"/>
       <c r="F729" s="8"/>
@@ -14008,7 +14013,7 @@
     <row r="730" spans="3:6">
       <c r="C730" s="8"/>
       <c r="D730" s="10" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E730" s="8"/>
       <c r="F730" s="8"/>
@@ -14016,7 +14021,7 @@
     <row r="731" spans="3:6">
       <c r="C731" s="8"/>
       <c r="D731" s="10" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E731" s="8"/>
       <c r="F731" s="8"/>
@@ -14024,7 +14029,7 @@
     <row r="732" spans="3:6">
       <c r="C732" s="8"/>
       <c r="D732" s="10" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E732" s="8"/>
       <c r="F732" s="8"/>
@@ -14032,7 +14037,7 @@
     <row r="733" spans="3:6">
       <c r="C733" s="8"/>
       <c r="D733" s="10" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E733" s="8"/>
       <c r="F733" s="8"/>
@@ -14040,7 +14045,7 @@
     <row r="734" spans="3:6">
       <c r="C734" s="8"/>
       <c r="D734" s="10" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E734" s="8"/>
       <c r="F734" s="8"/>
@@ -14048,7 +14053,7 @@
     <row r="735" spans="3:6">
       <c r="C735" s="8"/>
       <c r="D735" s="10" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E735" s="8"/>
       <c r="F735" s="8"/>
@@ -14056,7 +14061,7 @@
     <row r="736" spans="3:6">
       <c r="C736" s="8"/>
       <c r="D736" s="10" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E736" s="8"/>
       <c r="F736" s="8"/>
@@ -14064,7 +14069,7 @@
     <row r="737" spans="3:6">
       <c r="C737" s="8"/>
       <c r="D737" s="10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E737" s="8"/>
       <c r="F737" s="8"/>
@@ -14072,7 +14077,7 @@
     <row r="738" spans="3:6">
       <c r="C738" s="8"/>
       <c r="D738" s="10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E738" s="8"/>
       <c r="F738" s="8"/>
@@ -14080,7 +14085,7 @@
     <row r="739" spans="3:6">
       <c r="C739" s="8"/>
       <c r="D739" s="10" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E739" s="8"/>
       <c r="F739" s="8"/>
@@ -14088,7 +14093,7 @@
     <row r="740" spans="3:6">
       <c r="C740" s="8"/>
       <c r="D740" s="10" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="E740" s="8"/>
       <c r="F740" s="8"/>
@@ -14096,7 +14101,7 @@
     <row r="741" spans="3:6">
       <c r="C741" s="8"/>
       <c r="D741" s="10" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E741" s="8"/>
       <c r="F741" s="8"/>
@@ -14104,7 +14109,7 @@
     <row r="742" spans="3:6">
       <c r="C742" s="8"/>
       <c r="D742" s="10" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E742" s="8"/>
       <c r="F742" s="8"/>
@@ -14112,7 +14117,7 @@
     <row r="743" spans="3:6">
       <c r="C743" s="8"/>
       <c r="D743" s="10" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E743" s="8"/>
       <c r="F743" s="8"/>
@@ -14120,7 +14125,7 @@
     <row r="744" spans="3:6">
       <c r="C744" s="8"/>
       <c r="D744" s="10" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E744" s="8"/>
       <c r="F744" s="8"/>
@@ -14128,7 +14133,7 @@
     <row r="745" spans="3:6">
       <c r="C745" s="8"/>
       <c r="D745" s="10" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="E745" s="8"/>
       <c r="F745" s="8"/>
@@ -14136,7 +14141,7 @@
     <row r="746" spans="3:6">
       <c r="C746" s="8"/>
       <c r="D746" s="10" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E746" s="8"/>
       <c r="F746" s="8"/>
@@ -14144,7 +14149,7 @@
     <row r="747" spans="3:6">
       <c r="C747" s="8"/>
       <c r="D747" s="10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E747" s="8"/>
       <c r="F747" s="8"/>
@@ -14152,7 +14157,7 @@
     <row r="748" spans="3:6">
       <c r="C748" s="8"/>
       <c r="D748" s="10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E748" s="8"/>
       <c r="F748" s="8"/>
@@ -14160,7 +14165,7 @@
     <row r="749" spans="3:6">
       <c r="C749" s="8"/>
       <c r="D749" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E749" s="8"/>
       <c r="F749" s="8"/>
@@ -14168,7 +14173,7 @@
     <row r="750" spans="3:6">
       <c r="C750" s="8"/>
       <c r="D750" s="10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E750" s="8"/>
       <c r="F750" s="8"/>
@@ -14176,7 +14181,7 @@
     <row r="751" spans="3:6">
       <c r="C751" s="8"/>
       <c r="D751" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E751" s="8"/>
       <c r="F751" s="8"/>
@@ -14184,7 +14189,7 @@
     <row r="752" spans="3:6">
       <c r="C752" s="8"/>
       <c r="D752" s="10" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E752" s="8"/>
       <c r="F752" s="8"/>
@@ -14192,7 +14197,7 @@
     <row r="753" spans="3:6">
       <c r="C753" s="8"/>
       <c r="D753" s="10" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E753" s="8"/>
       <c r="F753" s="8"/>
@@ -14200,7 +14205,7 @@
     <row r="754" spans="3:6">
       <c r="C754" s="8"/>
       <c r="D754" s="10" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
@@ -14208,7 +14213,7 @@
     <row r="755" spans="3:6">
       <c r="C755" s="8"/>
       <c r="D755" s="10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E755" s="8"/>
       <c r="F755" s="8"/>
@@ -14216,7 +14221,7 @@
     <row r="756" spans="3:6">
       <c r="C756" s="8"/>
       <c r="D756" s="10" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E756" s="8"/>
       <c r="F756" s="8"/>
@@ -14224,7 +14229,7 @@
     <row r="757" spans="3:6">
       <c r="C757" s="8"/>
       <c r="D757" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E757" s="8"/>
       <c r="F757" s="8"/>
@@ -14232,7 +14237,7 @@
     <row r="758" spans="3:6">
       <c r="C758" s="8"/>
       <c r="D758" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E758" s="8"/>
       <c r="F758" s="8"/>
@@ -14240,7 +14245,7 @@
     <row r="759" spans="3:6">
       <c r="C759" s="8"/>
       <c r="D759" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E759" s="8"/>
       <c r="F759" s="8"/>
@@ -14248,7 +14253,7 @@
     <row r="760" spans="3:6">
       <c r="C760" s="8"/>
       <c r="D760" s="10" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E760" s="8"/>
       <c r="F760" s="8"/>
@@ -14256,7 +14261,7 @@
     <row r="761" spans="3:6">
       <c r="C761" s="8"/>
       <c r="D761" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E761" s="8"/>
       <c r="F761" s="8"/>
@@ -14264,7 +14269,7 @@
     <row r="762" spans="3:6">
       <c r="C762" s="8"/>
       <c r="D762" s="10" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E762" s="8"/>
       <c r="F762" s="8"/>
@@ -14272,7 +14277,7 @@
     <row r="763" spans="3:6">
       <c r="C763" s="8"/>
       <c r="D763" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E763" s="8"/>
       <c r="F763" s="8"/>
@@ -14280,7 +14285,7 @@
     <row r="764" spans="3:6">
       <c r="C764" s="8"/>
       <c r="D764" s="10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E764" s="8"/>
       <c r="F764" s="8"/>
@@ -14288,7 +14293,7 @@
     <row r="765" spans="3:6">
       <c r="C765" s="8"/>
       <c r="D765" s="10" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E765" s="8"/>
       <c r="F765" s="8"/>
@@ -14296,7 +14301,7 @@
     <row r="766" spans="3:6">
       <c r="C766" s="8"/>
       <c r="D766" s="10" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E766" s="8"/>
       <c r="F766" s="8"/>
@@ -14304,7 +14309,7 @@
     <row r="767" spans="3:6">
       <c r="C767" s="8"/>
       <c r="D767" s="10" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E767" s="8"/>
       <c r="F767" s="8"/>
@@ -14312,18 +14317,26 @@
     <row r="768" spans="3:6">
       <c r="C768" s="8"/>
       <c r="D768" s="10" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E768" s="8"/>
       <c r="F768" s="8"/>
     </row>
     <row r="769" spans="3:6">
-      <c r="C769" s="16"/>
+      <c r="C769" s="8"/>
       <c r="D769" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E769" s="8"/>
+      <c r="F769" s="8"/>
+    </row>
+    <row r="770" spans="3:6">
+      <c r="C770" s="16"/>
+      <c r="D770" s="10" t="s">
         <v>1581</v>
       </c>
-      <c r="E769" s="16"/>
-      <c r="F769" s="16"/>
+      <c r="E770" s="16"/>
+      <c r="F770" s="16"/>
     </row>
   </sheetData>
   <sortState ref="F70:F432">

--- a/docs/SharkTraits-Template.xlsx
+++ b/docs/SharkTraits-Template.xlsx
@@ -4799,9 +4799,6 @@
     <t>visual_estimation</t>
   </si>
   <si>
-    <t>Chemical Balance of Devleopment</t>
-  </si>
-  <si>
     <t>cm CL</t>
   </si>
   <si>
@@ -4818,6 +4815,9 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Chemical Balance of Development</t>
   </si>
 </sst>
 </file>
@@ -6440,7 +6440,7 @@
   <dimension ref="A1:K770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6749,7 +6749,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6812,10 +6812,10 @@
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H27" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>1563</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>86</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="33" spans="3:11">
       <c r="C33" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>88</v>
@@ -6947,7 +6947,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -6963,7 +6963,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -8314,7 +8314,7 @@
     </row>
     <row r="126" spans="3:6">
       <c r="C126" s="10" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>250</v>
@@ -9748,7 +9748,7 @@
         <v>507</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="F245" s="10" t="s">
         <v>633</v>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="E437" s="8"/>
       <c r="F437" s="10" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="438" spans="3:6">
@@ -14333,7 +14333,7 @@
     <row r="770" spans="3:6">
       <c r="C770" s="16"/>
       <c r="D770" s="10" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E770" s="16"/>
       <c r="F770" s="16"/>

--- a/docs/SharkTraits-Template.xlsx
+++ b/docs/SharkTraits-Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="34600" yWindow="-1820" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1587">
   <si>
     <t>observation_id</t>
   </si>
@@ -4818,6 +4818,9 @@
   </si>
   <si>
     <t>Chemical Balance of Development</t>
+  </si>
+  <si>
+    <t>Generation Length</t>
   </si>
 </sst>
 </file>
@@ -6440,7 +6443,7 @@
   <dimension ref="A1:K770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6630,6 +6633,9 @@
     <row r="12" spans="1:10">
       <c r="C12" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1586</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>67</v>

--- a/docs/SharkTraits-Template.xlsx
+++ b/docs/SharkTraits-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmull/Dropbox/Work/Shark Traits/Data Entry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmull/Desktop/sharkT/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770726F1-CD82-6444-9CE1-7AC4312998CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1366141E-F64A-B94E-A5A6-BBE81DDC609F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="460" windowWidth="19980" windowHeight="20020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="1584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="1586">
   <si>
     <t>observation_id</t>
   </si>
@@ -181,39 +181,6 @@
     <t>Amax-estimated</t>
   </si>
   <si>
-    <t>Ovarian Fecundity</t>
-  </si>
-  <si>
-    <t>Uterine Fecundity</t>
-  </si>
-  <si>
-    <t>Annual Reproductive Output</t>
-  </si>
-  <si>
-    <t>Litter Size (Unspecified)</t>
-  </si>
-  <si>
-    <t>Incubation Length</t>
-  </si>
-  <si>
-    <t>Gestation Length</t>
-  </si>
-  <si>
-    <t>Breeding Interval</t>
-  </si>
-  <si>
-    <t>Offspring Mass</t>
-  </si>
-  <si>
-    <t>Max Oviducal Width</t>
-  </si>
-  <si>
-    <t>Max Uterine Width</t>
-  </si>
-  <si>
-    <t>Single Uterus</t>
-  </si>
-  <si>
     <t>Seasonal</t>
   </si>
   <si>
@@ -256,15 +223,6 @@
     <t>PA</t>
   </si>
   <si>
-    <t>natural mortality</t>
-  </si>
-  <si>
-    <t>total mortality</t>
-  </si>
-  <si>
-    <t>fishing mortality</t>
-  </si>
-  <si>
     <t>rmax</t>
   </si>
   <si>
@@ -313,21 +271,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>back calculated</t>
-  </si>
-  <si>
-    <t>direcetly observed</t>
-  </si>
-  <si>
-    <t>histologically</t>
-  </si>
-  <si>
-    <t>Smallest Free swimming individual</t>
-  </si>
-  <si>
-    <t>Largest Embryo</t>
-  </si>
-  <si>
     <t>Free + Embryo</t>
   </si>
   <si>
@@ -343,21 +286,9 @@
     <t>Macroscopic observation</t>
   </si>
   <si>
-    <t>Tag-Recap</t>
-  </si>
-  <si>
     <t>L95 (95th percentile of size distribution observed)</t>
   </si>
   <si>
-    <t>directly from growth curves</t>
-  </si>
-  <si>
-    <t>observational</t>
-  </si>
-  <si>
-    <t>logistic</t>
-  </si>
-  <si>
     <t>VBFG2 Strong Bayes</t>
   </si>
   <si>
@@ -409,33 +340,15 @@
     <t>Vertebrae</t>
   </si>
   <si>
-    <t>Spine</t>
-  </si>
-  <si>
     <t>Tooth Plates</t>
   </si>
   <si>
-    <t>Direct Age</t>
-  </si>
-  <si>
     <t>Captive</t>
   </si>
   <si>
-    <t>Captive Observation</t>
-  </si>
-  <si>
     <t>Modeled</t>
   </si>
   <si>
-    <t>Proportion Gravid Females</t>
-  </si>
-  <si>
-    <t>empirical</t>
-  </si>
-  <si>
-    <t>derived</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -4300,9 +4213,6 @@
     <t>NOTE: Do not modify the values on this sheet on your own.</t>
   </si>
   <si>
-    <t>Reproductive Mode</t>
-  </si>
-  <si>
     <t>cm TL</t>
   </si>
   <si>
@@ -4337,12 +4247,6 @@
   </si>
   <si>
     <t>Macroscopic dissection</t>
-  </si>
-  <si>
-    <t>L95 (95th percentile of age distribution observed)</t>
-  </si>
-  <si>
-    <t>L99 (99th percentile of age distribution observed)</t>
   </si>
   <si>
     <t>Male</t>
@@ -4817,7 +4721,109 @@
     <t>Age of largest immature</t>
   </si>
   <si>
-    <t>Ovum Diameter</t>
+    <t>Largest embryo</t>
+  </si>
+  <si>
+    <t>Directly observed</t>
+  </si>
+  <si>
+    <t>Back calculated</t>
+  </si>
+  <si>
+    <t>Smallest free swimming individual</t>
+  </si>
+  <si>
+    <t>A95 (95th percentile of age distribution observed)</t>
+  </si>
+  <si>
+    <t>A99 (99th percentile of age distribution observed)</t>
+  </si>
+  <si>
+    <t>Vertebrae - Spine - Tooth Plate</t>
+  </si>
+  <si>
+    <t>Directly from growth curves</t>
+  </si>
+  <si>
+    <t>Observational</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>Generation length calculation</t>
+  </si>
+  <si>
+    <t>Direct age</t>
+  </si>
+  <si>
+    <t>Spines</t>
+  </si>
+  <si>
+    <t>Ovarian fecundity</t>
+  </si>
+  <si>
+    <t>Uterine fecundity</t>
+  </si>
+  <si>
+    <t>Annual reproductive output</t>
+  </si>
+  <si>
+    <t>Litter size (unspecified)</t>
+  </si>
+  <si>
+    <t>Incubation length</t>
+  </si>
+  <si>
+    <t>Gestation length</t>
+  </si>
+  <si>
+    <t>Breeding interval</t>
+  </si>
+  <si>
+    <t>Ovum diameter</t>
+  </si>
+  <si>
+    <t>Offspring mass</t>
+  </si>
+  <si>
+    <t>Max oviducal width</t>
+  </si>
+  <si>
+    <t>Max uterine width</t>
+  </si>
+  <si>
+    <t>Single uterus</t>
+  </si>
+  <si>
+    <t>Reproductive mode</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>Captive observation</t>
+  </si>
+  <si>
+    <t>Proportion gravid females</t>
+  </si>
+  <si>
+    <t>Natural mortality</t>
+  </si>
+  <si>
+    <t>Total mortality</t>
+  </si>
+  <si>
+    <t>Fishing mortality</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Empirical</t>
+  </si>
+  <si>
+    <t>Derived</t>
   </si>
 </sst>
 </file>
@@ -5486,8 +5492,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Standards" displayName="Standards" ref="C26:H37" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="C26:H37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Standards" displayName="Standards" ref="C26:H38" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="C26:H38" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Length"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Age"/>
@@ -5501,8 +5507,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Methods" displayName="Methods" ref="C40:H53" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="C40:H53" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Methods" displayName="Methods" ref="C41:H54" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="C41:H54" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Length"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Age"/>
@@ -5516,8 +5522,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Models" displayName="Models" ref="C57:H69" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="C57:H69" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Models" displayName="Models" ref="C58:H70" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="C58:H70" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Length"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Age"/>
@@ -5531,8 +5537,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Species" displayName="Species" ref="C73:F770" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="C73:F770" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Species" displayName="Species" ref="C74:F771" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="C74:F771" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Chimaeriformes" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Batoidea" dataDxfId="11"/>
@@ -5908,7 +5914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -5956,13 +5962,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>1442</v>
+        <v>1410</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>1558</v>
+        <v>1526</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -6025,10 +6031,10 @@
         <v>25</v>
       </c>
       <c r="AD1" t="s">
-        <v>1564</v>
+        <v>1532</v>
       </c>
       <c r="AE1" t="s">
-        <v>1565</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -6445,15 +6451,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K770"/>
+  <dimension ref="A1:K771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
@@ -6464,12 +6470,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1417</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
-        <v>1425</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6489,33 +6495,33 @@
         <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1446</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>1561</v>
+        <v>1529</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>1564</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>1580</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>1433</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -6526,19 +6532,19 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>1565</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>1581</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>1434</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6549,19 +6555,19 @@
         <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>1566</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>1582</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>1435</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -6569,22 +6575,22 @@
         <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1582</v>
+        <v>1550</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>1567</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>1436</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -6595,13 +6601,16 @@
         <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>1568</v>
+        <v>1536</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1583</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -6612,10 +6621,10 @@
         <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>1569</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -6626,13 +6635,13 @@
         <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>1570</v>
+        <v>1538</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1444</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -6640,85 +6649,85 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>1581</v>
+        <v>1549</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>1568</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>1569</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>1570</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>1572</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1572</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>1573</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1573</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
-        <v>55</v>
+        <v>1575</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1445</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
@@ -6726,20 +6735,20 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.2">
@@ -6747,12 +6756,12 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1418</v>
+        <v>1576</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
@@ -6760,12 +6769,12 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1580</v>
+        <v>1548</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>1571</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.2">
@@ -6777,7 +6786,7 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
-        <v>1426</v>
+        <v>1396</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -6802,155 +6811,155 @@
         <v>31</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1447</v>
+        <v>1415</v>
       </c>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>1419</v>
+        <v>1389</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>1577</v>
+        <v>1545</v>
       </c>
       <c r="H27" t="s">
-        <v>1577</v>
+        <v>1545</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1559</v>
+        <v>1527</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>1557</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>1420</v>
+        <v>1390</v>
       </c>
       <c r="E28" t="s">
-        <v>1424</v>
+        <v>1394</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>1449</v>
+        <v>1417</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>1448</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>1421</v>
+        <v>1391</v>
       </c>
       <c r="E29" t="s">
-        <v>1577</v>
+        <v>1545</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>1451</v>
+        <v>1419</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>1450</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>1574</v>
+        <v>1542</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>1453</v>
+        <v>1421</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>1452</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K31" s="11" t="s">
         <v>1422</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>1455</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>1423</v>
+        <v>1393</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>1457</v>
+        <v>1425</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>1456</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>1578</v>
+        <v>1546</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>1459</v>
+        <v>1427</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>1458</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>1461</v>
+        <v>1429</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>1460</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>1463</v>
+        <v>1431</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>1462</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
@@ -6958,15 +6967,15 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>1576</v>
+        <v>1544</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="J36" s="11" t="s">
-        <v>1465</v>
+        <v>1433</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>1464</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.2">
@@ -6974,4729 +6983,4720 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>1579</v>
+        <v>1547</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="J37" s="11" t="s">
-        <v>1467</v>
+        <v>1435</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>1466</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>1577</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="J38" s="11" t="s">
-        <v>1469</v>
+        <v>1437</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>1468</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="5" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="J39" s="11" t="s">
-        <v>1471</v>
+        <v>1439</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>1470</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" t="s">
-        <v>129</v>
+      <c r="H41" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>1475</v>
+        <v>1443</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>1553</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>1553</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>126</v>
+        <v>1528</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>1578</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>129</v>
+        <v>1584</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1585</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>1477</v>
+        <v>1445</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>1476</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>1552</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>1552</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1585</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>1479</v>
+        <v>1447</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>1478</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>1430</v>
+        <v>1400</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>98</v>
+        <v>1579</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>1481</v>
+        <v>1449</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>1480</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>1554</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>1555</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>1428</v>
+        <v>1563</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>1483</v>
+        <v>1451</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>1482</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>93</v>
+        <v>1551</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>1556</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>1398</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>1485</v>
+        <v>1453</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>1484</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>124</v>
+        <v>1562</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>1487</v>
+        <v>1455</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>1486</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>95</v>
+        <v>1528</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>1562</v>
+        <v>1530</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>1563</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1431</v>
+        <v>1557</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>1489</v>
+        <v>1457</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>1488</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1432</v>
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1554</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>1491</v>
+        <v>1459</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>1490</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>1493</v>
+        <v>1461</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>1492</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>1495</v>
+        <v>1463</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>1494</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D53" s="1" t="s">
-        <v>1560</v>
-      </c>
+      <c r="D53" s="1"/>
       <c r="J53" s="11" t="s">
-        <v>1497</v>
+        <v>1465</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>1496</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="s">
-        <v>1499</v>
+        <v>1467</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>1498</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="s">
-        <v>1501</v>
+        <v>1469</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>1500</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C56" s="5" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
       <c r="J56" s="11" t="s">
-        <v>1503</v>
+        <v>1471</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>1502</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="J57" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1566</v>
+      <c r="H58" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>1507</v>
+        <v>1475</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>1506</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>1553</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>1553</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s">
-        <v>1567</v>
+        <v>1534</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>1509</v>
+        <v>1477</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>1508</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>1558</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>102</v>
+        <v>1558</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1535</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>1511</v>
+        <v>1479</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>1510</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>103</v>
+        <v>1559</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>103</v>
+        <v>1559</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>1513</v>
+        <v>1481</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>1512</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1560</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>1515</v>
+        <v>1483</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>1514</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>1561</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>1517</v>
+        <v>1485</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>1516</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E64" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>1519</v>
+        <v>1487</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>1518</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>1521</v>
+        <v>1489</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>1520</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E66" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>1523</v>
+        <v>1491</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>1522</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>1525</v>
+        <v>1493</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>1524</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>1527</v>
+        <v>1495</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>1526</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>1529</v>
+        <v>1497</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>1528</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E70" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J70" s="11" t="s">
-        <v>1531</v>
+        <v>1499</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>1530</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="s">
-        <v>1533</v>
+        <v>1501</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>1532</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C72" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
       <c r="J72" s="11" t="s">
-        <v>1535</v>
+        <v>1503</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>1534</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C73" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>1441</v>
-      </c>
+        <v>1405</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
       <c r="J73" s="11" t="s">
-        <v>1533</v>
+        <v>1501</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>1536</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C74" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>154</v>
+      <c r="C74" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>1409</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>1538</v>
+        <v>1506</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>1537</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C75" s="10" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>136</v>
+        <v>1411</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>362</v>
+        <v>114</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>1540</v>
+        <v>1508</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>1539</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C76" s="10" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>1542</v>
+        <v>1510</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>1541</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C77" s="10" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>1544</v>
+        <v>1512</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>1543</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C78" s="10" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>1546</v>
+        <v>1514</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>1545</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C79" s="10" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>1548</v>
+        <v>1516</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>1547</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C80" s="10" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>1550</v>
+        <v>1518</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>1549</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="10" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>1552</v>
+        <v>1520</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>1551</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82" s="10" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>1554</v>
+        <v>1522</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>1553</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C83" s="10" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>1556</v>
+        <v>1524</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>1555</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84" s="10" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" s="10" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C86" s="10" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87" s="10" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88" s="10" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" s="10" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90" s="10" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91" s="10" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92" s="10" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93" s="10" t="s">
-        <v>678</v>
+        <v>401</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94" s="10" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95" s="10" t="s">
-        <v>751</v>
+        <v>650</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96" s="10" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="10" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>431</v>
+        <v>354</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="10" t="s">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="10" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="10" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="10" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="10" t="s">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="10" t="s">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="10" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C106" s="10" t="s">
-        <v>762</v>
+        <v>732</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C107" s="10" t="s">
-        <v>763</v>
+        <v>733</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>549</v>
+        <v>465</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C108" s="10" t="s">
-        <v>764</v>
+        <v>734</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C109" s="10" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C110" s="10" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C111" s="10" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C112" s="10" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="10" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C114" s="10" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C115" s="10" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C116" s="10" t="s">
-        <v>772</v>
+        <v>742</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C117" s="10" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C118" s="10" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C120" s="10" t="s">
-        <v>907</v>
+        <v>746</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C121" s="10" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C122" s="10" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C123" s="10" t="s">
-        <v>1157</v>
+        <v>880</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="10" t="s">
-        <v>1158</v>
+        <v>1128</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C125" s="10" t="s">
-        <v>1159</v>
+        <v>1129</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C126" s="10" t="s">
-        <v>1575</v>
+        <v>1130</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C127" s="8"/>
+      <c r="C127" s="10" t="s">
+        <v>1543</v>
+      </c>
       <c r="D127" s="10" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C128" s="8"/>
       <c r="D128" s="10" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C129" s="8"/>
       <c r="D129" s="10" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C130" s="8"/>
       <c r="D130" s="10" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C131" s="8"/>
       <c r="D131" s="10" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C132" s="8"/>
       <c r="D132" s="10" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C133" s="8"/>
       <c r="D133" s="10" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C134" s="8"/>
       <c r="D134" s="10" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C135" s="8"/>
       <c r="D135" s="10" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C136" s="8"/>
       <c r="D136" s="10" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C137" s="8"/>
       <c r="D137" s="10" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C138" s="8"/>
       <c r="D138" s="10" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C139" s="8"/>
       <c r="D139" s="10" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C140" s="8"/>
       <c r="D140" s="10" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C141" s="8"/>
       <c r="D141" s="10" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C142" s="8"/>
       <c r="D142" s="10" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C143" s="8"/>
       <c r="D143" s="10" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C144" s="8"/>
       <c r="D144" s="10" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C145" s="8"/>
       <c r="D145" s="10" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C146" s="8"/>
       <c r="D146" s="10" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C147" s="8"/>
       <c r="D147" s="10" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C148" s="8"/>
       <c r="D148" s="10" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C149" s="8"/>
       <c r="D149" s="10" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C150" s="8"/>
       <c r="D150" s="10" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C151" s="8"/>
       <c r="D151" s="10" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C152" s="8"/>
       <c r="D152" s="10" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>701</v>
+        <v>569</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C153" s="8"/>
       <c r="D153" s="10" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C154" s="8"/>
       <c r="D154" s="10" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C155" s="8"/>
       <c r="D155" s="10" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C156" s="8"/>
       <c r="D156" s="10" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C157" s="8"/>
       <c r="D157" s="10" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>784</v>
+        <v>689</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C158" s="8"/>
       <c r="D158" s="10" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>785</v>
+        <v>755</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C159" s="8"/>
       <c r="D159" s="10" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C160" s="8"/>
       <c r="D160" s="10" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>834</v>
+        <v>757</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C161" s="8"/>
       <c r="D161" s="10" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>938</v>
+        <v>805</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C162" s="8"/>
       <c r="D162" s="10" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>968</v>
+        <v>909</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C163" s="8"/>
       <c r="D163" s="10" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>969</v>
+        <v>939</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C164" s="8"/>
       <c r="D164" s="10" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>970</v>
+        <v>940</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C165" s="8"/>
       <c r="D165" s="10" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>971</v>
+        <v>941</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C166" s="8"/>
       <c r="D166" s="10" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C167" s="8"/>
       <c r="D167" s="10" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>1015</v>
+        <v>943</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C168" s="8"/>
       <c r="D168" s="10" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>1048</v>
+        <v>986</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C169" s="8"/>
       <c r="D169" s="10" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>1049</v>
+        <v>1019</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C170" s="8"/>
       <c r="D170" s="10" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>348</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C171" s="8"/>
       <c r="D171" s="10" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C172" s="8"/>
       <c r="D172" s="10" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>1052</v>
+        <v>1022</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C173" s="8"/>
       <c r="D173" s="10" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>1053</v>
+        <v>1023</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C174" s="8"/>
       <c r="D174" s="10" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>1054</v>
+        <v>1024</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C175" s="8"/>
       <c r="D175" s="10" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>1062</v>
+        <v>1025</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C176" s="8"/>
       <c r="D176" s="10" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C177" s="8"/>
       <c r="D177" s="10" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>1222</v>
+        <v>1034</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C178" s="8"/>
       <c r="D178" s="10" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>1223</v>
+        <v>1193</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C179" s="8"/>
       <c r="D179" s="10" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>1224</v>
+        <v>1194</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C180" s="8"/>
       <c r="D180" s="10" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>1225</v>
+        <v>1195</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C181" s="8"/>
       <c r="D181" s="10" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>1226</v>
+        <v>1196</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C182" s="8"/>
       <c r="D182" s="10" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>1235</v>
+        <v>1197</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C183" s="8"/>
       <c r="D183" s="10" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>1236</v>
+        <v>1206</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C184" s="8"/>
       <c r="D184" s="10" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>1237</v>
+        <v>1207</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C185" s="8"/>
       <c r="D185" s="10" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>1238</v>
+        <v>1208</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C186" s="8"/>
       <c r="D186" s="10" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>1239</v>
+        <v>1209</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C187" s="8"/>
       <c r="D187" s="10" t="s">
-        <v>439</v>
+        <v>279</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>1249</v>
+        <v>1210</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C188" s="8"/>
       <c r="D188" s="10" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>1250</v>
+        <v>1220</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C189" s="8"/>
       <c r="D189" s="10" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>1251</v>
+        <v>1221</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C190" s="8"/>
       <c r="D190" s="10" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>1252</v>
+        <v>1222</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C191" s="8"/>
       <c r="D191" s="10" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>1253</v>
+        <v>1223</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C192" s="8"/>
       <c r="D192" s="10" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>1254</v>
+        <v>1224</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
     </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C193" s="8"/>
       <c r="D193" s="10" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>1255</v>
+        <v>1225</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C194" s="8"/>
       <c r="D194" s="10" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>1256</v>
+        <v>1226</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C195" s="8"/>
       <c r="D195" s="10" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>1257</v>
+        <v>1227</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C196" s="8"/>
       <c r="D196" s="10" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>1258</v>
+        <v>1228</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C197" s="8"/>
       <c r="D197" s="10" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>1259</v>
+        <v>1229</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C198" s="8"/>
       <c r="D198" s="10" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C199" s="8"/>
       <c r="D199" s="10" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>1261</v>
+        <v>1231</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C200" s="8"/>
       <c r="D200" s="10" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>1262</v>
+        <v>1232</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C201" s="8"/>
       <c r="D201" s="10" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>1263</v>
+        <v>1233</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>401</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C202" s="8"/>
       <c r="D202" s="10" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>1264</v>
+        <v>1234</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C203" s="8"/>
       <c r="D203" s="10" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>1265</v>
+        <v>1235</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C204" s="8"/>
       <c r="D204" s="10" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>1266</v>
+        <v>1236</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C205" s="8"/>
       <c r="D205" s="10" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>1267</v>
+        <v>1237</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C206" s="8"/>
       <c r="D206" s="10" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>1268</v>
+        <v>1238</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C207" s="8"/>
       <c r="D207" s="10" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>1269</v>
+        <v>1239</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C208" s="8"/>
       <c r="D208" s="10" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>1270</v>
+        <v>1240</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C209" s="8"/>
       <c r="D209" s="10" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>1271</v>
+        <v>1241</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C210" s="8"/>
       <c r="D210" s="10" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>1272</v>
+        <v>1242</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C211" s="8"/>
       <c r="D211" s="10" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>1273</v>
+        <v>1243</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C212" s="8"/>
       <c r="D212" s="10" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>1274</v>
+        <v>1244</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C213" s="8"/>
       <c r="D213" s="10" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>1275</v>
+        <v>1245</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C214" s="8"/>
       <c r="D214" s="10" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>1276</v>
+        <v>1246</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C215" s="8"/>
       <c r="D215" s="10" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>1277</v>
+        <v>1247</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C216" s="8"/>
       <c r="D216" s="10" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>1278</v>
+        <v>1248</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C217" s="8"/>
       <c r="D217" s="10" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>1279</v>
+        <v>1249</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C218" s="8"/>
       <c r="D218" s="10" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>1280</v>
+        <v>1250</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C219" s="8"/>
       <c r="D219" s="10" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>1281</v>
+        <v>1251</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>552</v>
+        <v>419</v>
       </c>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C220" s="8"/>
       <c r="D220" s="10" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>1282</v>
+        <v>1252</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C221" s="8"/>
       <c r="D221" s="10" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>1283</v>
+        <v>1253</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C222" s="8"/>
       <c r="D222" s="10" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>1284</v>
+        <v>1254</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C223" s="8"/>
       <c r="D223" s="10" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>1285</v>
+        <v>1255</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C224" s="8"/>
       <c r="D224" s="10" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>1286</v>
+        <v>1256</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C225" s="8"/>
       <c r="D225" s="10" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>1287</v>
+        <v>1257</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C226" s="8"/>
       <c r="D226" s="10" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>1288</v>
+        <v>1258</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C227" s="8"/>
       <c r="D227" s="10" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>1289</v>
+        <v>1259</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C228" s="8"/>
       <c r="D228" s="10" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>1290</v>
+        <v>1260</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C229" s="8"/>
       <c r="D229" s="10" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>1291</v>
+        <v>1261</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C230" s="8"/>
       <c r="D230" s="10" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>1292</v>
+        <v>1262</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C231" s="8"/>
       <c r="D231" s="10" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>1293</v>
+        <v>1263</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C232" s="8"/>
       <c r="D232" s="10" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>1294</v>
+        <v>1264</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C233" s="8"/>
       <c r="D233" s="10" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>1295</v>
+        <v>1265</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C234" s="8"/>
       <c r="D234" s="10" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>1296</v>
+        <v>1266</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C235" s="8"/>
       <c r="D235" s="10" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>1297</v>
+        <v>1267</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C236" s="8"/>
       <c r="D236" s="10" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>1298</v>
+        <v>1268</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C237" s="8"/>
       <c r="D237" s="10" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>1299</v>
+        <v>1269</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C238" s="8"/>
       <c r="D238" s="10" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>1300</v>
+        <v>1270</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C239" s="8"/>
       <c r="D239" s="10" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>1301</v>
+        <v>1271</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C240" s="8"/>
       <c r="D240" s="10" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>1302</v>
+        <v>1272</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C241" s="8"/>
       <c r="D241" s="10" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>1303</v>
+        <v>1273</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C242" s="8"/>
       <c r="D242" s="10" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>1349</v>
+        <v>1274</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C243" s="8"/>
       <c r="D243" s="10" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>1406</v>
+        <v>1320</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
     </row>
     <row r="244" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C244" s="8"/>
       <c r="D244" s="10" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>1407</v>
+        <v>1377</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C245" s="8"/>
       <c r="D245" s="10" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>1575</v>
+        <v>1378</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C246" s="8"/>
       <c r="D246" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E246" s="8"/>
+        <v>474</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>1543</v>
+      </c>
       <c r="F246" s="10" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C247" s="8"/>
       <c r="D247" s="10" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="E247" s="8"/>
       <c r="F247" s="10" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C248" s="8"/>
       <c r="D248" s="10" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="E248" s="8"/>
       <c r="F248" s="10" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C249" s="8"/>
       <c r="D249" s="10" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="E249" s="8"/>
       <c r="F249" s="10" t="s">
-        <v>641</v>
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C250" s="8"/>
       <c r="D250" s="10" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="E250" s="8"/>
       <c r="F250" s="10" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
     </row>
     <row r="251" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C251" s="8"/>
       <c r="D251" s="10" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="E251" s="8"/>
       <c r="F251" s="10" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
     </row>
     <row r="252" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C252" s="8"/>
       <c r="D252" s="10" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="E252" s="8"/>
       <c r="F252" s="10" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="253" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C253" s="8"/>
       <c r="D253" s="10" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="E253" s="8"/>
       <c r="F253" s="10" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
     </row>
     <row r="254" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C254" s="8"/>
       <c r="D254" s="10" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="10" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
     </row>
     <row r="255" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C255" s="8"/>
       <c r="D255" s="10" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="E255" s="8"/>
       <c r="F255" s="10" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
     </row>
     <row r="256" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C256" s="8"/>
       <c r="D256" s="10" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="E256" s="8"/>
       <c r="F256" s="10" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="257" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C257" s="8"/>
       <c r="D257" s="10" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="E257" s="8"/>
       <c r="F257" s="10" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="258" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C258" s="8"/>
       <c r="D258" s="10" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="E258" s="8"/>
       <c r="F258" s="10" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C259" s="8"/>
       <c r="D259" s="10" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="E259" s="8"/>
       <c r="F259" s="10" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
     </row>
     <row r="260" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C260" s="8"/>
       <c r="D260" s="10" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="E260" s="8"/>
       <c r="F260" s="10" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
     <row r="261" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C261" s="8"/>
       <c r="D261" s="10" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="E261" s="8"/>
       <c r="F261" s="10" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
     </row>
     <row r="262" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C262" s="8"/>
       <c r="D262" s="10" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="E262" s="8"/>
       <c r="F262" s="10" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
     </row>
     <row r="263" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C263" s="8"/>
       <c r="D263" s="10" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="E263" s="8"/>
       <c r="F263" s="10" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
     </row>
     <row r="264" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C264" s="8"/>
       <c r="D264" s="10" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E264" s="8"/>
       <c r="F264" s="10" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
     </row>
     <row r="265" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C265" s="8"/>
       <c r="D265" s="10" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="E265" s="8"/>
       <c r="F265" s="10" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
     </row>
     <row r="266" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C266" s="8"/>
       <c r="D266" s="10" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="E266" s="8"/>
       <c r="F266" s="10" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
     </row>
     <row r="267" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C267" s="8"/>
       <c r="D267" s="10" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="E267" s="8"/>
       <c r="F267" s="10" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
     </row>
     <row r="268" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C268" s="8"/>
       <c r="D268" s="10" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="E268" s="8"/>
       <c r="F268" s="10" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
     </row>
     <row r="269" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C269" s="8"/>
       <c r="D269" s="10" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="E269" s="8"/>
       <c r="F269" s="10" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
     </row>
     <row r="270" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C270" s="8"/>
       <c r="D270" s="10" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="E270" s="8"/>
       <c r="F270" s="10" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
     </row>
     <row r="271" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C271" s="8"/>
       <c r="D271" s="10" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="E271" s="8"/>
       <c r="F271" s="10" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
     </row>
     <row r="272" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C272" s="8"/>
       <c r="D272" s="10" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E272" s="8"/>
       <c r="F272" s="10" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
     </row>
     <row r="273" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C273" s="8"/>
       <c r="D273" s="10" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="E273" s="8"/>
       <c r="F273" s="10" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
     </row>
     <row r="274" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C274" s="8"/>
       <c r="D274" s="10" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="E274" s="8"/>
       <c r="F274" s="10" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
     </row>
     <row r="275" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C275" s="8"/>
       <c r="D275" s="10" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="E275" s="8"/>
       <c r="F275" s="10" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
     </row>
     <row r="276" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C276" s="8"/>
       <c r="D276" s="10" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="E276" s="8"/>
       <c r="F276" s="10" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
     </row>
     <row r="277" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C277" s="8"/>
       <c r="D277" s="10" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="E277" s="8"/>
       <c r="F277" s="10" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C278" s="8"/>
       <c r="D278" s="10" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="E278" s="8"/>
       <c r="F278" s="10" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
     </row>
     <row r="279" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C279" s="8"/>
       <c r="D279" s="10" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="E279" s="8"/>
       <c r="F279" s="10" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C280" s="8"/>
       <c r="D280" s="10" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="10" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="281" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C281" s="8"/>
       <c r="D281" s="10" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="E281" s="8"/>
       <c r="F281" s="10" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
     </row>
     <row r="282" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C282" s="8"/>
       <c r="D282" s="10" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="E282" s="8"/>
       <c r="F282" s="10" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C283" s="8"/>
       <c r="D283" s="10" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="E283" s="8"/>
       <c r="F283" s="10" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C284" s="8"/>
       <c r="D284" s="10" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="E284" s="8"/>
       <c r="F284" s="10" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
     </row>
     <row r="285" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C285" s="8"/>
       <c r="D285" s="10" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="E285" s="8"/>
       <c r="F285" s="10" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
     </row>
     <row r="286" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C286" s="8"/>
       <c r="D286" s="10" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="E286" s="8"/>
       <c r="F286" s="10" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
     </row>
     <row r="287" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C287" s="8"/>
       <c r="D287" s="10" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="E287" s="8"/>
       <c r="F287" s="10" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
     </row>
     <row r="288" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C288" s="8"/>
       <c r="D288" s="10" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="E288" s="8"/>
       <c r="F288" s="10" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
     </row>
     <row r="289" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C289" s="8"/>
       <c r="D289" s="10" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="E289" s="8"/>
       <c r="F289" s="10" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
     </row>
     <row r="290" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C290" s="8"/>
       <c r="D290" s="10" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="E290" s="8"/>
       <c r="F290" s="10" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
     </row>
     <row r="291" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C291" s="8"/>
       <c r="D291" s="10" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="E291" s="8"/>
       <c r="F291" s="10" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
     </row>
     <row r="292" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C292" s="8"/>
       <c r="D292" s="10" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="E292" s="8"/>
       <c r="F292" s="10" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
     </row>
     <row r="293" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C293" s="8"/>
       <c r="D293" s="10" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="E293" s="8"/>
       <c r="F293" s="10" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
     </row>
     <row r="294" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C294" s="8"/>
       <c r="D294" s="10" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="E294" s="8"/>
       <c r="F294" s="10" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
     </row>
     <row r="295" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C295" s="8"/>
       <c r="D295" s="10" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="E295" s="8"/>
       <c r="F295" s="10" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="296" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C296" s="8"/>
       <c r="D296" s="10" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="E296" s="8"/>
       <c r="F296" s="10" t="s">
-        <v>745</v>
+        <v>681</v>
       </c>
     </row>
     <row r="297" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C297" s="8"/>
       <c r="D297" s="10" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="10" t="s">
-        <v>746</v>
+        <v>716</v>
       </c>
     </row>
     <row r="298" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C298" s="8"/>
       <c r="D298" s="10" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="E298" s="8"/>
       <c r="F298" s="10" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
     </row>
     <row r="299" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C299" s="8"/>
       <c r="D299" s="10" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="10" t="s">
-        <v>748</v>
+        <v>718</v>
       </c>
     </row>
     <row r="300" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C300" s="8"/>
       <c r="D300" s="10" t="s">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="E300" s="8"/>
       <c r="F300" s="10" t="s">
-        <v>749</v>
+        <v>719</v>
       </c>
     </row>
     <row r="301" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C301" s="8"/>
       <c r="D301" s="10" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="10" t="s">
-        <v>777</v>
+        <v>720</v>
       </c>
     </row>
     <row r="302" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C302" s="8"/>
       <c r="D302" s="10" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="E302" s="8"/>
       <c r="F302" s="10" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
     </row>
     <row r="303" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C303" s="8"/>
       <c r="D303" s="10" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="E303" s="8"/>
       <c r="F303" s="10" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
     </row>
     <row r="304" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C304" s="8"/>
       <c r="D304" s="10" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="E304" s="8"/>
       <c r="F304" s="10" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
     </row>
     <row r="305" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C305" s="8"/>
       <c r="D305" s="10" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="E305" s="8"/>
       <c r="F305" s="10" t="s">
-        <v>788</v>
+        <v>758</v>
       </c>
     </row>
     <row r="306" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C306" s="8"/>
       <c r="D306" s="10" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="E306" s="8"/>
       <c r="F306" s="10" t="s">
-        <v>789</v>
+        <v>759</v>
       </c>
     </row>
     <row r="307" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C307" s="8"/>
       <c r="D307" s="10" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="E307" s="8"/>
       <c r="F307" s="10" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
     </row>
     <row r="308" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C308" s="8"/>
       <c r="D308" s="10" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="E308" s="8"/>
       <c r="F308" s="10" t="s">
-        <v>791</v>
+        <v>761</v>
       </c>
     </row>
     <row r="309" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C309" s="8"/>
       <c r="D309" s="10" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="E309" s="8"/>
       <c r="F309" s="10" t="s">
-        <v>792</v>
+        <v>762</v>
       </c>
     </row>
     <row r="310" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C310" s="8"/>
       <c r="D310" s="10" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="E310" s="8"/>
       <c r="F310" s="10" t="s">
-        <v>793</v>
+        <v>763</v>
       </c>
     </row>
     <row r="311" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C311" s="8"/>
       <c r="D311" s="10" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="E311" s="8"/>
       <c r="F311" s="10" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
     </row>
     <row r="312" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C312" s="8"/>
       <c r="D312" s="10" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="E312" s="8"/>
       <c r="F312" s="10" t="s">
-        <v>810</v>
+        <v>765</v>
       </c>
     </row>
     <row r="313" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C313" s="8"/>
       <c r="D313" s="10" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="E313" s="8"/>
       <c r="F313" s="10" t="s">
-        <v>822</v>
+        <v>781</v>
       </c>
     </row>
     <row r="314" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C314" s="8"/>
       <c r="D314" s="10" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="E314" s="8"/>
       <c r="F314" s="10" t="s">
-        <v>823</v>
+        <v>793</v>
       </c>
     </row>
     <row r="315" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C315" s="8"/>
       <c r="D315" s="10" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="10" t="s">
-        <v>835</v>
+        <v>794</v>
       </c>
     </row>
     <row r="316" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C316" s="8"/>
       <c r="D316" s="10" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="E316" s="8"/>
       <c r="F316" s="10" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
     </row>
     <row r="317" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C317" s="8"/>
       <c r="D317" s="10" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="E317" s="8"/>
       <c r="F317" s="10" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
     </row>
     <row r="318" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C318" s="8"/>
       <c r="D318" s="10" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="E318" s="8"/>
       <c r="F318" s="10" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
     </row>
     <row r="319" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C319" s="8"/>
       <c r="D319" s="10" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="E319" s="8"/>
       <c r="F319" s="10" t="s">
-        <v>839</v>
+        <v>809</v>
       </c>
     </row>
     <row r="320" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C320" s="8"/>
       <c r="D320" s="10" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="E320" s="8"/>
       <c r="F320" s="10" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
     </row>
     <row r="321" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C321" s="8"/>
       <c r="D321" s="10" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="E321" s="8"/>
       <c r="F321" s="10" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
     </row>
     <row r="322" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C322" s="8"/>
       <c r="D322" s="10" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="E322" s="8"/>
       <c r="F322" s="10" t="s">
-        <v>842</v>
+        <v>812</v>
       </c>
     </row>
     <row r="323" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C323" s="8"/>
       <c r="D323" s="10" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="E323" s="8"/>
       <c r="F323" s="10" t="s">
-        <v>843</v>
+        <v>813</v>
       </c>
     </row>
     <row r="324" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C324" s="8"/>
       <c r="D324" s="10" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="E324" s="8"/>
       <c r="F324" s="10" t="s">
-        <v>844</v>
+        <v>814</v>
       </c>
     </row>
     <row r="325" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C325" s="8"/>
       <c r="D325" s="10" t="s">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="E325" s="8"/>
       <c r="F325" s="10" t="s">
-        <v>845</v>
+        <v>815</v>
       </c>
     </row>
     <row r="326" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C326" s="8"/>
       <c r="D326" s="10" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="E326" s="8"/>
       <c r="F326" s="10" t="s">
-        <v>846</v>
+        <v>816</v>
       </c>
     </row>
     <row r="327" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C327" s="8"/>
       <c r="D327" s="10" t="s">
-        <v>700</v>
+        <v>652</v>
       </c>
       <c r="E327" s="8"/>
       <c r="F327" s="10" t="s">
-        <v>847</v>
+        <v>817</v>
       </c>
     </row>
     <row r="328" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C328" s="8"/>
       <c r="D328" s="10" t="s">
-        <v>711</v>
+        <v>671</v>
       </c>
       <c r="E328" s="8"/>
       <c r="F328" s="10" t="s">
-        <v>848</v>
+        <v>818</v>
       </c>
     </row>
     <row r="329" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C329" s="8"/>
       <c r="D329" s="10" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="E329" s="8"/>
       <c r="F329" s="10" t="s">
-        <v>849</v>
+        <v>819</v>
       </c>
     </row>
     <row r="330" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C330" s="8"/>
       <c r="D330" s="10" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="E330" s="8"/>
       <c r="F330" s="10" t="s">
-        <v>850</v>
+        <v>820</v>
       </c>
     </row>
     <row r="331" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C331" s="8"/>
       <c r="D331" s="10" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="E331" s="8"/>
       <c r="F331" s="10" t="s">
-        <v>851</v>
+        <v>821</v>
       </c>
     </row>
     <row r="332" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C332" s="8"/>
       <c r="D332" s="10" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="E332" s="8"/>
       <c r="F332" s="10" t="s">
-        <v>852</v>
+        <v>822</v>
       </c>
     </row>
     <row r="333" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C333" s="8"/>
       <c r="D333" s="10" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="E333" s="8"/>
       <c r="F333" s="10" t="s">
-        <v>853</v>
+        <v>823</v>
       </c>
     </row>
     <row r="334" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C334" s="8"/>
       <c r="D334" s="10" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="E334" s="8"/>
       <c r="F334" s="10" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
     </row>
     <row r="335" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C335" s="8"/>
       <c r="D335" s="10" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="E335" s="8"/>
       <c r="F335" s="10" t="s">
-        <v>855</v>
+        <v>825</v>
       </c>
     </row>
     <row r="336" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C336" s="8"/>
       <c r="D336" s="10" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="E336" s="8"/>
       <c r="F336" s="10" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
     </row>
     <row r="337" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C337" s="8"/>
       <c r="D337" s="10" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="E337" s="8"/>
       <c r="F337" s="10" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
     </row>
     <row r="338" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C338" s="8"/>
       <c r="D338" s="10" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="E338" s="8"/>
       <c r="F338" s="10" t="s">
-        <v>858</v>
+        <v>828</v>
       </c>
     </row>
     <row r="339" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C339" s="8"/>
       <c r="D339" s="10" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="E339" s="8"/>
       <c r="F339" s="10" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
     </row>
     <row r="340" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C340" s="8"/>
       <c r="D340" s="10" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="E340" s="8"/>
       <c r="F340" s="10" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
     </row>
     <row r="341" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C341" s="8"/>
       <c r="D341" s="10" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="E341" s="8"/>
       <c r="F341" s="10" t="s">
-        <v>861</v>
+        <v>831</v>
       </c>
     </row>
     <row r="342" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C342" s="8"/>
       <c r="D342" s="10" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="E342" s="8"/>
       <c r="F342" s="10" t="s">
-        <v>862</v>
+        <v>832</v>
       </c>
     </row>
     <row r="343" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C343" s="8"/>
       <c r="D343" s="10" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="E343" s="8"/>
       <c r="F343" s="10" t="s">
-        <v>903</v>
+        <v>833</v>
       </c>
     </row>
     <row r="344" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C344" s="8"/>
       <c r="D344" s="10" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="E344" s="8"/>
       <c r="F344" s="10" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
     </row>
     <row r="345" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C345" s="8"/>
       <c r="D345" s="10" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="E345" s="8"/>
       <c r="F345" s="10" t="s">
-        <v>905</v>
+        <v>875</v>
       </c>
     </row>
     <row r="346" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C346" s="8"/>
       <c r="D346" s="10" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="E346" s="8"/>
       <c r="F346" s="10" t="s">
-        <v>906</v>
+        <v>876</v>
       </c>
     </row>
     <row r="347" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C347" s="8"/>
       <c r="D347" s="10" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="E347" s="8"/>
       <c r="F347" s="10" t="s">
-        <v>939</v>
+        <v>877</v>
       </c>
     </row>
     <row r="348" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C348" s="8"/>
       <c r="D348" s="10" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="E348" s="8"/>
       <c r="F348" s="10" t="s">
-        <v>940</v>
+        <v>910</v>
       </c>
     </row>
     <row r="349" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C349" s="8"/>
       <c r="D349" s="10" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="E349" s="8"/>
       <c r="F349" s="10" t="s">
-        <v>958</v>
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C350" s="8"/>
       <c r="D350" s="10" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="E350" s="8"/>
       <c r="F350" s="10" t="s">
-        <v>959</v>
+        <v>929</v>
       </c>
     </row>
     <row r="351" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C351" s="8"/>
       <c r="D351" s="10" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="E351" s="8"/>
       <c r="F351" s="10" t="s">
-        <v>960</v>
+        <v>930</v>
       </c>
     </row>
     <row r="352" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C352" s="8"/>
       <c r="D352" s="10" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="E352" s="8"/>
       <c r="F352" s="10" t="s">
-        <v>961</v>
+        <v>931</v>
       </c>
     </row>
     <row r="353" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C353" s="8"/>
       <c r="D353" s="10" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="E353" s="8"/>
       <c r="F353" s="10" t="s">
-        <v>962</v>
+        <v>932</v>
       </c>
     </row>
     <row r="354" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C354" s="8"/>
       <c r="D354" s="10" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="E354" s="8"/>
       <c r="F354" s="10" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
     </row>
     <row r="355" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C355" s="8"/>
       <c r="D355" s="10" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="E355" s="8"/>
       <c r="F355" s="10" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
     </row>
     <row r="356" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C356" s="8"/>
       <c r="D356" s="10" t="s">
-        <v>743</v>
+        <v>713</v>
       </c>
       <c r="E356" s="8"/>
       <c r="F356" s="10" t="s">
-        <v>965</v>
+        <v>935</v>
       </c>
     </row>
     <row r="357" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C357" s="8"/>
       <c r="D357" s="10" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="E357" s="8"/>
       <c r="F357" s="10" t="s">
-        <v>966</v>
+        <v>936</v>
       </c>
     </row>
     <row r="358" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C358" s="8"/>
       <c r="D358" s="10" t="s">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="E358" s="8"/>
       <c r="F358" s="10" t="s">
-        <v>967</v>
+        <v>937</v>
       </c>
     </row>
     <row r="359" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C359" s="8"/>
       <c r="D359" s="10" t="s">
-        <v>776</v>
+        <v>721</v>
       </c>
       <c r="E359" s="8"/>
       <c r="F359" s="10" t="s">
-        <v>973</v>
+        <v>938</v>
       </c>
     </row>
     <row r="360" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C360" s="8"/>
       <c r="D360" s="10" t="s">
-        <v>780</v>
+        <v>747</v>
       </c>
       <c r="E360" s="8"/>
       <c r="F360" s="10" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
     </row>
     <row r="361" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C361" s="8"/>
       <c r="D361" s="10" t="s">
-        <v>781</v>
+        <v>751</v>
       </c>
       <c r="E361" s="8"/>
       <c r="F361" s="10" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
     </row>
     <row r="362" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C362" s="8"/>
       <c r="D362" s="10" t="s">
-        <v>782</v>
+        <v>752</v>
       </c>
       <c r="E362" s="8"/>
       <c r="F362" s="10" t="s">
-        <v>976</v>
+        <v>946</v>
       </c>
     </row>
     <row r="363" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C363" s="8"/>
       <c r="D363" s="10" t="s">
-        <v>783</v>
+        <v>753</v>
       </c>
       <c r="E363" s="8"/>
       <c r="F363" s="10" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
     </row>
     <row r="364" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C364" s="8"/>
       <c r="D364" s="10" t="s">
-        <v>795</v>
+        <v>754</v>
       </c>
       <c r="E364" s="8"/>
       <c r="F364" s="10" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
     </row>
     <row r="365" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C365" s="8"/>
       <c r="D365" s="10" t="s">
-        <v>796</v>
+        <v>766</v>
       </c>
       <c r="E365" s="8"/>
       <c r="F365" s="10" t="s">
-        <v>979</v>
+        <v>949</v>
       </c>
     </row>
     <row r="366" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C366" s="8"/>
       <c r="D366" s="10" t="s">
-        <v>797</v>
+        <v>767</v>
       </c>
       <c r="E366" s="8"/>
       <c r="F366" s="10" t="s">
-        <v>980</v>
+        <v>950</v>
       </c>
     </row>
     <row r="367" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C367" s="8"/>
       <c r="D367" s="10" t="s">
-        <v>798</v>
+        <v>768</v>
       </c>
       <c r="E367" s="8"/>
       <c r="F367" s="10" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
     </row>
     <row r="368" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C368" s="8"/>
       <c r="D368" s="10" t="s">
-        <v>799</v>
+        <v>769</v>
       </c>
       <c r="E368" s="8"/>
       <c r="F368" s="10" t="s">
-        <v>983</v>
+        <v>952</v>
       </c>
     </row>
     <row r="369" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C369" s="8"/>
       <c r="D369" s="10" t="s">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="E369" s="8"/>
       <c r="F369" s="10" t="s">
-        <v>984</v>
+        <v>954</v>
       </c>
     </row>
     <row r="370" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C370" s="8"/>
       <c r="D370" s="10" t="s">
-        <v>801</v>
+        <v>771</v>
       </c>
       <c r="E370" s="8"/>
       <c r="F370" s="10" t="s">
-        <v>985</v>
+        <v>955</v>
       </c>
     </row>
     <row r="371" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C371" s="8"/>
       <c r="D371" s="10" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="E371" s="8"/>
       <c r="F371" s="10" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
     </row>
     <row r="372" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C372" s="8"/>
       <c r="D372" s="10" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
       <c r="E372" s="8"/>
       <c r="F372" s="10" t="s">
-        <v>987</v>
+        <v>957</v>
       </c>
     </row>
     <row r="373" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C373" s="8"/>
       <c r="D373" s="10" t="s">
-        <v>804</v>
+        <v>774</v>
       </c>
       <c r="E373" s="8"/>
       <c r="F373" s="10" t="s">
-        <v>988</v>
+        <v>958</v>
       </c>
     </row>
     <row r="374" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C374" s="8"/>
       <c r="D374" s="10" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="E374" s="8"/>
       <c r="F374" s="10" t="s">
-        <v>989</v>
+        <v>959</v>
       </c>
     </row>
     <row r="375" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C375" s="8"/>
       <c r="D375" s="10" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="E375" s="8"/>
       <c r="F375" s="10" t="s">
-        <v>990</v>
+        <v>960</v>
       </c>
     </row>
     <row r="376" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C376" s="8"/>
       <c r="D376" s="10" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="E376" s="8"/>
       <c r="F376" s="10" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
     </row>
     <row r="377" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C377" s="8"/>
       <c r="D377" s="10" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="E377" s="8"/>
       <c r="F377" s="10" t="s">
-        <v>992</v>
+        <v>962</v>
       </c>
     </row>
     <row r="378" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C378" s="8"/>
       <c r="D378" s="10" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="E378" s="8"/>
       <c r="F378" s="10" t="s">
-        <v>1005</v>
+        <v>963</v>
       </c>
     </row>
     <row r="379" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C379" s="8"/>
       <c r="D379" s="10" t="s">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="E379" s="8"/>
       <c r="F379" s="10" t="s">
-        <v>1006</v>
+        <v>976</v>
       </c>
     </row>
     <row r="380" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C380" s="8"/>
       <c r="D380" s="10" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="E380" s="8"/>
       <c r="F380" s="10" t="s">
-        <v>1016</v>
+        <v>977</v>
       </c>
     </row>
     <row r="381" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C381" s="8"/>
       <c r="D381" s="10" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="E381" s="8"/>
       <c r="F381" s="10" t="s">
-        <v>1017</v>
+        <v>987</v>
       </c>
     </row>
     <row r="382" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C382" s="8"/>
       <c r="D382" s="10" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
       <c r="E382" s="8"/>
       <c r="F382" s="10" t="s">
-        <v>1047</v>
+        <v>988</v>
       </c>
     </row>
     <row r="383" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C383" s="8"/>
       <c r="D383" s="10" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
       <c r="E383" s="8"/>
       <c r="F383" s="10" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="384" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C384" s="8"/>
       <c r="D384" s="10" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
       <c r="E384" s="8"/>
       <c r="F384" s="10" t="s">
-        <v>1060</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="385" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C385" s="8"/>
       <c r="D385" s="10" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="E385" s="8"/>
       <c r="F385" s="10" t="s">
-        <v>1061</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="386" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C386" s="8"/>
       <c r="D386" s="10" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="E386" s="8"/>
       <c r="F386" s="10" t="s">
-        <v>1072</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="387" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C387" s="8"/>
       <c r="D387" s="10" t="s">
-        <v>819</v>
+        <v>789</v>
       </c>
       <c r="E387" s="8"/>
       <c r="F387" s="10" t="s">
-        <v>1073</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="388" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C388" s="8"/>
       <c r="D388" s="10" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="E388" s="8"/>
       <c r="F388" s="10" t="s">
-        <v>1075</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="389" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C389" s="8"/>
       <c r="D389" s="10" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="E389" s="8"/>
       <c r="F389" s="10" t="s">
-        <v>1131</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="390" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C390" s="8"/>
       <c r="D390" s="10" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
       <c r="E390" s="8"/>
       <c r="F390" s="10" t="s">
-        <v>1180</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="391" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C391" s="8"/>
       <c r="D391" s="10" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="E391" s="8"/>
       <c r="F391" s="10" t="s">
-        <v>1181</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="392" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C392" s="8"/>
       <c r="D392" s="10" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
       <c r="E392" s="8"/>
       <c r="F392" s="10" t="s">
-        <v>1182</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="393" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C393" s="8"/>
       <c r="D393" s="10" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="E393" s="8"/>
       <c r="F393" s="10" t="s">
-        <v>1183</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="394" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C394" s="8"/>
       <c r="D394" s="10" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="E394" s="8"/>
       <c r="F394" s="10" t="s">
-        <v>1184</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="395" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C395" s="8"/>
       <c r="D395" s="10" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="E395" s="8"/>
       <c r="F395" s="10" t="s">
-        <v>1185</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="396" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C396" s="8"/>
       <c r="D396" s="10" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="E396" s="8"/>
       <c r="F396" s="10" t="s">
-        <v>1186</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="397" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C397" s="8"/>
       <c r="D397" s="10" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="E397" s="8"/>
       <c r="F397" s="10" t="s">
-        <v>1198</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="398" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C398" s="8"/>
       <c r="D398" s="10" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="E398" s="8"/>
       <c r="F398" s="10" t="s">
-        <v>1199</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="399" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C399" s="8"/>
       <c r="D399" s="10" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="E399" s="8"/>
       <c r="F399" s="10" t="s">
-        <v>1200</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="400" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C400" s="8"/>
       <c r="D400" s="10" t="s">
-        <v>863</v>
+        <v>804</v>
       </c>
       <c r="E400" s="8"/>
       <c r="F400" s="10" t="s">
-        <v>1201</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="401" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C401" s="8"/>
       <c r="D401" s="10" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="E401" s="8"/>
       <c r="F401" s="10" t="s">
-        <v>1202</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="402" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C402" s="8"/>
       <c r="D402" s="10" t="s">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="E402" s="8"/>
       <c r="F402" s="10" t="s">
-        <v>1203</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="403" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C403" s="8"/>
       <c r="D403" s="10" t="s">
-        <v>866</v>
+        <v>836</v>
       </c>
       <c r="E403" s="8"/>
       <c r="F403" s="10" t="s">
-        <v>1204</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="404" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C404" s="8"/>
       <c r="D404" s="10" t="s">
-        <v>867</v>
+        <v>837</v>
       </c>
       <c r="E404" s="8"/>
       <c r="F404" s="10" t="s">
-        <v>1205</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="405" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C405" s="8"/>
       <c r="D405" s="10" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="E405" s="8"/>
       <c r="F405" s="10" t="s">
-        <v>1206</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="406" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C406" s="8"/>
       <c r="D406" s="10" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="E406" s="8"/>
       <c r="F406" s="10" t="s">
-        <v>1207</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="407" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C407" s="8"/>
       <c r="D407" s="10" t="s">
-        <v>870</v>
+        <v>840</v>
       </c>
       <c r="E407" s="8"/>
       <c r="F407" s="10" t="s">
-        <v>1208</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="408" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C408" s="8"/>
       <c r="D408" s="10" t="s">
-        <v>871</v>
+        <v>841</v>
       </c>
       <c r="E408" s="8"/>
       <c r="F408" s="10" t="s">
-        <v>1209</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="409" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C409" s="8"/>
       <c r="D409" s="10" t="s">
-        <v>872</v>
+        <v>842</v>
       </c>
       <c r="E409" s="8"/>
       <c r="F409" s="10" t="s">
-        <v>1210</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="410" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C410" s="8"/>
       <c r="D410" s="10" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
       <c r="E410" s="8"/>
       <c r="F410" s="10" t="s">
-        <v>1211</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="411" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C411" s="8"/>
       <c r="D411" s="10" t="s">
-        <v>874</v>
+        <v>844</v>
       </c>
       <c r="E411" s="8"/>
       <c r="F411" s="10" t="s">
-        <v>1212</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="412" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C412" s="8"/>
       <c r="D412" s="10" t="s">
-        <v>875</v>
+        <v>845</v>
       </c>
       <c r="E412" s="8"/>
       <c r="F412" s="10" t="s">
-        <v>1213</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="413" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C413" s="8"/>
       <c r="D413" s="10" t="s">
-        <v>876</v>
+        <v>846</v>
       </c>
       <c r="E413" s="8"/>
       <c r="F413" s="10" t="s">
-        <v>1214</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="414" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C414" s="8"/>
       <c r="D414" s="10" t="s">
-        <v>877</v>
+        <v>847</v>
       </c>
       <c r="E414" s="8"/>
       <c r="F414" s="10" t="s">
-        <v>1215</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="415" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C415" s="8"/>
       <c r="D415" s="10" t="s">
-        <v>878</v>
+        <v>848</v>
       </c>
       <c r="E415" s="8"/>
       <c r="F415" s="10" t="s">
-        <v>1216</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="416" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C416" s="8"/>
       <c r="D416" s="10" t="s">
-        <v>879</v>
+        <v>849</v>
       </c>
       <c r="E416" s="8"/>
       <c r="F416" s="10" t="s">
-        <v>1217</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="417" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C417" s="8"/>
       <c r="D417" s="10" t="s">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="E417" s="8"/>
       <c r="F417" s="10" t="s">
-        <v>1218</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="418" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C418" s="8"/>
       <c r="D418" s="10" t="s">
-        <v>881</v>
+        <v>851</v>
       </c>
       <c r="E418" s="8"/>
       <c r="F418" s="10" t="s">
-        <v>1219</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="419" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C419" s="8"/>
       <c r="D419" s="10" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="E419" s="8"/>
       <c r="F419" s="10" t="s">
-        <v>1220</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="420" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C420" s="8"/>
       <c r="D420" s="10" t="s">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="E420" s="8"/>
       <c r="F420" s="10" t="s">
-        <v>1221</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="421" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C421" s="8"/>
       <c r="D421" s="10" t="s">
-        <v>884</v>
+        <v>854</v>
       </c>
       <c r="E421" s="8"/>
       <c r="F421" s="10" t="s">
-        <v>1240</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="422" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C422" s="8"/>
       <c r="D422" s="10" t="s">
-        <v>885</v>
+        <v>855</v>
       </c>
       <c r="E422" s="8"/>
       <c r="F422" s="10" t="s">
-        <v>1241</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="423" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C423" s="8"/>
       <c r="D423" s="10" t="s">
-        <v>886</v>
+        <v>856</v>
       </c>
       <c r="E423" s="8"/>
       <c r="F423" s="10" t="s">
-        <v>1242</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="424" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C424" s="8"/>
       <c r="D424" s="10" t="s">
-        <v>887</v>
+        <v>857</v>
       </c>
       <c r="E424" s="8"/>
       <c r="F424" s="10" t="s">
-        <v>1243</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="425" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C425" s="8"/>
       <c r="D425" s="10" t="s">
-        <v>888</v>
+        <v>858</v>
       </c>
       <c r="E425" s="8"/>
       <c r="F425" s="10" t="s">
-        <v>1244</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="426" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C426" s="8"/>
       <c r="D426" s="10" t="s">
-        <v>889</v>
+        <v>859</v>
       </c>
       <c r="E426" s="8"/>
       <c r="F426" s="10" t="s">
-        <v>1245</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="427" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C427" s="8"/>
       <c r="D427" s="10" t="s">
-        <v>890</v>
+        <v>860</v>
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="10" t="s">
-        <v>1246</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="428" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C428" s="8"/>
       <c r="D428" s="10" t="s">
-        <v>891</v>
+        <v>861</v>
       </c>
       <c r="E428" s="8"/>
       <c r="F428" s="10" t="s">
-        <v>1247</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="429" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C429" s="8"/>
       <c r="D429" s="10" t="s">
-        <v>892</v>
+        <v>862</v>
       </c>
       <c r="E429" s="8"/>
       <c r="F429" s="10" t="s">
-        <v>1304</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="430" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C430" s="8"/>
       <c r="D430" s="10" t="s">
-        <v>893</v>
+        <v>863</v>
       </c>
       <c r="E430" s="8"/>
       <c r="F430" s="10" t="s">
-        <v>1305</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="431" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C431" s="8"/>
       <c r="D431" s="10" t="s">
-        <v>894</v>
+        <v>864</v>
       </c>
       <c r="E431" s="8"/>
       <c r="F431" s="10" t="s">
-        <v>1343</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="432" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C432" s="8"/>
       <c r="D432" s="10" t="s">
-        <v>895</v>
+        <v>865</v>
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="10" t="s">
-        <v>1344</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="433" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C433" s="8"/>
       <c r="D433" s="10" t="s">
-        <v>896</v>
+        <v>866</v>
       </c>
       <c r="E433" s="8"/>
       <c r="F433" s="10" t="s">
-        <v>1345</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="434" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C434" s="8"/>
       <c r="D434" s="10" t="s">
-        <v>897</v>
+        <v>867</v>
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="10" t="s">
-        <v>1346</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="435" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C435" s="8"/>
       <c r="D435" s="10" t="s">
-        <v>898</v>
+        <v>868</v>
       </c>
       <c r="E435" s="8"/>
       <c r="F435" s="10" t="s">
-        <v>1347</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="436" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C436" s="8"/>
       <c r="D436" s="10" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
       <c r="E436" s="8"/>
       <c r="F436" s="10" t="s">
-        <v>1348</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="437" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C437" s="8"/>
       <c r="D437" s="10" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="E437" s="8"/>
       <c r="F437" s="10" t="s">
-        <v>1575</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="438" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C438" s="8"/>
       <c r="D438" s="10" t="s">
-        <v>901</v>
+        <v>871</v>
       </c>
       <c r="E438" s="8"/>
-      <c r="F438" s="8"/>
+      <c r="F438" s="10" t="s">
+        <v>1543</v>
+      </c>
     </row>
     <row r="439" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C439" s="8"/>
       <c r="D439" s="10" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
@@ -11704,7 +11704,7 @@
     <row r="440" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C440" s="8"/>
       <c r="D440" s="10" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
@@ -11712,7 +11712,7 @@
     <row r="441" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C441" s="8"/>
       <c r="D441" s="10" t="s">
-        <v>911</v>
+        <v>881</v>
       </c>
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
@@ -11720,7 +11720,7 @@
     <row r="442" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C442" s="8"/>
       <c r="D442" s="10" t="s">
-        <v>912</v>
+        <v>882</v>
       </c>
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
@@ -11728,7 +11728,7 @@
     <row r="443" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C443" s="8"/>
       <c r="D443" s="10" t="s">
-        <v>913</v>
+        <v>883</v>
       </c>
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
@@ -11736,7 +11736,7 @@
     <row r="444" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C444" s="8"/>
       <c r="D444" s="10" t="s">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
@@ -11744,7 +11744,7 @@
     <row r="445" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C445" s="8"/>
       <c r="D445" s="10" t="s">
-        <v>915</v>
+        <v>885</v>
       </c>
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
@@ -11752,7 +11752,7 @@
     <row r="446" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C446" s="8"/>
       <c r="D446" s="10" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
@@ -11760,7 +11760,7 @@
     <row r="447" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C447" s="8"/>
       <c r="D447" s="10" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
@@ -11768,7 +11768,7 @@
     <row r="448" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C448" s="8"/>
       <c r="D448" s="10" t="s">
-        <v>918</v>
+        <v>888</v>
       </c>
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
@@ -11776,7 +11776,7 @@
     <row r="449" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C449" s="8"/>
       <c r="D449" s="10" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
@@ -11784,7 +11784,7 @@
     <row r="450" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C450" s="8"/>
       <c r="D450" s="10" t="s">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
@@ -11792,7 +11792,7 @@
     <row r="451" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C451" s="8"/>
       <c r="D451" s="10" t="s">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
@@ -11800,7 +11800,7 @@
     <row r="452" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C452" s="8"/>
       <c r="D452" s="10" t="s">
-        <v>922</v>
+        <v>892</v>
       </c>
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
@@ -11808,7 +11808,7 @@
     <row r="453" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C453" s="8"/>
       <c r="D453" s="10" t="s">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
@@ -11816,7 +11816,7 @@
     <row r="454" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C454" s="8"/>
       <c r="D454" s="10" t="s">
-        <v>924</v>
+        <v>894</v>
       </c>
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
@@ -11824,7 +11824,7 @@
     <row r="455" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C455" s="8"/>
       <c r="D455" s="10" t="s">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
@@ -11832,7 +11832,7 @@
     <row r="456" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C456" s="8"/>
       <c r="D456" s="10" t="s">
-        <v>926</v>
+        <v>896</v>
       </c>
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
@@ -11840,7 +11840,7 @@
     <row r="457" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C457" s="8"/>
       <c r="D457" s="10" t="s">
-        <v>927</v>
+        <v>897</v>
       </c>
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
@@ -11848,7 +11848,7 @@
     <row r="458" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C458" s="8"/>
       <c r="D458" s="10" t="s">
-        <v>928</v>
+        <v>898</v>
       </c>
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
@@ -11856,7 +11856,7 @@
     <row r="459" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C459" s="8"/>
       <c r="D459" s="10" t="s">
-        <v>929</v>
+        <v>899</v>
       </c>
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
@@ -11864,7 +11864,7 @@
     <row r="460" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C460" s="8"/>
       <c r="D460" s="10" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
@@ -11872,7 +11872,7 @@
     <row r="461" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C461" s="8"/>
       <c r="D461" s="10" t="s">
-        <v>931</v>
+        <v>901</v>
       </c>
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
@@ -11880,7 +11880,7 @@
     <row r="462" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C462" s="8"/>
       <c r="D462" s="10" t="s">
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
@@ -11888,7 +11888,7 @@
     <row r="463" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C463" s="8"/>
       <c r="D463" s="10" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
@@ -11896,7 +11896,7 @@
     <row r="464" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C464" s="8"/>
       <c r="D464" s="10" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
@@ -11904,7 +11904,7 @@
     <row r="465" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C465" s="8"/>
       <c r="D465" s="10" t="s">
-        <v>935</v>
+        <v>905</v>
       </c>
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
@@ -11912,7 +11912,7 @@
     <row r="466" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C466" s="8"/>
       <c r="D466" s="10" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
@@ -11920,7 +11920,7 @@
     <row r="467" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C467" s="8"/>
       <c r="D467" s="10" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
@@ -11928,7 +11928,7 @@
     <row r="468" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C468" s="8"/>
       <c r="D468" s="10" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
@@ -11936,7 +11936,7 @@
     <row r="469" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C469" s="8"/>
       <c r="D469" s="10" t="s">
-        <v>942</v>
+        <v>912</v>
       </c>
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
@@ -11944,7 +11944,7 @@
     <row r="470" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C470" s="8"/>
       <c r="D470" s="10" t="s">
-        <v>943</v>
+        <v>913</v>
       </c>
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
@@ -11952,7 +11952,7 @@
     <row r="471" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C471" s="8"/>
       <c r="D471" s="10" t="s">
-        <v>944</v>
+        <v>914</v>
       </c>
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
@@ -11960,7 +11960,7 @@
     <row r="472" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C472" s="8"/>
       <c r="D472" s="10" t="s">
-        <v>945</v>
+        <v>915</v>
       </c>
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
@@ -11968,7 +11968,7 @@
     <row r="473" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C473" s="8"/>
       <c r="D473" s="10" t="s">
-        <v>946</v>
+        <v>916</v>
       </c>
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
@@ -11976,7 +11976,7 @@
     <row r="474" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C474" s="8"/>
       <c r="D474" s="10" t="s">
-        <v>947</v>
+        <v>917</v>
       </c>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
@@ -11984,7 +11984,7 @@
     <row r="475" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C475" s="8"/>
       <c r="D475" s="10" t="s">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
@@ -11992,7 +11992,7 @@
     <row r="476" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C476" s="8"/>
       <c r="D476" s="10" t="s">
-        <v>949</v>
+        <v>919</v>
       </c>
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
@@ -12000,7 +12000,7 @@
     <row r="477" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C477" s="8"/>
       <c r="D477" s="10" t="s">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
@@ -12008,7 +12008,7 @@
     <row r="478" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C478" s="8"/>
       <c r="D478" s="10" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
@@ -12016,7 +12016,7 @@
     <row r="479" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C479" s="8"/>
       <c r="D479" s="10" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
@@ -12024,7 +12024,7 @@
     <row r="480" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C480" s="8"/>
       <c r="D480" s="10" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
@@ -12032,7 +12032,7 @@
     <row r="481" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C481" s="8"/>
       <c r="D481" s="10" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
@@ -12040,7 +12040,7 @@
     <row r="482" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C482" s="8"/>
       <c r="D482" s="10" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
@@ -12048,7 +12048,7 @@
     <row r="483" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C483" s="8"/>
       <c r="D483" s="10" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
@@ -12056,7 +12056,7 @@
     <row r="484" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C484" s="8"/>
       <c r="D484" s="10" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
@@ -12064,7 +12064,7 @@
     <row r="485" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C485" s="8"/>
       <c r="D485" s="10" t="s">
-        <v>982</v>
+        <v>928</v>
       </c>
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
@@ -12072,7 +12072,7 @@
     <row r="486" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C486" s="8"/>
       <c r="D486" s="10" t="s">
-        <v>993</v>
+        <v>953</v>
       </c>
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
@@ -12080,7 +12080,7 @@
     <row r="487" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C487" s="8"/>
       <c r="D487" s="10" t="s">
-        <v>994</v>
+        <v>964</v>
       </c>
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
@@ -12088,7 +12088,7 @@
     <row r="488" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C488" s="8"/>
       <c r="D488" s="10" t="s">
-        <v>995</v>
+        <v>965</v>
       </c>
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
@@ -12096,7 +12096,7 @@
     <row r="489" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C489" s="8"/>
       <c r="D489" s="10" t="s">
-        <v>996</v>
+        <v>966</v>
       </c>
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
@@ -12104,7 +12104,7 @@
     <row r="490" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C490" s="8"/>
       <c r="D490" s="10" t="s">
-        <v>997</v>
+        <v>967</v>
       </c>
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
@@ -12112,7 +12112,7 @@
     <row r="491" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C491" s="8"/>
       <c r="D491" s="10" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
@@ -12120,7 +12120,7 @@
     <row r="492" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C492" s="8"/>
       <c r="D492" s="10" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
@@ -12128,7 +12128,7 @@
     <row r="493" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C493" s="8"/>
       <c r="D493" s="10" t="s">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
@@ -12136,7 +12136,7 @@
     <row r="494" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C494" s="8"/>
       <c r="D494" s="10" t="s">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
@@ -12144,7 +12144,7 @@
     <row r="495" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C495" s="8"/>
       <c r="D495" s="10" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
@@ -12152,7 +12152,7 @@
     <row r="496" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C496" s="8"/>
       <c r="D496" s="10" t="s">
-        <v>1003</v>
+        <v>973</v>
       </c>
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
@@ -12160,7 +12160,7 @@
     <row r="497" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C497" s="8"/>
       <c r="D497" s="10" t="s">
-        <v>1004</v>
+        <v>974</v>
       </c>
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
@@ -12168,7 +12168,7 @@
     <row r="498" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C498" s="8"/>
       <c r="D498" s="10" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
@@ -12176,7 +12176,7 @@
     <row r="499" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C499" s="8"/>
       <c r="D499" s="10" t="s">
-        <v>1008</v>
+        <v>978</v>
       </c>
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
@@ -12184,7 +12184,7 @@
     <row r="500" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C500" s="8"/>
       <c r="D500" s="10" t="s">
-        <v>1009</v>
+        <v>979</v>
       </c>
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
@@ -12192,7 +12192,7 @@
     <row r="501" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C501" s="8"/>
       <c r="D501" s="10" t="s">
-        <v>1010</v>
+        <v>980</v>
       </c>
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
@@ -12200,7 +12200,7 @@
     <row r="502" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C502" s="8"/>
       <c r="D502" s="10" t="s">
-        <v>1011</v>
+        <v>981</v>
       </c>
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
@@ -12208,7 +12208,7 @@
     <row r="503" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C503" s="8"/>
       <c r="D503" s="10" t="s">
-        <v>1012</v>
+        <v>982</v>
       </c>
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
@@ -12216,7 +12216,7 @@
     <row r="504" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C504" s="8"/>
       <c r="D504" s="10" t="s">
-        <v>1013</v>
+        <v>983</v>
       </c>
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
@@ -12224,7 +12224,7 @@
     <row r="505" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C505" s="8"/>
       <c r="D505" s="10" t="s">
-        <v>1014</v>
+        <v>984</v>
       </c>
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
@@ -12232,7 +12232,7 @@
     <row r="506" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C506" s="8"/>
       <c r="D506" s="10" t="s">
-        <v>1018</v>
+        <v>985</v>
       </c>
       <c r="E506" s="8"/>
       <c r="F506" s="8"/>
@@ -12240,7 +12240,7 @@
     <row r="507" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C507" s="8"/>
       <c r="D507" s="10" t="s">
-        <v>1019</v>
+        <v>989</v>
       </c>
       <c r="E507" s="8"/>
       <c r="F507" s="8"/>
@@ -12248,7 +12248,7 @@
     <row r="508" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C508" s="8"/>
       <c r="D508" s="10" t="s">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="E508" s="8"/>
       <c r="F508" s="8"/>
@@ -12256,7 +12256,7 @@
     <row r="509" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C509" s="8"/>
       <c r="D509" s="10" t="s">
-        <v>1021</v>
+        <v>991</v>
       </c>
       <c r="E509" s="8"/>
       <c r="F509" s="8"/>
@@ -12264,7 +12264,7 @@
     <row r="510" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C510" s="8"/>
       <c r="D510" s="10" t="s">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="E510" s="8"/>
       <c r="F510" s="8"/>
@@ -12272,7 +12272,7 @@
     <row r="511" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C511" s="8"/>
       <c r="D511" s="10" t="s">
-        <v>1023</v>
+        <v>993</v>
       </c>
       <c r="E511" s="8"/>
       <c r="F511" s="8"/>
@@ -12280,7 +12280,7 @@
     <row r="512" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C512" s="8"/>
       <c r="D512" s="10" t="s">
-        <v>1024</v>
+        <v>994</v>
       </c>
       <c r="E512" s="8"/>
       <c r="F512" s="8"/>
@@ -12288,7 +12288,7 @@
     <row r="513" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C513" s="8"/>
       <c r="D513" s="10" t="s">
-        <v>1025</v>
+        <v>995</v>
       </c>
       <c r="E513" s="8"/>
       <c r="F513" s="8"/>
@@ -12296,7 +12296,7 @@
     <row r="514" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C514" s="8"/>
       <c r="D514" s="10" t="s">
-        <v>1026</v>
+        <v>996</v>
       </c>
       <c r="E514" s="8"/>
       <c r="F514" s="8"/>
@@ -12304,7 +12304,7 @@
     <row r="515" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C515" s="8"/>
       <c r="D515" s="10" t="s">
-        <v>1027</v>
+        <v>997</v>
       </c>
       <c r="E515" s="8"/>
       <c r="F515" s="8"/>
@@ -12312,7 +12312,7 @@
     <row r="516" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C516" s="8"/>
       <c r="D516" s="10" t="s">
-        <v>1028</v>
+        <v>998</v>
       </c>
       <c r="E516" s="8"/>
       <c r="F516" s="8"/>
@@ -12320,7 +12320,7 @@
     <row r="517" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C517" s="8"/>
       <c r="D517" s="10" t="s">
-        <v>1029</v>
+        <v>999</v>
       </c>
       <c r="E517" s="8"/>
       <c r="F517" s="8"/>
@@ -12328,7 +12328,7 @@
     <row r="518" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C518" s="8"/>
       <c r="D518" s="10" t="s">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="E518" s="8"/>
       <c r="F518" s="8"/>
@@ -12336,7 +12336,7 @@
     <row r="519" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C519" s="8"/>
       <c r="D519" s="10" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="E519" s="8"/>
       <c r="F519" s="8"/>
@@ -12344,7 +12344,7 @@
     <row r="520" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C520" s="8"/>
       <c r="D520" s="10" t="s">
-        <v>1032</v>
+        <v>1002</v>
       </c>
       <c r="E520" s="8"/>
       <c r="F520" s="8"/>
@@ -12352,7 +12352,7 @@
     <row r="521" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C521" s="8"/>
       <c r="D521" s="10" t="s">
-        <v>1033</v>
+        <v>1003</v>
       </c>
       <c r="E521" s="8"/>
       <c r="F521" s="8"/>
@@ -12360,7 +12360,7 @@
     <row r="522" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C522" s="8"/>
       <c r="D522" s="10" t="s">
-        <v>1034</v>
+        <v>1004</v>
       </c>
       <c r="E522" s="8"/>
       <c r="F522" s="8"/>
@@ -12368,7 +12368,7 @@
     <row r="523" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C523" s="8"/>
       <c r="D523" s="10" t="s">
-        <v>1035</v>
+        <v>1005</v>
       </c>
       <c r="E523" s="8"/>
       <c r="F523" s="8"/>
@@ -12376,7 +12376,7 @@
     <row r="524" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C524" s="8"/>
       <c r="D524" s="10" t="s">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="E524" s="8"/>
       <c r="F524" s="8"/>
@@ -12384,7 +12384,7 @@
     <row r="525" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C525" s="8"/>
       <c r="D525" s="10" t="s">
-        <v>1037</v>
+        <v>1007</v>
       </c>
       <c r="E525" s="8"/>
       <c r="F525" s="8"/>
@@ -12392,7 +12392,7 @@
     <row r="526" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C526" s="8"/>
       <c r="D526" s="10" t="s">
-        <v>1038</v>
+        <v>1008</v>
       </c>
       <c r="E526" s="8"/>
       <c r="F526" s="8"/>
@@ -12400,7 +12400,7 @@
     <row r="527" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C527" s="8"/>
       <c r="D527" s="10" t="s">
-        <v>1039</v>
+        <v>1009</v>
       </c>
       <c r="E527" s="8"/>
       <c r="F527" s="8"/>
@@ -12408,7 +12408,7 @@
     <row r="528" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C528" s="8"/>
       <c r="D528" s="10" t="s">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="E528" s="8"/>
       <c r="F528" s="8"/>
@@ -12416,7 +12416,7 @@
     <row r="529" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C529" s="8"/>
       <c r="D529" s="10" t="s">
-        <v>1041</v>
+        <v>1011</v>
       </c>
       <c r="E529" s="8"/>
       <c r="F529" s="8"/>
@@ -12424,7 +12424,7 @@
     <row r="530" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C530" s="8"/>
       <c r="D530" s="10" t="s">
-        <v>1042</v>
+        <v>1012</v>
       </c>
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
@@ -12432,7 +12432,7 @@
     <row r="531" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C531" s="8"/>
       <c r="D531" s="10" t="s">
-        <v>1043</v>
+        <v>1013</v>
       </c>
       <c r="E531" s="8"/>
       <c r="F531" s="8"/>
@@ -12440,7 +12440,7 @@
     <row r="532" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C532" s="8"/>
       <c r="D532" s="10" t="s">
-        <v>1044</v>
+        <v>1014</v>
       </c>
       <c r="E532" s="8"/>
       <c r="F532" s="8"/>
@@ -12448,7 +12448,7 @@
     <row r="533" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C533" s="8"/>
       <c r="D533" s="10" t="s">
-        <v>1045</v>
+        <v>1015</v>
       </c>
       <c r="E533" s="8"/>
       <c r="F533" s="8"/>
@@ -12456,7 +12456,7 @@
     <row r="534" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C534" s="8"/>
       <c r="D534" s="10" t="s">
-        <v>1046</v>
+        <v>1016</v>
       </c>
       <c r="E534" s="8"/>
       <c r="F534" s="8"/>
@@ -12464,7 +12464,7 @@
     <row r="535" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C535" s="8"/>
       <c r="D535" s="10" t="s">
-        <v>1055</v>
+        <v>1017</v>
       </c>
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
@@ -12472,7 +12472,7 @@
     <row r="536" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C536" s="8"/>
       <c r="D536" s="10" t="s">
-        <v>1056</v>
+        <v>1026</v>
       </c>
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
@@ -12480,7 +12480,7 @@
     <row r="537" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C537" s="8"/>
       <c r="D537" s="10" t="s">
-        <v>1057</v>
+        <v>1027</v>
       </c>
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
@@ -12488,7 +12488,7 @@
     <row r="538" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C538" s="8"/>
       <c r="D538" s="10" t="s">
-        <v>1058</v>
+        <v>1028</v>
       </c>
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
@@ -12496,7 +12496,7 @@
     <row r="539" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C539" s="8"/>
       <c r="D539" s="10" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
       <c r="E539" s="8"/>
       <c r="F539" s="8"/>
@@ -12504,7 +12504,7 @@
     <row r="540" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C540" s="8"/>
       <c r="D540" s="10" t="s">
-        <v>1065</v>
+        <v>1035</v>
       </c>
       <c r="E540" s="8"/>
       <c r="F540" s="8"/>
@@ -12512,7 +12512,7 @@
     <row r="541" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C541" s="8"/>
       <c r="D541" s="10" t="s">
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="E541" s="8"/>
       <c r="F541" s="8"/>
@@ -12520,7 +12520,7 @@
     <row r="542" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C542" s="8"/>
       <c r="D542" s="10" t="s">
-        <v>1067</v>
+        <v>1037</v>
       </c>
       <c r="E542" s="8"/>
       <c r="F542" s="8"/>
@@ -12528,7 +12528,7 @@
     <row r="543" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C543" s="8"/>
       <c r="D543" s="10" t="s">
-        <v>1068</v>
+        <v>1038</v>
       </c>
       <c r="E543" s="8"/>
       <c r="F543" s="8"/>
@@ -12536,7 +12536,7 @@
     <row r="544" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C544" s="8"/>
       <c r="D544" s="10" t="s">
-        <v>1069</v>
+        <v>1039</v>
       </c>
       <c r="E544" s="8"/>
       <c r="F544" s="8"/>
@@ -12544,7 +12544,7 @@
     <row r="545" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C545" s="8"/>
       <c r="D545" s="10" t="s">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="E545" s="8"/>
       <c r="F545" s="8"/>
@@ -12552,7 +12552,7 @@
     <row r="546" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C546" s="8"/>
       <c r="D546" s="10" t="s">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="E546" s="8"/>
       <c r="F546" s="8"/>
@@ -12560,7 +12560,7 @@
     <row r="547" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C547" s="8"/>
       <c r="D547" s="10" t="s">
-        <v>1074</v>
+        <v>1042</v>
       </c>
       <c r="E547" s="8"/>
       <c r="F547" s="8"/>
@@ -12568,7 +12568,7 @@
     <row r="548" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C548" s="8"/>
       <c r="D548" s="10" t="s">
-        <v>1076</v>
+        <v>1045</v>
       </c>
       <c r="E548" s="8"/>
       <c r="F548" s="8"/>
@@ -12576,7 +12576,7 @@
     <row r="549" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C549" s="8"/>
       <c r="D549" s="10" t="s">
-        <v>1077</v>
+        <v>1047</v>
       </c>
       <c r="E549" s="8"/>
       <c r="F549" s="8"/>
@@ -12584,7 +12584,7 @@
     <row r="550" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C550" s="8"/>
       <c r="D550" s="10" t="s">
-        <v>1078</v>
+        <v>1048</v>
       </c>
       <c r="E550" s="8"/>
       <c r="F550" s="8"/>
@@ -12592,7 +12592,7 @@
     <row r="551" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C551" s="8"/>
       <c r="D551" s="10" t="s">
-        <v>1079</v>
+        <v>1049</v>
       </c>
       <c r="E551" s="8"/>
       <c r="F551" s="8"/>
@@ -12600,7 +12600,7 @@
     <row r="552" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C552" s="8"/>
       <c r="D552" s="10" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
       <c r="E552" s="8"/>
       <c r="F552" s="8"/>
@@ -12608,7 +12608,7 @@
     <row r="553" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C553" s="8"/>
       <c r="D553" s="10" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="E553" s="8"/>
       <c r="F553" s="8"/>
@@ -12616,7 +12616,7 @@
     <row r="554" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C554" s="8"/>
       <c r="D554" s="10" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="E554" s="8"/>
       <c r="F554" s="8"/>
@@ -12624,7 +12624,7 @@
     <row r="555" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C555" s="8"/>
       <c r="D555" s="10" t="s">
-        <v>1083</v>
+        <v>1053</v>
       </c>
       <c r="E555" s="8"/>
       <c r="F555" s="8"/>
@@ -12632,7 +12632,7 @@
     <row r="556" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C556" s="8"/>
       <c r="D556" s="10" t="s">
-        <v>1084</v>
+        <v>1054</v>
       </c>
       <c r="E556" s="8"/>
       <c r="F556" s="8"/>
@@ -12640,7 +12640,7 @@
     <row r="557" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C557" s="8"/>
       <c r="D557" s="10" t="s">
-        <v>1085</v>
+        <v>1055</v>
       </c>
       <c r="E557" s="8"/>
       <c r="F557" s="8"/>
@@ -12648,7 +12648,7 @@
     <row r="558" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C558" s="8"/>
       <c r="D558" s="10" t="s">
-        <v>1086</v>
+        <v>1056</v>
       </c>
       <c r="E558" s="8"/>
       <c r="F558" s="8"/>
@@ -12656,7 +12656,7 @@
     <row r="559" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C559" s="8"/>
       <c r="D559" s="10" t="s">
-        <v>1087</v>
+        <v>1057</v>
       </c>
       <c r="E559" s="8"/>
       <c r="F559" s="8"/>
@@ -12664,7 +12664,7 @@
     <row r="560" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C560" s="8"/>
       <c r="D560" s="10" t="s">
-        <v>1088</v>
+        <v>1058</v>
       </c>
       <c r="E560" s="8"/>
       <c r="F560" s="8"/>
@@ -12672,7 +12672,7 @@
     <row r="561" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C561" s="8"/>
       <c r="D561" s="10" t="s">
-        <v>1089</v>
+        <v>1059</v>
       </c>
       <c r="E561" s="8"/>
       <c r="F561" s="8"/>
@@ -12680,7 +12680,7 @@
     <row r="562" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C562" s="8"/>
       <c r="D562" s="10" t="s">
-        <v>1090</v>
+        <v>1060</v>
       </c>
       <c r="E562" s="8"/>
       <c r="F562" s="8"/>
@@ -12688,7 +12688,7 @@
     <row r="563" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C563" s="8"/>
       <c r="D563" s="10" t="s">
-        <v>1091</v>
+        <v>1061</v>
       </c>
       <c r="E563" s="8"/>
       <c r="F563" s="8"/>
@@ -12696,7 +12696,7 @@
     <row r="564" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C564" s="8"/>
       <c r="D564" s="10" t="s">
-        <v>1092</v>
+        <v>1062</v>
       </c>
       <c r="E564" s="8"/>
       <c r="F564" s="8"/>
@@ -12704,7 +12704,7 @@
     <row r="565" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C565" s="8"/>
       <c r="D565" s="10" t="s">
-        <v>1093</v>
+        <v>1063</v>
       </c>
       <c r="E565" s="8"/>
       <c r="F565" s="8"/>
@@ -12712,7 +12712,7 @@
     <row r="566" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C566" s="8"/>
       <c r="D566" s="10" t="s">
-        <v>1094</v>
+        <v>1064</v>
       </c>
       <c r="E566" s="8"/>
       <c r="F566" s="8"/>
@@ -12720,7 +12720,7 @@
     <row r="567" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C567" s="8"/>
       <c r="D567" s="10" t="s">
-        <v>1095</v>
+        <v>1065</v>
       </c>
       <c r="E567" s="8"/>
       <c r="F567" s="8"/>
@@ -12728,7 +12728,7 @@
     <row r="568" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C568" s="8"/>
       <c r="D568" s="10" t="s">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="E568" s="8"/>
       <c r="F568" s="8"/>
@@ -12736,7 +12736,7 @@
     <row r="569" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C569" s="8"/>
       <c r="D569" s="10" t="s">
-        <v>1097</v>
+        <v>1067</v>
       </c>
       <c r="E569" s="8"/>
       <c r="F569" s="8"/>
@@ -12744,7 +12744,7 @@
     <row r="570" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C570" s="8"/>
       <c r="D570" s="10" t="s">
-        <v>1098</v>
+        <v>1068</v>
       </c>
       <c r="E570" s="8"/>
       <c r="F570" s="8"/>
@@ -12752,7 +12752,7 @@
     <row r="571" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C571" s="8"/>
       <c r="D571" s="10" t="s">
-        <v>1099</v>
+        <v>1069</v>
       </c>
       <c r="E571" s="8"/>
       <c r="F571" s="8"/>
@@ -12760,7 +12760,7 @@
     <row r="572" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C572" s="8"/>
       <c r="D572" s="10" t="s">
-        <v>1100</v>
+        <v>1070</v>
       </c>
       <c r="E572" s="8"/>
       <c r="F572" s="8"/>
@@ -12768,7 +12768,7 @@
     <row r="573" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C573" s="8"/>
       <c r="D573" s="10" t="s">
-        <v>1101</v>
+        <v>1071</v>
       </c>
       <c r="E573" s="8"/>
       <c r="F573" s="8"/>
@@ -12776,7 +12776,7 @@
     <row r="574" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C574" s="8"/>
       <c r="D574" s="10" t="s">
-        <v>1102</v>
+        <v>1072</v>
       </c>
       <c r="E574" s="8"/>
       <c r="F574" s="8"/>
@@ -12784,7 +12784,7 @@
     <row r="575" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C575" s="8"/>
       <c r="D575" s="10" t="s">
-        <v>1103</v>
+        <v>1073</v>
       </c>
       <c r="E575" s="8"/>
       <c r="F575" s="8"/>
@@ -12792,7 +12792,7 @@
     <row r="576" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C576" s="8"/>
       <c r="D576" s="10" t="s">
-        <v>1104</v>
+        <v>1074</v>
       </c>
       <c r="E576" s="8"/>
       <c r="F576" s="8"/>
@@ -12800,7 +12800,7 @@
     <row r="577" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C577" s="8"/>
       <c r="D577" s="10" t="s">
-        <v>1105</v>
+        <v>1075</v>
       </c>
       <c r="E577" s="8"/>
       <c r="F577" s="8"/>
@@ -12808,7 +12808,7 @@
     <row r="578" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C578" s="8"/>
       <c r="D578" s="10" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
       <c r="E578" s="8"/>
       <c r="F578" s="8"/>
@@ -12816,7 +12816,7 @@
     <row r="579" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C579" s="8"/>
       <c r="D579" s="10" t="s">
-        <v>1107</v>
+        <v>1077</v>
       </c>
       <c r="E579" s="8"/>
       <c r="F579" s="8"/>
@@ -12824,7 +12824,7 @@
     <row r="580" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C580" s="8"/>
       <c r="D580" s="10" t="s">
-        <v>1108</v>
+        <v>1078</v>
       </c>
       <c r="E580" s="8"/>
       <c r="F580" s="8"/>
@@ -12832,7 +12832,7 @@
     <row r="581" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C581" s="8"/>
       <c r="D581" s="10" t="s">
-        <v>1109</v>
+        <v>1079</v>
       </c>
       <c r="E581" s="8"/>
       <c r="F581" s="8"/>
@@ -12840,7 +12840,7 @@
     <row r="582" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C582" s="8"/>
       <c r="D582" s="10" t="s">
-        <v>1110</v>
+        <v>1080</v>
       </c>
       <c r="E582" s="8"/>
       <c r="F582" s="8"/>
@@ -12848,7 +12848,7 @@
     <row r="583" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C583" s="8"/>
       <c r="D583" s="10" t="s">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="E583" s="8"/>
       <c r="F583" s="8"/>
@@ -12856,7 +12856,7 @@
     <row r="584" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C584" s="8"/>
       <c r="D584" s="10" t="s">
-        <v>1112</v>
+        <v>1082</v>
       </c>
       <c r="E584" s="8"/>
       <c r="F584" s="8"/>
@@ -12864,7 +12864,7 @@
     <row r="585" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C585" s="8"/>
       <c r="D585" s="10" t="s">
-        <v>1113</v>
+        <v>1083</v>
       </c>
       <c r="E585" s="8"/>
       <c r="F585" s="8"/>
@@ -12872,7 +12872,7 @@
     <row r="586" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C586" s="8"/>
       <c r="D586" s="10" t="s">
-        <v>1114</v>
+        <v>1084</v>
       </c>
       <c r="E586" s="8"/>
       <c r="F586" s="8"/>
@@ -12880,7 +12880,7 @@
     <row r="587" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C587" s="8"/>
       <c r="D587" s="10" t="s">
-        <v>1115</v>
+        <v>1085</v>
       </c>
       <c r="E587" s="8"/>
       <c r="F587" s="8"/>
@@ -12888,7 +12888,7 @@
     <row r="588" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C588" s="8"/>
       <c r="D588" s="10" t="s">
-        <v>1116</v>
+        <v>1086</v>
       </c>
       <c r="E588" s="8"/>
       <c r="F588" s="8"/>
@@ -12896,7 +12896,7 @@
     <row r="589" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C589" s="8"/>
       <c r="D589" s="10" t="s">
-        <v>1117</v>
+        <v>1087</v>
       </c>
       <c r="E589" s="8"/>
       <c r="F589" s="8"/>
@@ -12904,7 +12904,7 @@
     <row r="590" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C590" s="8"/>
       <c r="D590" s="10" t="s">
-        <v>1118</v>
+        <v>1088</v>
       </c>
       <c r="E590" s="8"/>
       <c r="F590" s="8"/>
@@ -12912,7 +12912,7 @@
     <row r="591" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C591" s="8"/>
       <c r="D591" s="10" t="s">
-        <v>1119</v>
+        <v>1089</v>
       </c>
       <c r="E591" s="8"/>
       <c r="F591" s="8"/>
@@ -12920,7 +12920,7 @@
     <row r="592" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C592" s="8"/>
       <c r="D592" s="10" t="s">
-        <v>1120</v>
+        <v>1090</v>
       </c>
       <c r="E592" s="8"/>
       <c r="F592" s="8"/>
@@ -12928,7 +12928,7 @@
     <row r="593" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C593" s="8"/>
       <c r="D593" s="10" t="s">
-        <v>1121</v>
+        <v>1091</v>
       </c>
       <c r="E593" s="8"/>
       <c r="F593" s="8"/>
@@ -12936,7 +12936,7 @@
     <row r="594" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C594" s="8"/>
       <c r="D594" s="10" t="s">
-        <v>1122</v>
+        <v>1092</v>
       </c>
       <c r="E594" s="8"/>
       <c r="F594" s="8"/>
@@ -12944,7 +12944,7 @@
     <row r="595" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C595" s="8"/>
       <c r="D595" s="10" t="s">
-        <v>1123</v>
+        <v>1093</v>
       </c>
       <c r="E595" s="8"/>
       <c r="F595" s="8"/>
@@ -12952,7 +12952,7 @@
     <row r="596" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C596" s="8"/>
       <c r="D596" s="10" t="s">
-        <v>1124</v>
+        <v>1094</v>
       </c>
       <c r="E596" s="8"/>
       <c r="F596" s="8"/>
@@ -12960,7 +12960,7 @@
     <row r="597" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C597" s="8"/>
       <c r="D597" s="10" t="s">
-        <v>1125</v>
+        <v>1095</v>
       </c>
       <c r="E597" s="8"/>
       <c r="F597" s="8"/>
@@ -12968,7 +12968,7 @@
     <row r="598" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C598" s="8"/>
       <c r="D598" s="10" t="s">
-        <v>1126</v>
+        <v>1096</v>
       </c>
       <c r="E598" s="8"/>
       <c r="F598" s="8"/>
@@ -12976,7 +12976,7 @@
     <row r="599" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C599" s="8"/>
       <c r="D599" s="10" t="s">
-        <v>1127</v>
+        <v>1097</v>
       </c>
       <c r="E599" s="8"/>
       <c r="F599" s="8"/>
@@ -12984,7 +12984,7 @@
     <row r="600" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C600" s="8"/>
       <c r="D600" s="10" t="s">
-        <v>1128</v>
+        <v>1098</v>
       </c>
       <c r="E600" s="8"/>
       <c r="F600" s="8"/>
@@ -12992,7 +12992,7 @@
     <row r="601" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C601" s="8"/>
       <c r="D601" s="10" t="s">
-        <v>1129</v>
+        <v>1099</v>
       </c>
       <c r="E601" s="8"/>
       <c r="F601" s="8"/>
@@ -13000,7 +13000,7 @@
     <row r="602" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C602" s="8"/>
       <c r="D602" s="10" t="s">
-        <v>1130</v>
+        <v>1100</v>
       </c>
       <c r="E602" s="8"/>
       <c r="F602" s="8"/>
@@ -13008,7 +13008,7 @@
     <row r="603" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C603" s="8"/>
       <c r="D603" s="10" t="s">
-        <v>1132</v>
+        <v>1101</v>
       </c>
       <c r="E603" s="8"/>
       <c r="F603" s="8"/>
@@ -13016,7 +13016,7 @@
     <row r="604" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C604" s="8"/>
       <c r="D604" s="10" t="s">
-        <v>1133</v>
+        <v>1103</v>
       </c>
       <c r="E604" s="8"/>
       <c r="F604" s="8"/>
@@ -13024,7 +13024,7 @@
     <row r="605" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C605" s="8"/>
       <c r="D605" s="10" t="s">
-        <v>1134</v>
+        <v>1104</v>
       </c>
       <c r="E605" s="8"/>
       <c r="F605" s="8"/>
@@ -13032,7 +13032,7 @@
     <row r="606" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C606" s="8"/>
       <c r="D606" s="10" t="s">
-        <v>1135</v>
+        <v>1105</v>
       </c>
       <c r="E606" s="8"/>
       <c r="F606" s="8"/>
@@ -13040,7 +13040,7 @@
     <row r="607" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C607" s="8"/>
       <c r="D607" s="10" t="s">
-        <v>1136</v>
+        <v>1106</v>
       </c>
       <c r="E607" s="8"/>
       <c r="F607" s="8"/>
@@ -13048,7 +13048,7 @@
     <row r="608" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C608" s="8"/>
       <c r="D608" s="10" t="s">
-        <v>1137</v>
+        <v>1107</v>
       </c>
       <c r="E608" s="8"/>
       <c r="F608" s="8"/>
@@ -13056,7 +13056,7 @@
     <row r="609" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C609" s="8"/>
       <c r="D609" s="10" t="s">
-        <v>1138</v>
+        <v>1108</v>
       </c>
       <c r="E609" s="8"/>
       <c r="F609" s="8"/>
@@ -13064,7 +13064,7 @@
     <row r="610" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C610" s="8"/>
       <c r="D610" s="10" t="s">
-        <v>1139</v>
+        <v>1109</v>
       </c>
       <c r="E610" s="8"/>
       <c r="F610" s="8"/>
@@ -13072,7 +13072,7 @@
     <row r="611" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C611" s="8"/>
       <c r="D611" s="10" t="s">
-        <v>1140</v>
+        <v>1110</v>
       </c>
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
@@ -13080,7 +13080,7 @@
     <row r="612" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C612" s="8"/>
       <c r="D612" s="10" t="s">
-        <v>1141</v>
+        <v>1111</v>
       </c>
       <c r="E612" s="8"/>
       <c r="F612" s="8"/>
@@ -13088,7 +13088,7 @@
     <row r="613" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C613" s="8"/>
       <c r="D613" s="10" t="s">
-        <v>1142</v>
+        <v>1112</v>
       </c>
       <c r="E613" s="8"/>
       <c r="F613" s="8"/>
@@ -13096,7 +13096,7 @@
     <row r="614" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C614" s="8"/>
       <c r="D614" s="10" t="s">
-        <v>1143</v>
+        <v>1113</v>
       </c>
       <c r="E614" s="8"/>
       <c r="F614" s="8"/>
@@ -13104,7 +13104,7 @@
     <row r="615" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C615" s="8"/>
       <c r="D615" s="10" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="E615" s="8"/>
       <c r="F615" s="8"/>
@@ -13112,7 +13112,7 @@
     <row r="616" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C616" s="8"/>
       <c r="D616" s="10" t="s">
-        <v>1145</v>
+        <v>1115</v>
       </c>
       <c r="E616" s="8"/>
       <c r="F616" s="8"/>
@@ -13120,7 +13120,7 @@
     <row r="617" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C617" s="8"/>
       <c r="D617" s="10" t="s">
-        <v>1146</v>
+        <v>1116</v>
       </c>
       <c r="E617" s="8"/>
       <c r="F617" s="8"/>
@@ -13128,7 +13128,7 @@
     <row r="618" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C618" s="8"/>
       <c r="D618" s="10" t="s">
-        <v>1147</v>
+        <v>1117</v>
       </c>
       <c r="E618" s="8"/>
       <c r="F618" s="8"/>
@@ -13136,7 +13136,7 @@
     <row r="619" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C619" s="8"/>
       <c r="D619" s="10" t="s">
-        <v>1148</v>
+        <v>1118</v>
       </c>
       <c r="E619" s="8"/>
       <c r="F619" s="8"/>
@@ -13144,7 +13144,7 @@
     <row r="620" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C620" s="8"/>
       <c r="D620" s="10" t="s">
-        <v>1149</v>
+        <v>1119</v>
       </c>
       <c r="E620" s="8"/>
       <c r="F620" s="8"/>
@@ -13152,7 +13152,7 @@
     <row r="621" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C621" s="8"/>
       <c r="D621" s="10" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="E621" s="8"/>
       <c r="F621" s="8"/>
@@ -13160,7 +13160,7 @@
     <row r="622" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C622" s="8"/>
       <c r="D622" s="10" t="s">
-        <v>1151</v>
+        <v>1121</v>
       </c>
       <c r="E622" s="8"/>
       <c r="F622" s="8"/>
@@ -13168,7 +13168,7 @@
     <row r="623" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C623" s="8"/>
       <c r="D623" s="10" t="s">
-        <v>1152</v>
+        <v>1122</v>
       </c>
       <c r="E623" s="8"/>
       <c r="F623" s="8"/>
@@ -13176,7 +13176,7 @@
     <row r="624" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C624" s="8"/>
       <c r="D624" s="10" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="E624" s="8"/>
       <c r="F624" s="8"/>
@@ -13184,7 +13184,7 @@
     <row r="625" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C625" s="8"/>
       <c r="D625" s="10" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="E625" s="8"/>
       <c r="F625" s="8"/>
@@ -13192,7 +13192,7 @@
     <row r="626" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C626" s="8"/>
       <c r="D626" s="10" t="s">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="E626" s="8"/>
       <c r="F626" s="8"/>
@@ -13200,7 +13200,7 @@
     <row r="627" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C627" s="8"/>
       <c r="D627" s="10" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="E627" s="8"/>
       <c r="F627" s="8"/>
@@ -13208,7 +13208,7 @@
     <row r="628" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C628" s="8"/>
       <c r="D628" s="10" t="s">
-        <v>1160</v>
+        <v>1127</v>
       </c>
       <c r="E628" s="8"/>
       <c r="F628" s="8"/>
@@ -13216,7 +13216,7 @@
     <row r="629" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C629" s="8"/>
       <c r="D629" s="10" t="s">
-        <v>1161</v>
+        <v>1131</v>
       </c>
       <c r="E629" s="8"/>
       <c r="F629" s="8"/>
@@ -13224,7 +13224,7 @@
     <row r="630" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C630" s="8"/>
       <c r="D630" s="10" t="s">
-        <v>1162</v>
+        <v>1132</v>
       </c>
       <c r="E630" s="8"/>
       <c r="F630" s="8"/>
@@ -13232,7 +13232,7 @@
     <row r="631" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C631" s="8"/>
       <c r="D631" s="10" t="s">
-        <v>1163</v>
+        <v>1133</v>
       </c>
       <c r="E631" s="8"/>
       <c r="F631" s="8"/>
@@ -13240,7 +13240,7 @@
     <row r="632" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C632" s="8"/>
       <c r="D632" s="10" t="s">
-        <v>1164</v>
+        <v>1134</v>
       </c>
       <c r="E632" s="8"/>
       <c r="F632" s="8"/>
@@ -13248,7 +13248,7 @@
     <row r="633" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C633" s="8"/>
       <c r="D633" s="10" t="s">
-        <v>1165</v>
+        <v>1135</v>
       </c>
       <c r="E633" s="8"/>
       <c r="F633" s="8"/>
@@ -13256,7 +13256,7 @@
     <row r="634" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C634" s="8"/>
       <c r="D634" s="10" t="s">
-        <v>1166</v>
+        <v>1136</v>
       </c>
       <c r="E634" s="8"/>
       <c r="F634" s="8"/>
@@ -13264,7 +13264,7 @@
     <row r="635" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C635" s="8"/>
       <c r="D635" s="10" t="s">
-        <v>1167</v>
+        <v>1137</v>
       </c>
       <c r="E635" s="8"/>
       <c r="F635" s="8"/>
@@ -13272,7 +13272,7 @@
     <row r="636" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C636" s="8"/>
       <c r="D636" s="10" t="s">
-        <v>1168</v>
+        <v>1138</v>
       </c>
       <c r="E636" s="8"/>
       <c r="F636" s="8"/>
@@ -13280,7 +13280,7 @@
     <row r="637" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C637" s="8"/>
       <c r="D637" s="10" t="s">
-        <v>1169</v>
+        <v>1139</v>
       </c>
       <c r="E637" s="8"/>
       <c r="F637" s="8"/>
@@ -13288,7 +13288,7 @@
     <row r="638" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C638" s="8"/>
       <c r="D638" s="10" t="s">
-        <v>1170</v>
+        <v>1140</v>
       </c>
       <c r="E638" s="8"/>
       <c r="F638" s="8"/>
@@ -13296,7 +13296,7 @@
     <row r="639" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C639" s="8"/>
       <c r="D639" s="10" t="s">
-        <v>1171</v>
+        <v>1141</v>
       </c>
       <c r="E639" s="8"/>
       <c r="F639" s="8"/>
@@ -13304,7 +13304,7 @@
     <row r="640" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C640" s="8"/>
       <c r="D640" s="10" t="s">
-        <v>1172</v>
+        <v>1142</v>
       </c>
       <c r="E640" s="8"/>
       <c r="F640" s="8"/>
@@ -13312,7 +13312,7 @@
     <row r="641" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C641" s="8"/>
       <c r="D641" s="10" t="s">
-        <v>1173</v>
+        <v>1143</v>
       </c>
       <c r="E641" s="8"/>
       <c r="F641" s="8"/>
@@ -13320,7 +13320,7 @@
     <row r="642" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C642" s="8"/>
       <c r="D642" s="10" t="s">
-        <v>1174</v>
+        <v>1144</v>
       </c>
       <c r="E642" s="8"/>
       <c r="F642" s="8"/>
@@ -13328,7 +13328,7 @@
     <row r="643" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C643" s="8"/>
       <c r="D643" s="10" t="s">
-        <v>1175</v>
+        <v>1145</v>
       </c>
       <c r="E643" s="8"/>
       <c r="F643" s="8"/>
@@ -13336,7 +13336,7 @@
     <row r="644" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C644" s="8"/>
       <c r="D644" s="10" t="s">
-        <v>1176</v>
+        <v>1146</v>
       </c>
       <c r="E644" s="8"/>
       <c r="F644" s="8"/>
@@ -13344,7 +13344,7 @@
     <row r="645" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C645" s="8"/>
       <c r="D645" s="10" t="s">
-        <v>1177</v>
+        <v>1147</v>
       </c>
       <c r="E645" s="8"/>
       <c r="F645" s="8"/>
@@ -13352,7 +13352,7 @@
     <row r="646" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C646" s="8"/>
       <c r="D646" s="10" t="s">
-        <v>1178</v>
+        <v>1148</v>
       </c>
       <c r="E646" s="8"/>
       <c r="F646" s="8"/>
@@ -13360,7 +13360,7 @@
     <row r="647" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C647" s="8"/>
       <c r="D647" s="10" t="s">
-        <v>1179</v>
+        <v>1149</v>
       </c>
       <c r="E647" s="8"/>
       <c r="F647" s="8"/>
@@ -13368,7 +13368,7 @@
     <row r="648" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C648" s="8"/>
       <c r="D648" s="10" t="s">
-        <v>1187</v>
+        <v>1150</v>
       </c>
       <c r="E648" s="8"/>
       <c r="F648" s="8"/>
@@ -13376,7 +13376,7 @@
     <row r="649" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C649" s="8"/>
       <c r="D649" s="10" t="s">
-        <v>1188</v>
+        <v>1158</v>
       </c>
       <c r="E649" s="8"/>
       <c r="F649" s="8"/>
@@ -13384,7 +13384,7 @@
     <row r="650" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C650" s="8"/>
       <c r="D650" s="10" t="s">
-        <v>1189</v>
+        <v>1159</v>
       </c>
       <c r="E650" s="8"/>
       <c r="F650" s="8"/>
@@ -13392,7 +13392,7 @@
     <row r="651" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C651" s="8"/>
       <c r="D651" s="10" t="s">
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="E651" s="8"/>
       <c r="F651" s="8"/>
@@ -13400,7 +13400,7 @@
     <row r="652" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C652" s="8"/>
       <c r="D652" s="10" t="s">
-        <v>1191</v>
+        <v>1161</v>
       </c>
       <c r="E652" s="8"/>
       <c r="F652" s="8"/>
@@ -13408,7 +13408,7 @@
     <row r="653" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C653" s="8"/>
       <c r="D653" s="10" t="s">
-        <v>1192</v>
+        <v>1162</v>
       </c>
       <c r="E653" s="8"/>
       <c r="F653" s="8"/>
@@ -13416,7 +13416,7 @@
     <row r="654" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C654" s="8"/>
       <c r="D654" s="10" t="s">
-        <v>1193</v>
+        <v>1163</v>
       </c>
       <c r="E654" s="8"/>
       <c r="F654" s="8"/>
@@ -13424,7 +13424,7 @@
     <row r="655" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C655" s="8"/>
       <c r="D655" s="10" t="s">
-        <v>1194</v>
+        <v>1164</v>
       </c>
       <c r="E655" s="8"/>
       <c r="F655" s="8"/>
@@ -13432,7 +13432,7 @@
     <row r="656" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C656" s="8"/>
       <c r="D656" s="10" t="s">
-        <v>1195</v>
+        <v>1165</v>
       </c>
       <c r="E656" s="8"/>
       <c r="F656" s="8"/>
@@ -13440,7 +13440,7 @@
     <row r="657" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C657" s="8"/>
       <c r="D657" s="10" t="s">
-        <v>1196</v>
+        <v>1166</v>
       </c>
       <c r="E657" s="8"/>
       <c r="F657" s="8"/>
@@ -13448,7 +13448,7 @@
     <row r="658" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C658" s="8"/>
       <c r="D658" s="10" t="s">
-        <v>1197</v>
+        <v>1167</v>
       </c>
       <c r="E658" s="8"/>
       <c r="F658" s="8"/>
@@ -13456,7 +13456,7 @@
     <row r="659" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C659" s="8"/>
       <c r="D659" s="10" t="s">
-        <v>1227</v>
+        <v>1168</v>
       </c>
       <c r="E659" s="8"/>
       <c r="F659" s="8"/>
@@ -13464,7 +13464,7 @@
     <row r="660" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C660" s="8"/>
       <c r="D660" s="10" t="s">
-        <v>1228</v>
+        <v>1198</v>
       </c>
       <c r="E660" s="8"/>
       <c r="F660" s="8"/>
@@ -13472,7 +13472,7 @@
     <row r="661" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C661" s="8"/>
       <c r="D661" s="10" t="s">
-        <v>1229</v>
+        <v>1199</v>
       </c>
       <c r="E661" s="8"/>
       <c r="F661" s="8"/>
@@ -13480,7 +13480,7 @@
     <row r="662" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C662" s="8"/>
       <c r="D662" s="10" t="s">
-        <v>1230</v>
+        <v>1200</v>
       </c>
       <c r="E662" s="8"/>
       <c r="F662" s="8"/>
@@ -13488,7 +13488,7 @@
     <row r="663" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C663" s="8"/>
       <c r="D663" s="10" t="s">
-        <v>1231</v>
+        <v>1201</v>
       </c>
       <c r="E663" s="8"/>
       <c r="F663" s="8"/>
@@ -13496,7 +13496,7 @@
     <row r="664" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C664" s="8"/>
       <c r="D664" s="10" t="s">
-        <v>1232</v>
+        <v>1202</v>
       </c>
       <c r="E664" s="8"/>
       <c r="F664" s="8"/>
@@ -13504,7 +13504,7 @@
     <row r="665" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C665" s="8"/>
       <c r="D665" s="10" t="s">
-        <v>1233</v>
+        <v>1203</v>
       </c>
       <c r="E665" s="8"/>
       <c r="F665" s="8"/>
@@ -13512,7 +13512,7 @@
     <row r="666" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C666" s="8"/>
       <c r="D666" s="10" t="s">
-        <v>1234</v>
+        <v>1204</v>
       </c>
       <c r="E666" s="8"/>
       <c r="F666" s="8"/>
@@ -13520,7 +13520,7 @@
     <row r="667" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C667" s="8"/>
       <c r="D667" s="10" t="s">
-        <v>1248</v>
+        <v>1205</v>
       </c>
       <c r="E667" s="8"/>
       <c r="F667" s="8"/>
@@ -13528,7 +13528,7 @@
     <row r="668" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C668" s="8"/>
       <c r="D668" s="10" t="s">
-        <v>1306</v>
+        <v>1219</v>
       </c>
       <c r="E668" s="8"/>
       <c r="F668" s="8"/>
@@ -13536,7 +13536,7 @@
     <row r="669" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C669" s="8"/>
       <c r="D669" s="10" t="s">
-        <v>1307</v>
+        <v>1277</v>
       </c>
       <c r="E669" s="8"/>
       <c r="F669" s="8"/>
@@ -13544,7 +13544,7 @@
     <row r="670" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C670" s="8"/>
       <c r="D670" s="10" t="s">
-        <v>1308</v>
+        <v>1278</v>
       </c>
       <c r="E670" s="8"/>
       <c r="F670" s="8"/>
@@ -13552,7 +13552,7 @@
     <row r="671" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C671" s="8"/>
       <c r="D671" s="10" t="s">
-        <v>1309</v>
+        <v>1279</v>
       </c>
       <c r="E671" s="8"/>
       <c r="F671" s="8"/>
@@ -13560,7 +13560,7 @@
     <row r="672" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C672" s="8"/>
       <c r="D672" s="10" t="s">
-        <v>1310</v>
+        <v>1280</v>
       </c>
       <c r="E672" s="8"/>
       <c r="F672" s="8"/>
@@ -13568,7 +13568,7 @@
     <row r="673" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C673" s="8"/>
       <c r="D673" s="10" t="s">
-        <v>1311</v>
+        <v>1281</v>
       </c>
       <c r="E673" s="8"/>
       <c r="F673" s="8"/>
@@ -13576,7 +13576,7 @@
     <row r="674" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C674" s="8"/>
       <c r="D674" s="10" t="s">
-        <v>1312</v>
+        <v>1282</v>
       </c>
       <c r="E674" s="8"/>
       <c r="F674" s="8"/>
@@ -13584,7 +13584,7 @@
     <row r="675" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C675" s="8"/>
       <c r="D675" s="10" t="s">
-        <v>1313</v>
+        <v>1283</v>
       </c>
       <c r="E675" s="8"/>
       <c r="F675" s="8"/>
@@ -13592,7 +13592,7 @@
     <row r="676" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C676" s="8"/>
       <c r="D676" s="10" t="s">
-        <v>1314</v>
+        <v>1284</v>
       </c>
       <c r="E676" s="8"/>
       <c r="F676" s="8"/>
@@ -13600,7 +13600,7 @@
     <row r="677" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C677" s="8"/>
       <c r="D677" s="10" t="s">
-        <v>1315</v>
+        <v>1285</v>
       </c>
       <c r="E677" s="8"/>
       <c r="F677" s="8"/>
@@ -13608,7 +13608,7 @@
     <row r="678" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C678" s="8"/>
       <c r="D678" s="10" t="s">
-        <v>1316</v>
+        <v>1286</v>
       </c>
       <c r="E678" s="8"/>
       <c r="F678" s="8"/>
@@ -13616,7 +13616,7 @@
     <row r="679" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C679" s="8"/>
       <c r="D679" s="10" t="s">
-        <v>1317</v>
+        <v>1287</v>
       </c>
       <c r="E679" s="8"/>
       <c r="F679" s="8"/>
@@ -13624,7 +13624,7 @@
     <row r="680" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C680" s="8"/>
       <c r="D680" s="10" t="s">
-        <v>1318</v>
+        <v>1288</v>
       </c>
       <c r="E680" s="8"/>
       <c r="F680" s="8"/>
@@ -13632,7 +13632,7 @@
     <row r="681" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C681" s="8"/>
       <c r="D681" s="10" t="s">
-        <v>1319</v>
+        <v>1289</v>
       </c>
       <c r="E681" s="8"/>
       <c r="F681" s="8"/>
@@ -13640,7 +13640,7 @@
     <row r="682" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C682" s="8"/>
       <c r="D682" s="10" t="s">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="E682" s="8"/>
       <c r="F682" s="8"/>
@@ -13648,7 +13648,7 @@
     <row r="683" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C683" s="8"/>
       <c r="D683" s="10" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="E683" s="8"/>
       <c r="F683" s="8"/>
@@ -13656,7 +13656,7 @@
     <row r="684" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C684" s="8"/>
       <c r="D684" s="10" t="s">
-        <v>1322</v>
+        <v>1292</v>
       </c>
       <c r="E684" s="8"/>
       <c r="F684" s="8"/>
@@ -13664,7 +13664,7 @@
     <row r="685" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C685" s="8"/>
       <c r="D685" s="10" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="E685" s="8"/>
       <c r="F685" s="8"/>
@@ -13672,7 +13672,7 @@
     <row r="686" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C686" s="8"/>
       <c r="D686" s="10" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="E686" s="8"/>
       <c r="F686" s="8"/>
@@ -13680,7 +13680,7 @@
     <row r="687" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C687" s="8"/>
       <c r="D687" s="10" t="s">
-        <v>1325</v>
+        <v>1295</v>
       </c>
       <c r="E687" s="8"/>
       <c r="F687" s="8"/>
@@ -13688,7 +13688,7 @@
     <row r="688" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C688" s="8"/>
       <c r="D688" s="10" t="s">
-        <v>1326</v>
+        <v>1296</v>
       </c>
       <c r="E688" s="8"/>
       <c r="F688" s="8"/>
@@ -13696,7 +13696,7 @@
     <row r="689" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C689" s="8"/>
       <c r="D689" s="10" t="s">
-        <v>1327</v>
+        <v>1297</v>
       </c>
       <c r="E689" s="8"/>
       <c r="F689" s="8"/>
@@ -13704,7 +13704,7 @@
     <row r="690" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C690" s="8"/>
       <c r="D690" s="10" t="s">
-        <v>1328</v>
+        <v>1298</v>
       </c>
       <c r="E690" s="8"/>
       <c r="F690" s="8"/>
@@ -13712,7 +13712,7 @@
     <row r="691" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C691" s="8"/>
       <c r="D691" s="10" t="s">
-        <v>1329</v>
+        <v>1299</v>
       </c>
       <c r="E691" s="8"/>
       <c r="F691" s="8"/>
@@ -13720,7 +13720,7 @@
     <row r="692" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C692" s="8"/>
       <c r="D692" s="10" t="s">
-        <v>1330</v>
+        <v>1300</v>
       </c>
       <c r="E692" s="8"/>
       <c r="F692" s="8"/>
@@ -13728,7 +13728,7 @@
     <row r="693" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C693" s="8"/>
       <c r="D693" s="10" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
       <c r="E693" s="8"/>
       <c r="F693" s="8"/>
@@ -13736,7 +13736,7 @@
     <row r="694" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C694" s="8"/>
       <c r="D694" s="10" t="s">
-        <v>1332</v>
+        <v>1302</v>
       </c>
       <c r="E694" s="8"/>
       <c r="F694" s="8"/>
@@ -13744,7 +13744,7 @@
     <row r="695" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C695" s="8"/>
       <c r="D695" s="10" t="s">
-        <v>1333</v>
+        <v>1303</v>
       </c>
       <c r="E695" s="8"/>
       <c r="F695" s="8"/>
@@ -13752,7 +13752,7 @@
     <row r="696" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C696" s="8"/>
       <c r="D696" s="10" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
       <c r="E696" s="8"/>
       <c r="F696" s="8"/>
@@ -13760,7 +13760,7 @@
     <row r="697" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C697" s="8"/>
       <c r="D697" s="10" t="s">
-        <v>1335</v>
+        <v>1305</v>
       </c>
       <c r="E697" s="8"/>
       <c r="F697" s="8"/>
@@ -13768,7 +13768,7 @@
     <row r="698" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C698" s="8"/>
       <c r="D698" s="10" t="s">
-        <v>1336</v>
+        <v>1306</v>
       </c>
       <c r="E698" s="8"/>
       <c r="F698" s="8"/>
@@ -13776,7 +13776,7 @@
     <row r="699" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C699" s="8"/>
       <c r="D699" s="10" t="s">
-        <v>1337</v>
+        <v>1307</v>
       </c>
       <c r="E699" s="8"/>
       <c r="F699" s="8"/>
@@ -13784,7 +13784,7 @@
     <row r="700" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C700" s="8"/>
       <c r="D700" s="10" t="s">
-        <v>1338</v>
+        <v>1308</v>
       </c>
       <c r="E700" s="8"/>
       <c r="F700" s="8"/>
@@ -13792,7 +13792,7 @@
     <row r="701" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C701" s="8"/>
       <c r="D701" s="10" t="s">
-        <v>1339</v>
+        <v>1309</v>
       </c>
       <c r="E701" s="8"/>
       <c r="F701" s="8"/>
@@ -13800,7 +13800,7 @@
     <row r="702" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C702" s="8"/>
       <c r="D702" s="10" t="s">
-        <v>1340</v>
+        <v>1310</v>
       </c>
       <c r="E702" s="8"/>
       <c r="F702" s="8"/>
@@ -13808,7 +13808,7 @@
     <row r="703" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C703" s="8"/>
       <c r="D703" s="10" t="s">
-        <v>1341</v>
+        <v>1311</v>
       </c>
       <c r="E703" s="8"/>
       <c r="F703" s="8"/>
@@ -13816,7 +13816,7 @@
     <row r="704" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C704" s="8"/>
       <c r="D704" s="10" t="s">
-        <v>1342</v>
+        <v>1312</v>
       </c>
       <c r="E704" s="8"/>
       <c r="F704" s="8"/>
@@ -13824,7 +13824,7 @@
     <row r="705" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C705" s="8"/>
       <c r="D705" s="10" t="s">
-        <v>1350</v>
+        <v>1313</v>
       </c>
       <c r="E705" s="8"/>
       <c r="F705" s="8"/>
@@ -13832,7 +13832,7 @@
     <row r="706" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C706" s="8"/>
       <c r="D706" s="10" t="s">
-        <v>1351</v>
+        <v>1321</v>
       </c>
       <c r="E706" s="8"/>
       <c r="F706" s="8"/>
@@ -13840,7 +13840,7 @@
     <row r="707" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C707" s="8"/>
       <c r="D707" s="10" t="s">
-        <v>1352</v>
+        <v>1322</v>
       </c>
       <c r="E707" s="8"/>
       <c r="F707" s="8"/>
@@ -13848,7 +13848,7 @@
     <row r="708" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C708" s="8"/>
       <c r="D708" s="10" t="s">
-        <v>1353</v>
+        <v>1323</v>
       </c>
       <c r="E708" s="8"/>
       <c r="F708" s="8"/>
@@ -13856,7 +13856,7 @@
     <row r="709" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C709" s="8"/>
       <c r="D709" s="10" t="s">
-        <v>1354</v>
+        <v>1324</v>
       </c>
       <c r="E709" s="8"/>
       <c r="F709" s="8"/>
@@ -13864,7 +13864,7 @@
     <row r="710" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C710" s="8"/>
       <c r="D710" s="10" t="s">
-        <v>1355</v>
+        <v>1325</v>
       </c>
       <c r="E710" s="8"/>
       <c r="F710" s="8"/>
@@ -13872,7 +13872,7 @@
     <row r="711" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C711" s="8"/>
       <c r="D711" s="10" t="s">
-        <v>1356</v>
+        <v>1326</v>
       </c>
       <c r="E711" s="8"/>
       <c r="F711" s="8"/>
@@ -13880,7 +13880,7 @@
     <row r="712" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C712" s="8"/>
       <c r="D712" s="10" t="s">
-        <v>1357</v>
+        <v>1327</v>
       </c>
       <c r="E712" s="8"/>
       <c r="F712" s="8"/>
@@ -13888,7 +13888,7 @@
     <row r="713" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C713" s="8"/>
       <c r="D713" s="10" t="s">
-        <v>1358</v>
+        <v>1328</v>
       </c>
       <c r="E713" s="8"/>
       <c r="F713" s="8"/>
@@ -13896,7 +13896,7 @@
     <row r="714" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C714" s="8"/>
       <c r="D714" s="10" t="s">
-        <v>1359</v>
+        <v>1329</v>
       </c>
       <c r="E714" s="8"/>
       <c r="F714" s="8"/>
@@ -13904,7 +13904,7 @@
     <row r="715" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C715" s="8"/>
       <c r="D715" s="10" t="s">
-        <v>1360</v>
+        <v>1330</v>
       </c>
       <c r="E715" s="8"/>
       <c r="F715" s="8"/>
@@ -13912,7 +13912,7 @@
     <row r="716" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C716" s="8"/>
       <c r="D716" s="10" t="s">
-        <v>1361</v>
+        <v>1331</v>
       </c>
       <c r="E716" s="8"/>
       <c r="F716" s="8"/>
@@ -13920,7 +13920,7 @@
     <row r="717" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C717" s="8"/>
       <c r="D717" s="10" t="s">
-        <v>1362</v>
+        <v>1332</v>
       </c>
       <c r="E717" s="8"/>
       <c r="F717" s="8"/>
@@ -13928,7 +13928,7 @@
     <row r="718" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C718" s="8"/>
       <c r="D718" s="10" t="s">
-        <v>1363</v>
+        <v>1333</v>
       </c>
       <c r="E718" s="8"/>
       <c r="F718" s="8"/>
@@ -13936,7 +13936,7 @@
     <row r="719" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C719" s="8"/>
       <c r="D719" s="10" t="s">
-        <v>1364</v>
+        <v>1334</v>
       </c>
       <c r="E719" s="8"/>
       <c r="F719" s="8"/>
@@ -13944,7 +13944,7 @@
     <row r="720" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C720" s="8"/>
       <c r="D720" s="10" t="s">
-        <v>1365</v>
+        <v>1335</v>
       </c>
       <c r="E720" s="8"/>
       <c r="F720" s="8"/>
@@ -13952,7 +13952,7 @@
     <row r="721" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C721" s="8"/>
       <c r="D721" s="10" t="s">
-        <v>1366</v>
+        <v>1336</v>
       </c>
       <c r="E721" s="8"/>
       <c r="F721" s="8"/>
@@ -13960,7 +13960,7 @@
     <row r="722" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C722" s="8"/>
       <c r="D722" s="10" t="s">
-        <v>1367</v>
+        <v>1337</v>
       </c>
       <c r="E722" s="8"/>
       <c r="F722" s="8"/>
@@ -13968,7 +13968,7 @@
     <row r="723" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C723" s="8"/>
       <c r="D723" s="10" t="s">
-        <v>1368</v>
+        <v>1338</v>
       </c>
       <c r="E723" s="8"/>
       <c r="F723" s="8"/>
@@ -13976,7 +13976,7 @@
     <row r="724" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C724" s="8"/>
       <c r="D724" s="10" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="E724" s="8"/>
       <c r="F724" s="8"/>
@@ -13984,7 +13984,7 @@
     <row r="725" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C725" s="8"/>
       <c r="D725" s="10" t="s">
-        <v>1370</v>
+        <v>1340</v>
       </c>
       <c r="E725" s="8"/>
       <c r="F725" s="8"/>
@@ -13992,7 +13992,7 @@
     <row r="726" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C726" s="8"/>
       <c r="D726" s="10" t="s">
-        <v>1371</v>
+        <v>1341</v>
       </c>
       <c r="E726" s="8"/>
       <c r="F726" s="8"/>
@@ -14000,7 +14000,7 @@
     <row r="727" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C727" s="8"/>
       <c r="D727" s="10" t="s">
-        <v>1372</v>
+        <v>1342</v>
       </c>
       <c r="E727" s="8"/>
       <c r="F727" s="8"/>
@@ -14008,7 +14008,7 @@
     <row r="728" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C728" s="8"/>
       <c r="D728" s="10" t="s">
-        <v>1373</v>
+        <v>1343</v>
       </c>
       <c r="E728" s="8"/>
       <c r="F728" s="8"/>
@@ -14016,7 +14016,7 @@
     <row r="729" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C729" s="8"/>
       <c r="D729" s="10" t="s">
-        <v>1374</v>
+        <v>1344</v>
       </c>
       <c r="E729" s="8"/>
       <c r="F729" s="8"/>
@@ -14024,7 +14024,7 @@
     <row r="730" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C730" s="8"/>
       <c r="D730" s="10" t="s">
-        <v>1375</v>
+        <v>1345</v>
       </c>
       <c r="E730" s="8"/>
       <c r="F730" s="8"/>
@@ -14032,7 +14032,7 @@
     <row r="731" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C731" s="8"/>
       <c r="D731" s="10" t="s">
-        <v>1376</v>
+        <v>1346</v>
       </c>
       <c r="E731" s="8"/>
       <c r="F731" s="8"/>
@@ -14040,7 +14040,7 @@
     <row r="732" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C732" s="8"/>
       <c r="D732" s="10" t="s">
-        <v>1377</v>
+        <v>1347</v>
       </c>
       <c r="E732" s="8"/>
       <c r="F732" s="8"/>
@@ -14048,7 +14048,7 @@
     <row r="733" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C733" s="8"/>
       <c r="D733" s="10" t="s">
-        <v>1378</v>
+        <v>1348</v>
       </c>
       <c r="E733" s="8"/>
       <c r="F733" s="8"/>
@@ -14056,7 +14056,7 @@
     <row r="734" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C734" s="8"/>
       <c r="D734" s="10" t="s">
-        <v>1379</v>
+        <v>1349</v>
       </c>
       <c r="E734" s="8"/>
       <c r="F734" s="8"/>
@@ -14064,7 +14064,7 @@
     <row r="735" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C735" s="8"/>
       <c r="D735" s="10" t="s">
-        <v>1380</v>
+        <v>1350</v>
       </c>
       <c r="E735" s="8"/>
       <c r="F735" s="8"/>
@@ -14072,7 +14072,7 @@
     <row r="736" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C736" s="8"/>
       <c r="D736" s="10" t="s">
-        <v>1381</v>
+        <v>1351</v>
       </c>
       <c r="E736" s="8"/>
       <c r="F736" s="8"/>
@@ -14080,7 +14080,7 @@
     <row r="737" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C737" s="8"/>
       <c r="D737" s="10" t="s">
-        <v>1382</v>
+        <v>1352</v>
       </c>
       <c r="E737" s="8"/>
       <c r="F737" s="8"/>
@@ -14088,7 +14088,7 @@
     <row r="738" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C738" s="8"/>
       <c r="D738" s="10" t="s">
-        <v>1383</v>
+        <v>1353</v>
       </c>
       <c r="E738" s="8"/>
       <c r="F738" s="8"/>
@@ -14096,7 +14096,7 @@
     <row r="739" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C739" s="8"/>
       <c r="D739" s="10" t="s">
-        <v>1384</v>
+        <v>1354</v>
       </c>
       <c r="E739" s="8"/>
       <c r="F739" s="8"/>
@@ -14104,7 +14104,7 @@
     <row r="740" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C740" s="8"/>
       <c r="D740" s="10" t="s">
-        <v>1385</v>
+        <v>1355</v>
       </c>
       <c r="E740" s="8"/>
       <c r="F740" s="8"/>
@@ -14112,7 +14112,7 @@
     <row r="741" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C741" s="8"/>
       <c r="D741" s="10" t="s">
-        <v>1386</v>
+        <v>1356</v>
       </c>
       <c r="E741" s="8"/>
       <c r="F741" s="8"/>
@@ -14120,7 +14120,7 @@
     <row r="742" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C742" s="8"/>
       <c r="D742" s="10" t="s">
-        <v>1387</v>
+        <v>1357</v>
       </c>
       <c r="E742" s="8"/>
       <c r="F742" s="8"/>
@@ -14128,7 +14128,7 @@
     <row r="743" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C743" s="8"/>
       <c r="D743" s="10" t="s">
-        <v>1388</v>
+        <v>1358</v>
       </c>
       <c r="E743" s="8"/>
       <c r="F743" s="8"/>
@@ -14136,7 +14136,7 @@
     <row r="744" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C744" s="8"/>
       <c r="D744" s="10" t="s">
-        <v>1389</v>
+        <v>1359</v>
       </c>
       <c r="E744" s="8"/>
       <c r="F744" s="8"/>
@@ -14144,7 +14144,7 @@
     <row r="745" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C745" s="8"/>
       <c r="D745" s="10" t="s">
-        <v>1390</v>
+        <v>1360</v>
       </c>
       <c r="E745" s="8"/>
       <c r="F745" s="8"/>
@@ -14152,7 +14152,7 @@
     <row r="746" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C746" s="8"/>
       <c r="D746" s="10" t="s">
-        <v>1391</v>
+        <v>1361</v>
       </c>
       <c r="E746" s="8"/>
       <c r="F746" s="8"/>
@@ -14160,7 +14160,7 @@
     <row r="747" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C747" s="8"/>
       <c r="D747" s="10" t="s">
-        <v>1392</v>
+        <v>1362</v>
       </c>
       <c r="E747" s="8"/>
       <c r="F747" s="8"/>
@@ -14168,7 +14168,7 @@
     <row r="748" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C748" s="8"/>
       <c r="D748" s="10" t="s">
-        <v>1393</v>
+        <v>1363</v>
       </c>
       <c r="E748" s="8"/>
       <c r="F748" s="8"/>
@@ -14176,7 +14176,7 @@
     <row r="749" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C749" s="8"/>
       <c r="D749" s="10" t="s">
-        <v>1394</v>
+        <v>1364</v>
       </c>
       <c r="E749" s="8"/>
       <c r="F749" s="8"/>
@@ -14184,7 +14184,7 @@
     <row r="750" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C750" s="8"/>
       <c r="D750" s="10" t="s">
-        <v>1395</v>
+        <v>1365</v>
       </c>
       <c r="E750" s="8"/>
       <c r="F750" s="8"/>
@@ -14192,7 +14192,7 @@
     <row r="751" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C751" s="8"/>
       <c r="D751" s="10" t="s">
-        <v>1396</v>
+        <v>1366</v>
       </c>
       <c r="E751" s="8"/>
       <c r="F751" s="8"/>
@@ -14200,7 +14200,7 @@
     <row r="752" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C752" s="8"/>
       <c r="D752" s="10" t="s">
-        <v>1397</v>
+        <v>1367</v>
       </c>
       <c r="E752" s="8"/>
       <c r="F752" s="8"/>
@@ -14208,7 +14208,7 @@
     <row r="753" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C753" s="8"/>
       <c r="D753" s="10" t="s">
-        <v>1398</v>
+        <v>1368</v>
       </c>
       <c r="E753" s="8"/>
       <c r="F753" s="8"/>
@@ -14216,7 +14216,7 @@
     <row r="754" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C754" s="8"/>
       <c r="D754" s="10" t="s">
-        <v>1399</v>
+        <v>1369</v>
       </c>
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
@@ -14224,7 +14224,7 @@
     <row r="755" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C755" s="8"/>
       <c r="D755" s="10" t="s">
-        <v>1400</v>
+        <v>1370</v>
       </c>
       <c r="E755" s="8"/>
       <c r="F755" s="8"/>
@@ -14232,7 +14232,7 @@
     <row r="756" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C756" s="8"/>
       <c r="D756" s="10" t="s">
-        <v>1401</v>
+        <v>1371</v>
       </c>
       <c r="E756" s="8"/>
       <c r="F756" s="8"/>
@@ -14240,7 +14240,7 @@
     <row r="757" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C757" s="8"/>
       <c r="D757" s="10" t="s">
-        <v>1402</v>
+        <v>1372</v>
       </c>
       <c r="E757" s="8"/>
       <c r="F757" s="8"/>
@@ -14248,7 +14248,7 @@
     <row r="758" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C758" s="8"/>
       <c r="D758" s="10" t="s">
-        <v>1403</v>
+        <v>1373</v>
       </c>
       <c r="E758" s="8"/>
       <c r="F758" s="8"/>
@@ -14256,7 +14256,7 @@
     <row r="759" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C759" s="8"/>
       <c r="D759" s="10" t="s">
-        <v>1404</v>
+        <v>1374</v>
       </c>
       <c r="E759" s="8"/>
       <c r="F759" s="8"/>
@@ -14264,7 +14264,7 @@
     <row r="760" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C760" s="8"/>
       <c r="D760" s="10" t="s">
-        <v>1405</v>
+        <v>1375</v>
       </c>
       <c r="E760" s="8"/>
       <c r="F760" s="8"/>
@@ -14272,7 +14272,7 @@
     <row r="761" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C761" s="8"/>
       <c r="D761" s="10" t="s">
-        <v>1408</v>
+        <v>1376</v>
       </c>
       <c r="E761" s="8"/>
       <c r="F761" s="8"/>
@@ -14280,7 +14280,7 @@
     <row r="762" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C762" s="8"/>
       <c r="D762" s="10" t="s">
-        <v>1409</v>
+        <v>1379</v>
       </c>
       <c r="E762" s="8"/>
       <c r="F762" s="8"/>
@@ -14288,7 +14288,7 @@
     <row r="763" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C763" s="8"/>
       <c r="D763" s="10" t="s">
-        <v>1410</v>
+        <v>1380</v>
       </c>
       <c r="E763" s="8"/>
       <c r="F763" s="8"/>
@@ -14296,7 +14296,7 @@
     <row r="764" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C764" s="8"/>
       <c r="D764" s="10" t="s">
-        <v>1411</v>
+        <v>1381</v>
       </c>
       <c r="E764" s="8"/>
       <c r="F764" s="8"/>
@@ -14304,7 +14304,7 @@
     <row r="765" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C765" s="8"/>
       <c r="D765" s="10" t="s">
-        <v>1412</v>
+        <v>1382</v>
       </c>
       <c r="E765" s="8"/>
       <c r="F765" s="8"/>
@@ -14312,7 +14312,7 @@
     <row r="766" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C766" s="8"/>
       <c r="D766" s="10" t="s">
-        <v>1413</v>
+        <v>1383</v>
       </c>
       <c r="E766" s="8"/>
       <c r="F766" s="8"/>
@@ -14320,7 +14320,7 @@
     <row r="767" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C767" s="8"/>
       <c r="D767" s="10" t="s">
-        <v>1414</v>
+        <v>1384</v>
       </c>
       <c r="E767" s="8"/>
       <c r="F767" s="8"/>
@@ -14328,7 +14328,7 @@
     <row r="768" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C768" s="8"/>
       <c r="D768" s="10" t="s">
-        <v>1415</v>
+        <v>1385</v>
       </c>
       <c r="E768" s="8"/>
       <c r="F768" s="8"/>
@@ -14336,22 +14336,30 @@
     <row r="769" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C769" s="8"/>
       <c r="D769" s="10" t="s">
-        <v>1416</v>
+        <v>1386</v>
       </c>
       <c r="E769" s="8"/>
       <c r="F769" s="8"/>
     </row>
     <row r="770" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C770" s="16"/>
+      <c r="C770" s="8"/>
       <c r="D770" s="10" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E770" s="16"/>
-      <c r="F770" s="16"/>
+        <v>1387</v>
+      </c>
+      <c r="E770" s="8"/>
+      <c r="F770" s="8"/>
+    </row>
+    <row r="771" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C771" s="16"/>
+      <c r="D771" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E771" s="16"/>
+      <c r="F771" s="16"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F70:F432">
-    <sortCondition ref="F70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F71:F433">
+    <sortCondition ref="F71"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
